--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcs595\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcs595\PycharmProjects\Vehicle Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A79B7F-D8B5-4DFB-A3D8-A5C7DCFBF6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E2321E-12B2-43D0-8338-4927E50A8F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40965" yWindow="1485" windowWidth="33120" windowHeight="18195" xr2:uid="{A959824A-2C30-47CF-9404-77EDE92E4E27}"/>
+    <workbookView xWindow="40695" yWindow="1575" windowWidth="33120" windowHeight="18195" xr2:uid="{A959824A-2C30-47CF-9404-77EDE92E4E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="118">
   <si>
     <t>Reserved - Hofstetter</t>
   </si>
@@ -425,9 +425,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,27 +763,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A5B956-59A1-4E4C-9E2A-968F7C53818A}">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="64" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B1" t="s">
@@ -801,17 +801,14 @@
         <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>336</v>
       </c>
       <c r="B2" t="s">
@@ -829,15 +826,15 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>336</v>
       </c>
       <c r="B3" t="s">
@@ -855,15 +852,15 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
       <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>336</v>
       </c>
       <c r="B4" t="s">
@@ -881,15 +878,15 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
       <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>336</v>
       </c>
       <c r="B5" t="s">
@@ -907,15 +904,15 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>336</v>
       </c>
       <c r="B6" t="s">
@@ -933,15 +930,15 @@
       <c r="F6" t="s">
         <v>2</v>
       </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>333</v>
       </c>
       <c r="B7" t="s">
@@ -957,8 +954,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>268</v>
       </c>
       <c r="B8" t="s">
@@ -974,8 +971,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>267</v>
       </c>
       <c r="B9" t="s">
@@ -994,8 +991,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>338</v>
       </c>
       <c r="B10" t="s">
@@ -1014,8 +1011,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>466</v>
       </c>
       <c r="B11" t="s">
@@ -1034,8 +1031,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>467</v>
       </c>
       <c r="B12" t="s">
@@ -1054,8 +1051,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>338</v>
       </c>
       <c r="B13" t="s">
@@ -1074,8 +1071,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>336</v>
       </c>
       <c r="B14" t="s">
@@ -1093,15 +1090,15 @@
       <c r="F14" t="s">
         <v>2</v>
       </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
       <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>336</v>
       </c>
       <c r="B15" t="s">
@@ -1119,15 +1116,15 @@
       <c r="F15" t="s">
         <v>2</v>
       </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>467</v>
       </c>
       <c r="B16" t="s">
@@ -1146,8 +1143,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>336</v>
       </c>
       <c r="B17" t="s">
@@ -1165,15 +1162,15 @@
       <c r="F17" t="s">
         <v>2</v>
       </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>336</v>
       </c>
       <c r="B18" t="s">
@@ -1191,15 +1188,15 @@
       <c r="F18" t="s">
         <v>2</v>
       </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>267</v>
       </c>
       <c r="B19" t="s">
@@ -1217,12 +1214,12 @@
       <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>323</v>
       </c>
       <c r="B20" t="s">
@@ -1241,8 +1238,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>336</v>
       </c>
       <c r="B21" t="s">
@@ -1260,15 +1257,15 @@
       <c r="F21" t="s">
         <v>2</v>
       </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>268</v>
       </c>
       <c r="B22" t="s">
@@ -1284,8 +1281,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>333</v>
       </c>
       <c r="B23" t="s">
@@ -1301,8 +1298,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>466</v>
       </c>
       <c r="B24" t="s">
@@ -1318,8 +1315,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>336</v>
       </c>
       <c r="B25" t="s">
@@ -1337,15 +1334,15 @@
       <c r="F25" t="s">
         <v>2</v>
       </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
       <c r="H25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>333</v>
       </c>
       <c r="B26" t="s">
@@ -1364,8 +1361,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>338</v>
       </c>
       <c r="B27" t="s">
@@ -1383,12 +1380,12 @@
       <c r="F27" t="s">
         <v>7</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>466</v>
       </c>
       <c r="B28" t="s">
@@ -1406,12 +1403,12 @@
       <c r="F28" t="s">
         <v>21</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>338</v>
       </c>
       <c r="B29" t="s">
@@ -1430,8 +1427,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>466</v>
       </c>
       <c r="B30" t="s">
@@ -1450,8 +1447,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>467</v>
       </c>
       <c r="B31" t="s">
@@ -1470,7 +1467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D32" s="1">
         <v>45427</v>
       </c>
@@ -1481,8 +1478,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>333</v>
       </c>
       <c r="B33" t="s">
@@ -1501,8 +1498,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>467</v>
       </c>
       <c r="B34" t="s">
@@ -1520,12 +1517,12 @@
       <c r="F34" t="s">
         <v>25</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>268</v>
       </c>
       <c r="B35" t="s">
@@ -1543,12 +1540,12 @@
       <c r="F35" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>267</v>
       </c>
       <c r="B36" t="s">
@@ -1566,12 +1563,12 @@
       <c r="F36" t="s">
         <v>5</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>268</v>
       </c>
       <c r="B37" t="s">
@@ -1590,8 +1587,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>332</v>
       </c>
       <c r="B38" t="s">
@@ -1609,12 +1606,12 @@
       <c r="F38" t="s">
         <v>27</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>332</v>
       </c>
       <c r="B39" t="s">
@@ -1633,8 +1630,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>333</v>
       </c>
       <c r="B40" t="s">
@@ -1653,7 +1650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1">
         <v>45432</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
         <v>45432</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D43" s="1">
         <v>45433</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D44" s="1">
         <v>45433</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45" s="1">
         <v>45433</v>
       </c>
@@ -1708,8 +1705,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>336</v>
       </c>
       <c r="B46" t="s">
@@ -1727,12 +1724,12 @@
       <c r="F46" t="s">
         <v>2</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>267</v>
       </c>
       <c r="B47" t="s">
@@ -1751,8 +1748,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>332</v>
       </c>
       <c r="B48" t="s">
@@ -1770,12 +1767,12 @@
       <c r="F48" t="s">
         <v>27</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>467</v>
       </c>
       <c r="B49" t="s">
@@ -1791,8 +1788,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>467</v>
       </c>
       <c r="B50" t="s">
@@ -1808,7 +1805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D51" s="1">
         <v>45443</v>
       </c>
@@ -1819,8 +1816,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>333</v>
       </c>
       <c r="B52" t="s">
@@ -1838,12 +1835,12 @@
       <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>267</v>
       </c>
       <c r="B53" t="s">
@@ -1862,8 +1859,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>267</v>
       </c>
       <c r="B54" t="s">
@@ -1882,8 +1879,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>332</v>
       </c>
       <c r="B55" t="s">
@@ -1901,12 +1898,12 @@
       <c r="F55" t="s">
         <v>27</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>336</v>
       </c>
       <c r="D56" s="1">
@@ -1919,8 +1916,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>267</v>
       </c>
       <c r="B57" t="s">
@@ -1939,8 +1936,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>267</v>
       </c>
       <c r="B58" t="s">
@@ -1959,8 +1956,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>336</v>
       </c>
       <c r="B59" t="s">
@@ -1975,12 +1972,12 @@
       <c r="F59" t="s">
         <v>2</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>267</v>
       </c>
       <c r="B60" t="s">
@@ -1999,8 +1996,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>338</v>
       </c>
       <c r="B61" t="s">
@@ -2018,12 +2015,12 @@
       <c r="F61" t="s">
         <v>7</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>332</v>
       </c>
       <c r="B62" t="s">
@@ -2041,12 +2038,12 @@
       <c r="F62" t="s">
         <v>27</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>467</v>
       </c>
       <c r="B63" t="s">
@@ -2064,12 +2061,12 @@
       <c r="F63" t="s">
         <v>25</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>467</v>
       </c>
       <c r="B64" t="s">
@@ -2088,8 +2085,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>267</v>
       </c>
       <c r="B65" t="s">
@@ -2108,8 +2105,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>331</v>
       </c>
       <c r="B66" t="s">
@@ -2127,12 +2124,12 @@
       <c r="F66" t="s">
         <v>58</v>
       </c>
-      <c r="I66" t="s">
+      <c r="H66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>267</v>
       </c>
       <c r="B67" t="s">
@@ -2151,8 +2148,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>467</v>
       </c>
       <c r="B68" t="s">
@@ -2170,12 +2167,12 @@
       <c r="F68" t="s">
         <v>25</v>
       </c>
-      <c r="I68" t="s">
+      <c r="H68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>336</v>
       </c>
       <c r="B69" t="s">
@@ -2191,8 +2188,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>267</v>
       </c>
       <c r="B70" t="s">
@@ -2211,8 +2208,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>467</v>
       </c>
       <c r="B71" t="s">
@@ -2230,12 +2227,12 @@
       <c r="F71" t="s">
         <v>25</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>267</v>
       </c>
       <c r="B72" t="s">
@@ -2254,8 +2251,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>331</v>
       </c>
       <c r="B73" t="s">
@@ -2273,12 +2270,12 @@
       <c r="F73" t="s">
         <v>58</v>
       </c>
-      <c r="I73" t="s">
+      <c r="H73" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>467</v>
       </c>
       <c r="B74" t="s">
@@ -2297,8 +2294,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>267</v>
       </c>
       <c r="B75" t="s">
@@ -2317,7 +2314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D76" s="1">
         <v>45509</v>
       </c>
@@ -2328,8 +2325,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>332</v>
       </c>
       <c r="B77" t="s">
@@ -2347,15 +2344,15 @@
       <c r="F77" t="s">
         <v>27</v>
       </c>
+      <c r="G77" t="s">
+        <v>61</v>
+      </c>
       <c r="H77" t="s">
-        <v>61</v>
-      </c>
-      <c r="I77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>467</v>
       </c>
       <c r="B78" t="s">
@@ -2371,8 +2368,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>267</v>
       </c>
       <c r="B79" t="s">
@@ -2391,8 +2388,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>467</v>
       </c>
       <c r="B80" t="s">
@@ -2408,8 +2405,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>339</v>
       </c>
       <c r="B81" t="s">
@@ -2427,15 +2424,15 @@
       <c r="F81" t="s">
         <v>62</v>
       </c>
+      <c r="G81" t="s">
+        <v>63</v>
+      </c>
       <c r="H81" t="s">
-        <v>63</v>
-      </c>
-      <c r="I81" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>332</v>
       </c>
       <c r="B82" t="s">
@@ -2453,15 +2450,15 @@
       <c r="F82" t="s">
         <v>27</v>
       </c>
+      <c r="G82" t="s">
+        <v>65</v>
+      </c>
       <c r="H82" t="s">
-        <v>65</v>
-      </c>
-      <c r="I82" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>267</v>
       </c>
       <c r="B83" t="s">
@@ -2480,8 +2477,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>467</v>
       </c>
       <c r="B84" t="s">
@@ -2499,12 +2496,12 @@
       <c r="F84" t="s">
         <v>25</v>
       </c>
-      <c r="H84" t="s">
+      <c r="G84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>332</v>
       </c>
       <c r="B85" t="s">
@@ -2522,12 +2519,12 @@
       <c r="F85" t="s">
         <v>27</v>
       </c>
-      <c r="H85" t="s">
+      <c r="G85" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>467</v>
       </c>
       <c r="B86" t="s">
@@ -2545,12 +2542,12 @@
       <c r="F86" t="s">
         <v>25</v>
       </c>
-      <c r="H86" t="s">
+      <c r="G86" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>267</v>
       </c>
       <c r="B87" t="s">
@@ -2569,8 +2566,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>467</v>
       </c>
       <c r="B88" t="s">
@@ -2588,15 +2585,15 @@
       <c r="F88" t="s">
         <v>25</v>
       </c>
+      <c r="G88" t="s">
+        <v>69</v>
+      </c>
       <c r="H88" t="s">
-        <v>69</v>
-      </c>
-      <c r="I88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>331</v>
       </c>
       <c r="B89" t="s">
@@ -2614,12 +2611,12 @@
       <c r="F89" t="s">
         <v>58</v>
       </c>
-      <c r="H89" t="s">
+      <c r="G89" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>268</v>
       </c>
       <c r="B90" t="s">
@@ -2638,8 +2635,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>333</v>
       </c>
       <c r="B91" t="s">
@@ -2657,12 +2654,12 @@
       <c r="F91" t="s">
         <v>14</v>
       </c>
-      <c r="H91" t="s">
+      <c r="G91" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>467</v>
       </c>
       <c r="B92" t="s">
@@ -2680,12 +2677,12 @@
       <c r="F92" t="s">
         <v>25</v>
       </c>
-      <c r="H92" t="s">
+      <c r="G92" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>325</v>
       </c>
       <c r="B93" t="s">
@@ -2701,8 +2698,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <v>268</v>
       </c>
       <c r="B94" t="s">
@@ -2720,12 +2717,12 @@
       <c r="F94" t="s">
         <v>9</v>
       </c>
-      <c r="H94">
+      <c r="G94">
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>321</v>
       </c>
       <c r="B95" t="s">
@@ -2744,8 +2741,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>268</v>
       </c>
       <c r="B96" t="s">
@@ -2763,12 +2760,12 @@
       <c r="F96" t="s">
         <v>9</v>
       </c>
-      <c r="H96">
+      <c r="G96">
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>325</v>
       </c>
       <c r="B97" t="s">
@@ -2784,8 +2781,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>268</v>
       </c>
       <c r="B98" t="s">
@@ -2803,12 +2800,12 @@
       <c r="F98" t="s">
         <v>9</v>
       </c>
-      <c r="H98">
+      <c r="G98">
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>310</v>
       </c>
       <c r="B99" t="s">
@@ -2827,8 +2824,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>332</v>
       </c>
       <c r="B100" t="s">
@@ -2847,8 +2844,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>268</v>
       </c>
       <c r="B101" t="s">
@@ -2866,12 +2863,12 @@
       <c r="F101" t="s">
         <v>9</v>
       </c>
-      <c r="H101">
+      <c r="G101">
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>325</v>
       </c>
       <c r="B102" t="s">
@@ -2887,8 +2884,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <v>268</v>
       </c>
       <c r="B103" t="s">
@@ -2906,12 +2903,12 @@
       <c r="F103" t="s">
         <v>9</v>
       </c>
-      <c r="H103">
+      <c r="G103">
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>310</v>
       </c>
       <c r="B104" t="s">
@@ -2929,12 +2926,12 @@
       <c r="F104" t="s">
         <v>76</v>
       </c>
-      <c r="H104" t="s">
+      <c r="G104" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <v>466</v>
       </c>
       <c r="B105" t="s">
@@ -2950,8 +2947,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>321</v>
       </c>
       <c r="B106" t="s">
@@ -2970,8 +2967,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>329</v>
       </c>
       <c r="B107" t="s">
@@ -2987,8 +2984,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
         <v>325</v>
       </c>
       <c r="B108" t="s">
@@ -3004,8 +3001,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>268</v>
       </c>
       <c r="B109" t="s">
@@ -3023,12 +3020,12 @@
       <c r="F109" t="s">
         <v>9</v>
       </c>
-      <c r="H109">
+      <c r="G109">
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>321</v>
       </c>
       <c r="B110" t="s">
@@ -3044,8 +3041,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <v>329</v>
       </c>
       <c r="B111" t="s">
@@ -3061,8 +3058,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>466</v>
       </c>
       <c r="B112" t="s">
@@ -3080,12 +3077,12 @@
       <c r="F112" t="s">
         <v>21</v>
       </c>
-      <c r="H112" t="s">
+      <c r="G112" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
         <v>331</v>
       </c>
       <c r="B113" t="s">
@@ -3100,15 +3097,15 @@
       <c r="F113" t="s">
         <v>58</v>
       </c>
+      <c r="G113" t="s">
+        <v>81</v>
+      </c>
       <c r="H113" t="s">
-        <v>81</v>
-      </c>
-      <c r="I113" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
         <v>268</v>
       </c>
       <c r="B114" t="s">
@@ -3126,12 +3123,12 @@
       <c r="F114" t="s">
         <v>9</v>
       </c>
-      <c r="H114">
+      <c r="G114">
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
         <v>333</v>
       </c>
       <c r="B115" t="s">
@@ -3149,12 +3146,12 @@
       <c r="F115" t="s">
         <v>14</v>
       </c>
-      <c r="H115" t="s">
+      <c r="G115" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>325</v>
       </c>
       <c r="B116" t="s">
@@ -3170,8 +3167,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>268</v>
       </c>
       <c r="B117" t="s">
@@ -3189,12 +3186,12 @@
       <c r="F117" t="s">
         <v>9</v>
       </c>
-      <c r="H117">
+      <c r="G117">
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
         <v>329</v>
       </c>
       <c r="B118" t="s">
@@ -3213,8 +3210,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>268</v>
       </c>
       <c r="B119" t="s">
@@ -3232,12 +3229,12 @@
       <c r="F119" t="s">
         <v>9</v>
       </c>
-      <c r="H119" t="s">
+      <c r="G119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>268</v>
       </c>
       <c r="B120" t="s">
@@ -3255,12 +3252,12 @@
       <c r="F120" t="s">
         <v>9</v>
       </c>
-      <c r="H120">
+      <c r="G120">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>267</v>
       </c>
       <c r="B121" t="s">
@@ -3279,8 +3276,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
         <v>325</v>
       </c>
       <c r="B122" t="s">
@@ -3296,8 +3293,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
         <v>268</v>
       </c>
       <c r="B123" t="s">
@@ -3315,12 +3312,12 @@
       <c r="F123" t="s">
         <v>9</v>
       </c>
-      <c r="H123">
+      <c r="G123">
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
         <v>338</v>
       </c>
       <c r="B124" t="s">
@@ -3338,12 +3335,12 @@
       <c r="F124" t="s">
         <v>7</v>
       </c>
-      <c r="H124" t="s">
+      <c r="G124" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
         <v>321</v>
       </c>
       <c r="B125" t="s">
@@ -3361,12 +3358,12 @@
       <c r="F125" t="s">
         <v>74</v>
       </c>
-      <c r="H125" t="s">
+      <c r="G125" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
         <v>310</v>
       </c>
       <c r="B126" t="s">
@@ -3384,12 +3381,12 @@
       <c r="F126" t="s">
         <v>76</v>
       </c>
-      <c r="H126" t="s">
+      <c r="G126" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
         <v>329</v>
       </c>
       <c r="B127" t="s">
@@ -3407,12 +3404,12 @@
       <c r="F127" t="s">
         <v>78</v>
       </c>
-      <c r="H127" t="s">
+      <c r="G127" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
         <v>325</v>
       </c>
       <c r="B128" t="s">
@@ -3430,12 +3427,12 @@
       <c r="F128" t="s">
         <v>73</v>
       </c>
-      <c r="H128" t="s">
+      <c r="G128" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
         <v>268</v>
       </c>
       <c r="B129" t="s">
@@ -3453,12 +3450,12 @@
       <c r="F129" t="s">
         <v>9</v>
       </c>
-      <c r="H129">
+      <c r="G129">
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
         <v>310</v>
       </c>
       <c r="B130" t="s">
@@ -3476,12 +3473,12 @@
       <c r="F130" t="s">
         <v>76</v>
       </c>
-      <c r="H130" t="s">
+      <c r="G130" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
         <v>329</v>
       </c>
       <c r="B131" t="s">
@@ -3497,8 +3494,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
         <v>321</v>
       </c>
       <c r="B132" t="s">
@@ -3514,8 +3511,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
         <v>466</v>
       </c>
       <c r="B133" t="s">
@@ -3534,8 +3531,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
         <v>268</v>
       </c>
       <c r="B134" t="s">
@@ -3553,12 +3550,12 @@
       <c r="F134" t="s">
         <v>9</v>
       </c>
-      <c r="H134">
+      <c r="G134">
         <v>313</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
         <v>310</v>
       </c>
       <c r="B135" t="s">
@@ -3576,12 +3573,12 @@
       <c r="F135" t="s">
         <v>76</v>
       </c>
-      <c r="H135" t="s">
+      <c r="G135" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
         <v>338</v>
       </c>
       <c r="B136" t="s">
@@ -3596,12 +3593,12 @@
       <c r="F136" t="s">
         <v>7</v>
       </c>
-      <c r="H136" t="s">
+      <c r="G136" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
         <v>268</v>
       </c>
       <c r="B137" t="s">
@@ -3619,12 +3616,12 @@
       <c r="F137" t="s">
         <v>9</v>
       </c>
-      <c r="H137">
+      <c r="G137">
         <v>315</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
         <v>329</v>
       </c>
       <c r="B138" t="s">
@@ -3640,8 +3637,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
         <v>466</v>
       </c>
       <c r="B139" t="s">
@@ -3657,8 +3654,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
         <v>321</v>
       </c>
       <c r="B140" t="s">
@@ -3677,8 +3674,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
         <v>338</v>
       </c>
       <c r="B141" t="s">
@@ -3693,12 +3690,12 @@
       <c r="F141" t="s">
         <v>7</v>
       </c>
-      <c r="H141" t="s">
+      <c r="G141" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
         <v>268</v>
       </c>
       <c r="B142" t="s">
@@ -3716,12 +3713,12 @@
       <c r="F142" t="s">
         <v>9</v>
       </c>
-      <c r="H142">
+      <c r="G142">
         <v>313</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
         <v>310</v>
       </c>
       <c r="B143" t="s">
@@ -3739,12 +3736,12 @@
       <c r="F143" t="s">
         <v>76</v>
       </c>
-      <c r="H143" t="s">
+      <c r="G143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
         <v>333</v>
       </c>
       <c r="B144" t="s">
@@ -3763,8 +3760,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
         <v>321</v>
       </c>
       <c r="B145" t="s">
@@ -3779,12 +3776,12 @@
       <c r="F145" t="s">
         <v>74</v>
       </c>
-      <c r="H145" t="s">
+      <c r="G145" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
         <v>331</v>
       </c>
       <c r="B146" t="s">
@@ -3799,12 +3796,12 @@
       <c r="F146" t="s">
         <v>58</v>
       </c>
-      <c r="H146" t="s">
+      <c r="G146" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
         <v>310</v>
       </c>
       <c r="B147" t="s">
@@ -3819,12 +3816,12 @@
       <c r="F147" t="s">
         <v>76</v>
       </c>
-      <c r="H147" t="s">
+      <c r="G147" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
         <v>466</v>
       </c>
       <c r="B148" t="s">
@@ -3839,12 +3836,12 @@
       <c r="F148" t="s">
         <v>21</v>
       </c>
-      <c r="H148" t="s">
+      <c r="G148" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
         <v>321</v>
       </c>
       <c r="B149" t="s">
@@ -3859,12 +3856,12 @@
       <c r="F149" t="s">
         <v>74</v>
       </c>
-      <c r="H149" t="s">
+      <c r="G149" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
         <v>466</v>
       </c>
       <c r="B150" t="s">
@@ -3880,8 +3877,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
         <v>331</v>
       </c>
       <c r="B151" t="s">
@@ -3900,8 +3897,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
         <v>321</v>
       </c>
       <c r="B152" t="s">
@@ -3916,12 +3913,12 @@
       <c r="F152" t="s">
         <v>74</v>
       </c>
-      <c r="H152" t="s">
+      <c r="G152" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
         <v>331</v>
       </c>
       <c r="B153" t="s">
@@ -3939,14 +3936,14 @@
       <c r="F153" t="s">
         <v>58</v>
       </c>
+      <c r="G153" t="s">
+        <v>103</v>
+      </c>
       <c r="H153" t="s">
-        <v>103</v>
-      </c>
-      <c r="I153" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="1">
         <v>45616</v>
       </c>
@@ -3957,8 +3954,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
         <v>333</v>
       </c>
       <c r="B155" t="s">
@@ -3977,8 +3974,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
         <v>333</v>
       </c>
       <c r="B156" t="s">
@@ -3997,8 +3994,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
         <v>310</v>
       </c>
       <c r="B157" t="s">
@@ -4013,12 +4010,12 @@
       <c r="F157" t="s">
         <v>76</v>
       </c>
-      <c r="H157" t="s">
+      <c r="G157" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
         <v>321</v>
       </c>
       <c r="B158" t="s">
@@ -4033,15 +4030,15 @@
       <c r="F158" t="s">
         <v>74</v>
       </c>
+      <c r="G158" t="s">
+        <v>106</v>
+      </c>
       <c r="H158" t="s">
-        <v>106</v>
-      </c>
-      <c r="I158" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
         <v>331</v>
       </c>
       <c r="B159" t="s">
@@ -4059,15 +4056,15 @@
       <c r="F159" t="s">
         <v>58</v>
       </c>
+      <c r="G159" t="s">
+        <v>107</v>
+      </c>
       <c r="H159" t="s">
-        <v>107</v>
-      </c>
-      <c r="I159" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
         <v>466</v>
       </c>
       <c r="B160" t="s">
@@ -4082,15 +4079,15 @@
       <c r="F160" t="s">
         <v>21</v>
       </c>
+      <c r="G160" t="s">
+        <v>108</v>
+      </c>
       <c r="H160" t="s">
-        <v>108</v>
-      </c>
-      <c r="I160" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
         <v>330</v>
       </c>
       <c r="B161" t="s">
@@ -4105,12 +4102,12 @@
       <c r="F161" t="s">
         <v>111</v>
       </c>
-      <c r="I161" t="s">
+      <c r="H161" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
         <v>310</v>
       </c>
       <c r="B162" t="s">
@@ -4126,8 +4123,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
         <v>333</v>
       </c>
       <c r="B163" t="s">
@@ -4146,8 +4143,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
         <v>331</v>
       </c>
       <c r="B164" t="s">
@@ -4162,15 +4159,15 @@
       <c r="F164" t="s">
         <v>58</v>
       </c>
+      <c r="G164" t="s">
+        <v>114</v>
+      </c>
       <c r="H164" t="s">
-        <v>114</v>
-      </c>
-      <c r="I164" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
         <v>329</v>
       </c>
       <c r="B165" t="s">
@@ -4188,10 +4185,10 @@
       <c r="F165" t="s">
         <v>78</v>
       </c>
+      <c r="G165" t="s">
+        <v>116</v>
+      </c>
       <c r="H165" t="s">
-        <v>116</v>
-      </c>
-      <c r="I165" t="s">
         <v>109</v>
       </c>
     </row>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcs595\PycharmProjects\Vehicle Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224EDF16-323C-410E-B30F-D2463C35FA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2C6EC-1285-4F9D-85B0-C12A20F033C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2010" windowWidth="33120" windowHeight="18195" xr2:uid="{A959824A-2C30-47CF-9404-77EDE92E4E27}"/>
+    <workbookView xWindow="41235" yWindow="1410" windowWidth="33120" windowHeight="18195" xr2:uid="{A959824A-2C30-47CF-9404-77EDE92E4E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="97">
   <si>
     <t>Reserved</t>
   </si>
@@ -56,18 +56,9 @@
     <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
   </si>
   <si>
-    <t>Reserved -  Waring</t>
-  </si>
-  <si>
     <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
   </si>
   <si>
-    <t>Reserved -  CF</t>
-  </si>
-  <si>
-    <t>Reserved -  Pete Fule</t>
-  </si>
-  <si>
     <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
   </si>
   <si>
@@ -83,12 +74,6 @@
     <t>Hofstetter</t>
   </si>
   <si>
-    <t>Reserved - Margaret Moore</t>
-  </si>
-  <si>
-    <t>Reserved - Salli Dymond</t>
-  </si>
-  <si>
     <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
   </si>
   <si>
@@ -164,9 +149,6 @@
     <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
   </si>
   <si>
-    <t>Reserved - Anita Antoninka</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sierra Ancha, </t>
   </si>
   <si>
@@ -197,15 +179,6 @@
     <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
   </si>
   <si>
-    <t>339- 2024 Ford F250 Super Duty, White (6 Seats)</t>
-  </si>
-  <si>
-    <t>CF  dedicated truck</t>
-  </si>
-  <si>
-    <t>{Shay Levine}{Jacob Shelly}{Jill Beckmann}</t>
-  </si>
-  <si>
     <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
   </si>
   <si>
@@ -227,9 +200,6 @@
     <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
   </si>
   <si>
-    <t>used every Wednesdays and Friday</t>
-  </si>
-  <si>
     <t>325 - Chevy Trail Boss, White</t>
   </si>
   <si>
@@ -242,9 +212,6 @@
     <t>310 - Chevy Trail Boss, White</t>
   </si>
   <si>
-    <t>Day trips for aspen data collection, up to 4 occupants</t>
-  </si>
-  <si>
     <t>329 - Chevy Trail Boss, White</t>
   </si>
   <si>
@@ -255,9 +222,6 @@
   </si>
   <si>
     <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
-  </si>
-  <si>
-    <t>need through Jan</t>
   </si>
   <si>
     <t>field work near flagstaff</t>
@@ -739,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A5B956-59A1-4E4C-9E2A-968F7C53818A}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,36 +723,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>45401</v>
@@ -797,7 +764,7 @@
         <v>45402</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -805,116 +772,131 @@
         <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>45401</v>
+        <v>45421</v>
       </c>
       <c r="E3" s="1">
-        <v>45402</v>
+        <v>45421</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>45401</v>
+        <v>45432</v>
       </c>
       <c r="E4" s="1">
-        <v>45402</v>
+        <v>45538</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>45401</v>
+        <v>45539</v>
       </c>
       <c r="E5" s="1">
-        <v>45410</v>
+        <v>45540</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>467</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>45401</v>
+        <v>45546</v>
       </c>
       <c r="E6" s="1">
-        <v>45402</v>
+        <v>45547</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>45403</v>
+        <v>45551</v>
       </c>
       <c r="E7" s="1">
-        <v>45423</v>
+        <v>45551</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>467</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>45408</v>
+        <v>45553</v>
       </c>
       <c r="E8" s="1">
-        <v>45412</v>
+        <v>45554</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -922,219 +904,252 @@
         <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>45421</v>
+        <v>45558</v>
       </c>
       <c r="E9" s="1">
-        <v>45421</v>
+        <v>45558</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>45421</v>
+        <v>45560</v>
       </c>
       <c r="E10" s="1">
-        <v>45421</v>
+        <v>45561</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>45421</v>
+        <v>45567</v>
       </c>
       <c r="E11" s="1">
-        <v>45421</v>
+        <v>45568</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>45422</v>
+        <v>45572</v>
       </c>
       <c r="E12" s="1">
-        <v>45427</v>
+        <v>45572</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>45425</v>
+        <v>45574</v>
       </c>
       <c r="E13" s="1">
-        <v>45474</v>
+        <v>45575</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>45425</v>
+        <v>45576</v>
       </c>
       <c r="E14" s="1">
-        <v>45534</v>
+        <v>45576</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>45425</v>
+        <v>45579</v>
       </c>
       <c r="E15" s="1">
-        <v>45565</v>
+        <v>45579</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45581</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45582</v>
+      </c>
+      <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45425</v>
-      </c>
-      <c r="E16" s="1">
-        <v>45534</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
+      <c r="G16">
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>467</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>45426</v>
+        <v>45588</v>
       </c>
       <c r="E17" s="1">
-        <v>45477</v>
+        <v>45589</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>45428</v>
+        <v>45593</v>
       </c>
       <c r="E18" s="1">
-        <v>45536</v>
+        <v>45593</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>467</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>45431</v>
+        <v>45595</v>
       </c>
       <c r="E19" s="1">
-        <v>45436</v>
+        <v>45596</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1142,821 +1157,833 @@
         <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>45432</v>
+        <v>45600</v>
       </c>
       <c r="E20" s="1">
-        <v>45538</v>
+        <v>45600</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>45432</v>
+        <v>45554</v>
       </c>
       <c r="E21" s="1">
-        <v>45538</v>
+        <v>45556</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>45432</v>
+        <v>45581</v>
       </c>
       <c r="E22" s="1">
-        <v>45434</v>
+        <v>45585</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>45432</v>
+        <v>45588</v>
       </c>
       <c r="E23" s="1">
-        <v>45506</v>
+        <v>45588</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>45432</v>
+        <v>45594</v>
       </c>
       <c r="E24" s="1">
-        <v>45433</v>
+        <v>45595</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>45439</v>
+        <v>45600</v>
       </c>
       <c r="E25" s="1">
-        <v>45445</v>
+        <v>45600</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>467</v>
+        <v>310</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>45440</v>
+        <v>45605</v>
       </c>
       <c r="E26" s="1">
-        <v>45440</v>
+        <v>45610</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>467</v>
+        <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>45441</v>
+        <v>45627</v>
       </c>
       <c r="E27" s="1">
-        <v>45442</v>
+        <v>45635</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>45444</v>
+        <v>45637</v>
       </c>
       <c r="E28" s="1">
-        <v>45536</v>
+        <v>45642</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>45453</v>
+        <v>45548</v>
       </c>
       <c r="E29" s="1">
-        <v>45477</v>
+        <v>45554</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>45475</v>
+        <v>45562</v>
       </c>
       <c r="E30" s="1">
-        <v>45565</v>
+        <v>45564</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>45478</v>
+        <v>45568</v>
       </c>
       <c r="E31" s="1">
-        <v>45506</v>
+        <v>45568</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>45478</v>
+        <v>45581</v>
       </c>
       <c r="E32" s="1">
-        <v>45487</v>
+        <v>45587</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>45478</v>
+        <v>45589</v>
       </c>
       <c r="E33" s="1">
-        <v>45506</v>
+        <v>45593</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>45481</v>
+        <v>45597</v>
       </c>
       <c r="E34" s="1">
-        <v>45490</v>
+        <v>45598</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>45488</v>
+        <v>45603</v>
       </c>
       <c r="E35" s="1">
-        <v>45491</v>
+        <v>45604</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>45496</v>
+        <v>45608</v>
       </c>
       <c r="E36" s="1">
-        <v>45506</v>
+        <v>45608</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>45503</v>
+        <v>45611</v>
       </c>
       <c r="E37" s="1">
-        <v>45503</v>
+        <v>45611</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>45507</v>
+        <v>45627</v>
       </c>
       <c r="E38" s="1">
-        <v>45522</v>
+        <v>45748</v>
       </c>
       <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>325</v>
+      </c>
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
       <c r="D39" s="1">
-        <v>45509</v>
+        <v>45545</v>
       </c>
       <c r="E39" s="1">
-        <v>45510</v>
+        <v>45547</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>45509</v>
+        <v>45552</v>
       </c>
       <c r="E40" s="1">
-        <v>45514</v>
+        <v>45554</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
       </c>
       <c r="D41" s="1">
-        <v>45509</v>
+        <v>45559</v>
       </c>
       <c r="E41" s="1">
-        <v>45513</v>
+        <v>45561</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>45516</v>
+        <v>45566</v>
       </c>
       <c r="E42" s="1">
-        <v>45521</v>
+        <v>45568</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>45516</v>
+        <v>45573</v>
       </c>
       <c r="E43" s="1">
-        <v>45632</v>
+        <v>45575</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
         <v>53</v>
-      </c>
-      <c r="H43" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>45517</v>
+        <v>45580</v>
       </c>
       <c r="E44" s="1">
-        <v>45518</v>
+        <v>45582</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>45523</v>
+        <v>45586</v>
       </c>
       <c r="E45" s="1">
-        <v>45524</v>
+        <v>45610</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>45525</v>
+        <v>45565</v>
       </c>
       <c r="E46" s="1">
-        <v>45525</v>
+        <v>45567</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>467</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>45527</v>
+        <v>45576</v>
       </c>
       <c r="E47" s="1">
-        <v>45527</v>
+        <v>45576</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>467</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>45533</v>
+        <v>45581</v>
       </c>
       <c r="E48" s="1">
+        <v>45583</v>
+      </c>
+      <c r="F48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>329</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45588</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45588</v>
+      </c>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>329</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45595</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>329</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45642</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45643</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>330</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45643</v>
+      </c>
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>331</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45481</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45490</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>331</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45503</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45503</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>331</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
         <v>45534</v>
       </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="E55" s="1">
+        <v>45553</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>329</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45568</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45568</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>331</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="H48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45572</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45576</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>331</v>
-      </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1">
-        <v>45534</v>
-      </c>
-      <c r="E49" s="1">
-        <v>45553</v>
-      </c>
-      <c r="F49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>268</v>
-      </c>
-      <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>45539</v>
-      </c>
-      <c r="E50" s="1">
-        <v>45540</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>333</v>
-      </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>45541</v>
-      </c>
-      <c r="E51" s="1">
-        <v>45571</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>467</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>45544</v>
-      </c>
-      <c r="E52" s="1">
-        <v>45636</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>325</v>
-      </c>
-      <c r="B53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="1">
-        <v>45545</v>
-      </c>
-      <c r="E53" s="1">
-        <v>45547</v>
-      </c>
-      <c r="F53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>268</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>45546</v>
-      </c>
-      <c r="E54" s="1">
-        <v>45547</v>
-      </c>
-      <c r="F54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>321</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>45548</v>
-      </c>
-      <c r="E55" s="1">
-        <v>45554</v>
-      </c>
-      <c r="F55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>268</v>
-      </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>45551</v>
-      </c>
-      <c r="E56" s="1">
-        <v>45551</v>
-      </c>
-      <c r="F56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>325</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="1">
-        <v>45552</v>
-      </c>
-      <c r="E57" s="1">
-        <v>45554</v>
-      </c>
-      <c r="F57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>268</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -1965,164 +1992,188 @@
         <v>2</v>
       </c>
       <c r="D58" s="1">
-        <v>45553</v>
+        <v>45605</v>
       </c>
       <c r="E58" s="1">
-        <v>45554</v>
+        <v>45609</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="1">
-        <v>45554</v>
+        <v>45611</v>
       </c>
       <c r="E59" s="1">
-        <v>45556</v>
+        <v>45611</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
+        <v>331</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45613</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45619</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>331</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45629</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45633</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>331</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45642</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45642</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>332</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>1</v>
       </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1">
-        <v>45555</v>
-      </c>
-      <c r="E60" s="1">
-        <v>45555</v>
-      </c>
-      <c r="F60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>268</v>
-      </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>45558</v>
-      </c>
-      <c r="E61" s="1">
-        <v>45558</v>
-      </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>325</v>
-      </c>
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="1">
-        <v>45559</v>
-      </c>
-      <c r="E62" s="1">
-        <v>45561</v>
-      </c>
-      <c r="F62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>268</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>45560</v>
+        <v>45432</v>
       </c>
       <c r="E63" s="1">
-        <v>45561</v>
+        <v>45434</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>45560</v>
+        <v>45439</v>
       </c>
       <c r="E64" s="1">
-        <v>45576</v>
+        <v>45445</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>45561</v>
+        <v>45453</v>
       </c>
       <c r="E65" s="1">
-        <v>45561</v>
+        <v>45477</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -2131,173 +2182,191 @@
         <v>2</v>
       </c>
       <c r="D66" s="1">
-        <v>45562</v>
+        <v>45478</v>
       </c>
       <c r="E66" s="1">
-        <v>45564</v>
+        <v>45506</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
       </c>
       <c r="D67" s="1">
-        <v>45565</v>
+        <v>45509</v>
       </c>
       <c r="E67" s="1">
-        <v>45567</v>
+        <v>45514</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>45566</v>
+        <v>45517</v>
       </c>
       <c r="E68" s="1">
-        <v>45568</v>
+        <v>45518</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="1">
-        <v>45567</v>
+        <v>45525</v>
       </c>
       <c r="E69" s="1">
-        <v>45568</v>
+        <v>45525</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69">
-        <v>315</v>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
       </c>
       <c r="D70" s="1">
-        <v>45568</v>
+        <v>45555</v>
       </c>
       <c r="E70" s="1">
-        <v>45568</v>
+        <v>45555</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
       </c>
       <c r="D71" s="1">
-        <v>45568</v>
+        <v>45401</v>
       </c>
       <c r="E71" s="1">
-        <v>45568</v>
+        <v>45402</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="1">
-        <v>45568</v>
+        <v>45421</v>
       </c>
       <c r="E72" s="1">
-        <v>45572</v>
+        <v>45421</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
       </c>
       <c r="D73" s="1">
-        <v>45572</v>
+        <v>45422</v>
       </c>
       <c r="E73" s="1">
-        <v>45576</v>
+        <v>45427</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
-      </c>
-      <c r="G73" t="s">
-        <v>71</v>
-      </c>
-      <c r="H73" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="1">
-        <v>45572</v>
+        <v>45432</v>
       </c>
       <c r="E74" s="1">
-        <v>45572</v>
+        <v>45433</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
-      </c>
-      <c r="G74">
-        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2305,168 +2374,165 @@
         <v>333</v>
       </c>
       <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45444</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45536</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
         <v>41</v>
-      </c>
-      <c r="C75" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1">
-        <v>45572</v>
-      </c>
-      <c r="E75" s="1">
-        <v>45648</v>
-      </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>45573</v>
+        <v>45541</v>
       </c>
       <c r="E76" s="1">
-        <v>45575</v>
+        <v>45571</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="1">
-        <v>45574</v>
+        <v>45602</v>
       </c>
       <c r="E77" s="1">
-        <v>45575</v>
+        <v>45608</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
       </c>
-      <c r="G77">
-        <v>315</v>
-      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" s="1">
-        <v>45576</v>
+        <v>45617</v>
       </c>
       <c r="E78" s="1">
-        <v>45576</v>
+        <v>45623</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="1">
-        <v>45576</v>
+        <v>45627</v>
       </c>
       <c r="E79" s="1">
-        <v>45576</v>
+        <v>45636</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
       </c>
-      <c r="G79" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="1">
-        <v>45579</v>
+        <v>45639</v>
       </c>
       <c r="E80" s="1">
-        <v>45579</v>
+        <v>45647</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
       </c>
-      <c r="G80">
-        <v>313</v>
-      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
       </c>
       <c r="D81" s="1">
-        <v>45580</v>
+        <v>45401</v>
       </c>
       <c r="E81" s="1">
-        <v>45582</v>
+        <v>45402</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="1">
-        <v>45581</v>
+        <v>45403</v>
       </c>
       <c r="E82" s="1">
-        <v>45582</v>
+        <v>45423</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82">
-        <v>315</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2480,21 +2546,21 @@
         <v>2</v>
       </c>
       <c r="D83" s="1">
-        <v>45581</v>
+        <v>45425</v>
       </c>
       <c r="E83" s="1">
-        <v>45587</v>
+        <v>45474</v>
       </c>
       <c r="F83" t="s">
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -2503,24 +2569,24 @@
         <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>45581</v>
+        <v>45475</v>
       </c>
       <c r="E84" s="1">
-        <v>45587</v>
+        <v>45565</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -2529,139 +2595,142 @@
         <v>45581</v>
       </c>
       <c r="E85" s="1">
-        <v>45585</v>
+        <v>45587</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>45581</v>
+        <v>45594</v>
       </c>
       <c r="E86" s="1">
-        <v>45583</v>
+        <v>45594</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
-        <v>45586</v>
+        <v>45597</v>
       </c>
       <c r="E87" s="1">
-        <v>45610</v>
+        <v>45613</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>268</v>
+        <v>466</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="1">
-        <v>45588</v>
+        <v>45401</v>
       </c>
       <c r="E88" s="1">
-        <v>45589</v>
+        <v>45410</v>
       </c>
       <c r="F88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88">
-        <v>315</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="1">
-        <v>45588</v>
+        <v>45421</v>
       </c>
       <c r="E89" s="1">
-        <v>45588</v>
+        <v>45421</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
-      </c>
-      <c r="G89" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
       </c>
       <c r="D90" s="1">
-        <v>45588</v>
+        <v>45425</v>
       </c>
       <c r="E90" s="1">
-        <v>45588</v>
+        <v>45534</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>321</v>
+        <v>466</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
       </c>
       <c r="D91" s="1">
-        <v>45589</v>
+        <v>45561</v>
       </c>
       <c r="E91" s="1">
-        <v>45593</v>
+        <v>45561</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,673 +2738,423 @@
         <v>466</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>45592</v>
+        <v>45568</v>
       </c>
       <c r="E92" s="1">
-        <v>45594</v>
+        <v>45572</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>268</v>
+        <v>466</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" s="1">
-        <v>45593</v>
+        <v>45592</v>
       </c>
       <c r="E93" s="1">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="F93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93">
-        <v>313</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="E94" s="1">
-        <v>45595</v>
+        <v>45599</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
-      </c>
-      <c r="G94" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>338</v>
+        <v>466</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>45594</v>
+        <v>45605</v>
       </c>
       <c r="E95" s="1">
-        <v>45594</v>
+        <v>45605</v>
       </c>
       <c r="F95" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>268</v>
+        <v>466</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>45595</v>
+        <v>45610</v>
       </c>
       <c r="E96" s="1">
-        <v>45596</v>
+        <v>45614</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96">
-        <v>315</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>45595</v>
+        <v>45629</v>
       </c>
       <c r="E97" s="1">
-        <v>45595</v>
+        <v>45648</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>45595</v>
+        <v>45401</v>
       </c>
       <c r="E98" s="1">
-        <v>45599</v>
+        <v>45402</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>45597</v>
+        <v>45408</v>
       </c>
       <c r="E99" s="1">
-        <v>45598</v>
+        <v>45412</v>
       </c>
       <c r="F99" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>338</v>
+        <v>467</v>
       </c>
       <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45431</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45436</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
         <v>36</v>
-      </c>
-      <c r="D100" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E100" s="1">
-        <v>45613</v>
-      </c>
-      <c r="F100" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>268</v>
+        <v>467</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>45600</v>
+        <v>45440</v>
       </c>
       <c r="E101" s="1">
-        <v>45600</v>
+        <v>45440</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101">
-        <v>313</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>310</v>
+        <v>467</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>45600</v>
+        <v>45441</v>
       </c>
       <c r="E102" s="1">
-        <v>45600</v>
+        <v>45442</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
-      </c>
-      <c r="G102" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>45602</v>
+        <v>45478</v>
       </c>
       <c r="E103" s="1">
-        <v>45608</v>
+        <v>45487</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="B104" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>45603</v>
+        <v>45488</v>
       </c>
       <c r="E104" s="1">
-        <v>45604</v>
+        <v>45491</v>
       </c>
       <c r="F104" t="s">
-        <v>64</v>
-      </c>
-      <c r="G104" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>331</v>
+        <v>467</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
       </c>
       <c r="D105" s="1">
-        <v>45605</v>
+        <v>45496</v>
       </c>
       <c r="E105" s="1">
-        <v>45609</v>
+        <v>45506</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>310</v>
+        <v>467</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
       </c>
       <c r="D106" s="1">
-        <v>45605</v>
+        <v>45509</v>
       </c>
       <c r="E106" s="1">
-        <v>45610</v>
+        <v>45513</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
-      </c>
-      <c r="G106" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
       </c>
       <c r="D107" s="1">
-        <v>45605</v>
+        <v>45516</v>
       </c>
       <c r="E107" s="1">
-        <v>45605</v>
+        <v>45521</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
       </c>
       <c r="D108" s="1">
-        <v>45608</v>
+        <v>45523</v>
       </c>
       <c r="E108" s="1">
-        <v>45608</v>
+        <v>45524</v>
       </c>
       <c r="F108" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
       </c>
       <c r="D109" s="1">
-        <v>45610</v>
+        <v>45527</v>
       </c>
       <c r="E109" s="1">
-        <v>45614</v>
+        <v>45527</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>331</v>
+        <v>467</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="1">
-        <v>45611</v>
+        <v>45533</v>
       </c>
       <c r="E110" s="1">
-        <v>45611</v>
+        <v>45534</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>321</v>
-      </c>
-      <c r="B111" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" s="1">
-        <v>45611</v>
-      </c>
-      <c r="E111" s="1">
-        <v>45611</v>
-      </c>
-      <c r="F111" t="s">
-        <v>64</v>
-      </c>
-      <c r="G111" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>331</v>
-      </c>
-      <c r="B112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="1">
-        <v>45613</v>
-      </c>
-      <c r="E112" s="1">
-        <v>45619</v>
-      </c>
-      <c r="F112" t="s">
-        <v>48</v>
-      </c>
-      <c r="G112" t="s">
-        <v>93</v>
-      </c>
-      <c r="H112" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>333</v>
-      </c>
-      <c r="B113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="1">
-        <v>45617</v>
-      </c>
-      <c r="E113" s="1">
-        <v>45623</v>
-      </c>
-      <c r="F113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>333</v>
-      </c>
-      <c r="B114" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="1">
-        <v>45627</v>
-      </c>
-      <c r="E114" s="1">
-        <v>45636</v>
-      </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>310</v>
-      </c>
-      <c r="B115" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" s="1">
-        <v>45627</v>
-      </c>
-      <c r="E115" s="1">
-        <v>45635</v>
-      </c>
-      <c r="F115" t="s">
-        <v>66</v>
-      </c>
-      <c r="G115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>321</v>
-      </c>
-      <c r="B116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="1">
-        <v>45627</v>
-      </c>
-      <c r="E116" s="1">
-        <v>45748</v>
-      </c>
-      <c r="F116" t="s">
-        <v>64</v>
-      </c>
-      <c r="G116" t="s">
-        <v>96</v>
-      </c>
-      <c r="H116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>331</v>
-      </c>
-      <c r="B117" t="s">
-        <v>70</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" s="1">
-        <v>45629</v>
-      </c>
-      <c r="E117" s="1">
-        <v>45633</v>
-      </c>
-      <c r="F117" t="s">
-        <v>48</v>
-      </c>
-      <c r="G117" t="s">
-        <v>97</v>
-      </c>
-      <c r="H117" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>466</v>
-      </c>
-      <c r="B118" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="1">
-        <v>45629</v>
-      </c>
-      <c r="E118" s="1">
-        <v>45648</v>
-      </c>
-      <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>98</v>
-      </c>
-      <c r="H118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>330</v>
-      </c>
-      <c r="B119" t="s">
-        <v>100</v>
-      </c>
-      <c r="D119" s="1">
-        <v>45631</v>
-      </c>
-      <c r="E119" s="1">
-        <v>45643</v>
-      </c>
-      <c r="F119" t="s">
-        <v>101</v>
-      </c>
-      <c r="H119" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>310</v>
-      </c>
-      <c r="B120" t="s">
-        <v>102</v>
-      </c>
-      <c r="D120" s="1">
-        <v>45637</v>
-      </c>
-      <c r="E120" s="1">
-        <v>45642</v>
-      </c>
-      <c r="F120" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>333</v>
-      </c>
-      <c r="B121" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="1">
-        <v>45639</v>
-      </c>
-      <c r="E121" s="1">
-        <v>45647</v>
-      </c>
-      <c r="F121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>331</v>
-      </c>
-      <c r="B122" t="s">
-        <v>103</v>
-      </c>
-      <c r="D122" s="1">
-        <v>45642</v>
-      </c>
-      <c r="E122" s="1">
-        <v>45642</v>
-      </c>
-      <c r="F122" t="s">
-        <v>48</v>
-      </c>
-      <c r="G122" t="s">
-        <v>104</v>
-      </c>
-      <c r="H122" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>329</v>
-      </c>
-      <c r="B123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="1">
-        <v>45642</v>
-      </c>
-      <c r="E123" s="1">
-        <v>45643</v>
-      </c>
-      <c r="F123" t="s">
-        <v>68</v>
-      </c>
-      <c r="G123" t="s">
-        <v>106</v>
-      </c>
-      <c r="H123" t="s">
-        <v>99</v>
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H123" xr:uid="{52A5B956-59A1-4E4C-9E2A-968F7C53818A}"/>
+  <autoFilter ref="A1:H110" xr:uid="{52A5B956-59A1-4E4C-9E2A-968F7C53818A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H110">
+      <sortCondition ref="F1:F110"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45600</v>
+        <v>45567</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45600</v>
+        <v>45568</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,19 +563,17 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45595</v>
+        <v>45421</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45596</v>
+        <v>45421</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>315</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>17</v>
@@ -587,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,18 +594,20 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45593</v>
+        <v>45432</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45593</v>
+        <v>45538</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>313</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>California all summer</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45581</v>
+        <v>45546</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45582</v>
+        <v>45547</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45579</v>
+        <v>45551</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45579</v>
+        <v>45551</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
@@ -695,20 +695,18 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45576</v>
+        <v>45553</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45576</v>
+        <v>45554</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>field work near flagstaff</t>
-        </is>
+      <c r="G8" t="n">
+        <v>315</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
@@ -721,7 +719,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,10 +728,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45574</v>
+        <v>45558</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45575</v>
+        <v>45558</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -741,7 +739,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
@@ -754,7 +752,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -763,10 +761,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45572</v>
+        <v>45560</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45572</v>
+        <v>45561</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -774,7 +772,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
@@ -787,7 +785,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -796,19 +794,17 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45588</v>
+        <v>45539</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45589</v>
+        <v>45540</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>315</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>15</v>
@@ -820,7 +816,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -829,10 +825,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45560</v>
+        <v>45572</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45561</v>
+        <v>45572</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -840,7 +836,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
@@ -853,7 +849,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,10 +858,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45558</v>
+        <v>45574</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -873,7 +869,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
@@ -895,18 +891,20 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45553</v>
+        <v>45576</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45554</v>
+        <v>45576</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>315</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>field work near flagstaff</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
@@ -928,10 +926,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45551</v>
+        <v>45579</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45551</v>
+        <v>45579</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -939,7 +937,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
@@ -961,10 +959,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45546</v>
+        <v>45581</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45547</v>
+        <v>45582</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -985,7 +983,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -994,17 +992,19 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45539</v>
+        <v>45593</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45540</v>
+        <v>45593</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>313</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>3</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1025,20 +1025,18 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45432</v>
+        <v>45595</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45538</v>
+        <v>45596</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>California all summer</t>
-        </is>
+      <c r="G18" t="n">
+        <v>315</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
@@ -1051,7 +1049,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1060,17 +1058,19 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>313</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45567</v>
+        <v>45588</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45568</v>
+        <v>45589</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1124,17 +1124,21 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45637</v>
+        <v>45594</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45642</v>
+        <v>45595</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>310 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>AZWI</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>26</v>
@@ -1146,7 +1150,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1155,21 +1159,17 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45627</v>
+        <v>45554</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45635</v>
+        <v>45556</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>310 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>25</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45605</v>
+        <v>45588</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45610</v>
+        <v>45588</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45600</v>
+        <v>45581</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45600</v>
+        <v>45585</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45581</v>
+        <v>45627</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45585</v>
+        <v>45635</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1295,10 +1295,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45588</v>
+        <v>45605</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45588</v>
+        <v>45610</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45554</v>
+        <v>45637</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45556</v>
+        <v>45642</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1361,10 +1361,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45594</v>
+        <v>45600</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45603</v>
+        <v>45581</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45604</v>
+        <v>45587</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1431,26 +1431,18 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45627</v>
+        <v>45589</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45748</v>
+        <v>45593</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>36</v>
       </c>
@@ -1461,7 +1453,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1470,21 +1462,17 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45611</v>
+        <v>45562</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45611</v>
+        <v>45564</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>school to teach about fire for a day</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>35</v>
@@ -1496,7 +1484,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1505,21 +1493,17 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45608</v>
+        <v>45568</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45608</v>
+        <v>45568</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Payson for a workshop</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
         <v>34</v>
@@ -1531,7 +1515,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1540,10 +1524,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45597</v>
+        <v>45548</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45598</v>
+        <v>45554</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1562,7 +1546,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1571,17 +1555,21 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45548</v>
+        <v>45603</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45554</v>
+        <v>45604</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SRP field work</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>27</v>
@@ -1593,7 +1581,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1602,10 +1590,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45581</v>
+        <v>45608</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45587</v>
+        <v>45608</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1614,7 +1602,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1628,7 +1616,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1637,17 +1625,21 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>school to teach about fire for a day</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>29</v>
@@ -1659,7 +1651,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1668,18 +1660,26 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45562</v>
+        <v>45627</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45564</v>
+        <v>45748</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I37" t="n">
         <v>28</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45589</v>
+        <v>45597</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45593</v>
+        <v>45598</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1951,10 +1951,10 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45642</v>
+        <v>45581</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45643</v>
+        <v>45583</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1963,14 +1963,10 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
         <v>49</v>
       </c>
@@ -1981,7 +1977,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1990,10 +1986,10 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45595</v>
+        <v>45576</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45595</v>
+        <v>45576</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2012,7 +2008,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2021,10 +2017,10 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45588</v>
+        <v>45565</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45588</v>
+        <v>45567</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2043,7 +2039,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2052,18 +2048,26 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45565</v>
+        <v>45642</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45567</v>
+        <v>45643</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I49" t="n">
         <v>44</v>
       </c>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2083,10 +2087,10 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45576</v>
+        <v>45595</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45576</v>
+        <v>45595</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2105,7 +2109,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2114,21 +2118,17 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45581</v>
+        <v>45588</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45583</v>
+        <v>45588</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>for keven, srp data collection</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>46</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2184,18 +2184,26 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45611</v>
+        <v>45572</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45611</v>
+        <v>45576</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I53" t="n">
         <v>57</v>
       </c>
@@ -2206,7 +2214,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Colin Whitehead</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2215,24 +2223,20 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45642</v>
+        <v>45481</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45642</v>
+        <v>45490</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
+          <t>Jasmine Anenberg</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -2245,7 +2249,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2254,24 +2258,20 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45629</v>
+        <v>45503</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45633</v>
+        <v>45503</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Shay Levine</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2293,10 +2293,10 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45613</v>
+        <v>45534</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45619</v>
+        <v>45553</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2305,25 +2305,21 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hofstetter</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2332,21 +2328,17 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45605</v>
+        <v>45568</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45609</v>
+        <v>45568</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">drive to Phoenix for a conference </t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>56</v>
@@ -2354,11 +2346,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2367,18 +2359,26 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45568</v>
+        <v>45613</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45568</v>
+        <v>45619</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I58" t="n">
         <v>54</v>
       </c>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Hofstetter</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45572</v>
+        <v>45605</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45576</v>
+        <v>45609</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2410,14 +2410,10 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t xml:space="preserve">drive to Phoenix for a conference </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
         <v>55</v>
       </c>
@@ -2428,7 +2424,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2437,10 +2433,10 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45534</v>
+        <v>45629</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45553</v>
+        <v>45633</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2449,10 +2445,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I60" t="n">
         <v>53</v>
       </c>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Colin Whitehead</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2472,20 +2472,24 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45503</v>
+        <v>45642</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45503</v>
+        <v>45642</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Shay Levine</t>
+          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -2498,7 +2502,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2507,10 +2511,10 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45481</v>
+        <v>45611</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45490</v>
+        <v>45611</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2518,11 +2522,7 @@
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Jasmine Anenberg</t>
-        </is>
-      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
         <v>51</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2826,17 +2826,21 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45636</v>
+        <v>45536</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>New Mexico, dates not needed are TBD</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
         <v>77</v>
@@ -2848,7 +2852,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2857,10 +2861,10 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45617</v>
+        <v>45421</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45623</v>
+        <v>45421</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2879,7 +2883,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2888,10 +2892,10 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45602</v>
+        <v>45422</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45608</v>
+        <v>45427</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2910,7 +2914,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2919,21 +2923,17 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45541</v>
+        <v>45432</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45571</v>
+        <v>45433</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
         <v>74</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45639</v>
+        <v>45401</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45647</v>
+        <v>45402</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2985,17 +2985,21 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45432</v>
+        <v>45541</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45433</v>
+        <v>45571</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
         <v>72</v>
@@ -3007,7 +3011,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3016,10 +3020,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45422</v>
+        <v>45602</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45427</v>
+        <v>45608</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3038,7 +3042,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3047,10 +3051,10 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45421</v>
+        <v>45617</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45421</v>
+        <v>45623</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3069,7 +3073,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3078,21 +3082,17 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45444</v>
+        <v>45639</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45536</v>
+        <v>45647</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>New Mexico, dates not needed are TBD</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>73</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45401</v>
+        <v>45627</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45402</v>
+        <v>45636</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3144,21 +3144,17 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45581</v>
+        <v>45403</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45587</v>
+        <v>45423</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>SAEF</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
         <v>83</v>
@@ -3170,7 +3166,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3179,10 +3175,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45597</v>
+        <v>45425</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45613</v>
+        <v>45474</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3191,7 +3187,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3205,7 +3201,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3214,21 +3210,17 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45594</v>
+        <v>45401</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45594</v>
+        <v>45402</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
         <v>84</v>
@@ -3284,17 +3276,21 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45403</v>
+        <v>45597</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45423</v>
+        <v>45613</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Day use in town for the extent of stay</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
         <v>80</v>
@@ -3306,7 +3302,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3315,17 +3311,21 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45401</v>
+        <v>45581</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45402</v>
+        <v>45587</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>SAEF</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
         <v>79</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45425</v>
+        <v>45594</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45474</v>
+        <v>45594</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45629</v>
+        <v>45568</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45648</v>
+        <v>45572</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3393,14 +3393,10 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>sierra ancha</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
         <v>95</v>
       </c>
@@ -3411,7 +3407,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3420,10 +3416,10 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45610</v>
+        <v>45401</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45614</v>
+        <v>45410</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3442,7 +3438,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3451,21 +3447,17 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45605</v>
+        <v>45421</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45605</v>
+        <v>45421</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
         <v>93</v>
@@ -3477,7 +3469,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3486,17 +3478,21 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45595</v>
+        <v>45425</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45599</v>
+        <v>45534</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
         <v>92</v>
@@ -3508,7 +3504,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3517,10 +3513,10 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45592</v>
+        <v>45561</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45594</v>
+        <v>45561</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3539,7 +3535,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3548,10 +3544,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45561</v>
+        <v>45595</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45561</v>
+        <v>45599</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3570,7 +3566,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3579,10 +3575,10 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45425</v>
+        <v>45605</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45534</v>
+        <v>45605</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3591,7 +3587,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3605,7 +3601,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3614,10 +3610,10 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45421</v>
+        <v>45610</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45421</v>
+        <v>45614</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3636,7 +3632,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3645,18 +3641,26 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45401</v>
+        <v>45629</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45410</v>
+        <v>45648</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I96" t="n">
         <v>86</v>
       </c>
@@ -3667,7 +3671,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3676,21 +3680,17 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45568</v>
+        <v>45592</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45572</v>
+        <v>45594</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>sierra ancha</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
         <v>90</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3711,21 +3711,17 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45496</v>
+        <v>45440</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45506</v>
+        <v>45440</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
         <v>103</v>
@@ -3737,7 +3733,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3746,21 +3742,17 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45523</v>
+        <v>45401</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45524</v>
+        <v>45402</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
         <v>106</v>
@@ -3772,7 +3764,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3781,10 +3773,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45516</v>
+        <v>45408</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45521</v>
+        <v>45412</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3803,7 +3795,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3812,17 +3804,21 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45509</v>
+        <v>45431</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45513</v>
+        <v>45436</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sierra Ancha, </t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
         <v>104</v>
@@ -3834,7 +3830,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3843,10 +3839,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45488</v>
+        <v>45441</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45491</v>
+        <v>45442</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3854,11 +3850,7 @@
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
         <v>102</v>
       </c>
@@ -3869,7 +3861,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3878,10 +3870,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45527</v>
+        <v>45478</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45527</v>
+        <v>45487</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3890,7 +3882,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -3904,7 +3896,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3913,10 +3905,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45441</v>
+        <v>45488</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45442</v>
+        <v>45491</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3924,7 +3916,11 @@
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I104" t="n">
         <v>100</v>
       </c>
@@ -3935,7 +3931,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3944,10 +3940,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45440</v>
+        <v>45509</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45440</v>
+        <v>45513</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3966,7 +3962,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,21 +3971,17 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45431</v>
+        <v>45516</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45436</v>
+        <v>45521</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
         <v>98</v>
@@ -4001,7 +3993,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4010,17 +4002,21 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45408</v>
+        <v>45523</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45412</v>
+        <v>45524</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
         <v>97</v>
@@ -4032,7 +4028,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4041,17 +4037,21 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45401</v>
+        <v>45496</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45402</v>
+        <v>45506</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
         <v>96</v>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45478</v>
+        <v>45527</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45487</v>
+        <v>45527</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +486,11 @@
           <t>Unique ID</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle #</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -509,11 +517,16 @@
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -521,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,23 +543,26 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45567</v>
+        <v>45579</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45568</v>
+        <v>45579</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>315</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,21 +579,26 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45421</v>
+        <v>45576</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45421</v>
+        <v>45576</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>field work near flagstaff</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>17</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -585,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,10 +615,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45432</v>
+        <v>45574</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45538</v>
+        <v>45575</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -606,13 +627,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>16</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -620,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,23 +651,26 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45546</v>
+        <v>45572</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45547</v>
+        <v>45572</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>315</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>14</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -662,23 +687,26 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45551</v>
+        <v>45600</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45551</v>
+        <v>45600</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>315</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -695,23 +723,26 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45553</v>
+        <v>45595</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45554</v>
+        <v>45596</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>315</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -728,23 +759,26 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45558</v>
+        <v>45593</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45558</v>
+        <v>45593</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>313</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -761,23 +795,26 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45560</v>
+        <v>45588</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45561</v>
+        <v>45589</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>315</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -785,7 +822,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -794,21 +831,26 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45539</v>
+        <v>45581</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45540</v>
+        <v>45582</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -825,23 +867,26 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45572</v>
+        <v>45551</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45572</v>
+        <v>45551</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>313</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -858,23 +903,26 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45574</v>
+        <v>45546</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>315</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -882,7 +930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -891,10 +939,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45576</v>
+        <v>45432</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45576</v>
+        <v>45538</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -903,13 +951,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -917,7 +966,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,23 +975,26 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45579</v>
+        <v>45421</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45579</v>
+        <v>45421</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>313</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -959,23 +1011,26 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45581</v>
+        <v>45567</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45582</v>
+        <v>45568</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>315</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -983,7 +1038,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -992,23 +1047,26 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45593</v>
+        <v>45539</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45593</v>
+        <v>45540</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>313</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1025,23 +1083,26 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45595</v>
+        <v>45560</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45596</v>
+        <v>45561</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>315</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1058,23 +1119,26 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45600</v>
+        <v>45558</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45600</v>
+        <v>45558</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>313</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1091,23 +1155,26 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45588</v>
+        <v>45553</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45589</v>
+        <v>45554</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>268 - 2017 Ford F-150, Silver(6 Seats)</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>315</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1115,7 +1182,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1124,10 +1191,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45594</v>
+        <v>45605</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45595</v>
+        <v>45610</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1136,13 +1203,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1150,7 +1218,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1159,21 +1227,26 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45554</v>
+        <v>45637</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45556</v>
+        <v>45642</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>310 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1181,7 +1254,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1190,10 +1263,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45588</v>
+        <v>45627</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45588</v>
+        <v>45635</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1202,13 +1275,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1216,7 +1290,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1225,10 +1299,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45581</v>
+        <v>45600</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45585</v>
+        <v>45600</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1237,13 +1311,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1251,7 +1326,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1260,10 +1335,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45627</v>
+        <v>45594</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45635</v>
+        <v>45595</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1272,13 +1347,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1286,7 +1362,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1295,10 +1371,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45605</v>
+        <v>45554</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45610</v>
+        <v>45556</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1307,13 +1383,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1321,7 +1398,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1330,21 +1407,26 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45637</v>
+        <v>45588</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45642</v>
+        <v>45588</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>310 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>AZWI</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1352,7 +1434,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1361,10 +1443,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45600</v>
+        <v>45581</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45600</v>
+        <v>45585</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1373,13 +1455,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1387,7 +1470,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1396,10 +1479,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45581</v>
+        <v>45603</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45587</v>
+        <v>45604</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1408,13 +1491,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1431,21 +1515,30 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45589</v>
+        <v>45627</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45593</v>
+        <v>45748</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I30" t="n">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1453,7 +1546,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1462,21 +1555,26 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45562</v>
+        <v>45597</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45564</v>
+        <v>45598</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1484,7 +1582,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1493,21 +1591,26 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>school to teach about fire for a day</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1515,7 +1618,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1524,21 +1627,26 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45548</v>
+        <v>45608</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45554</v>
+        <v>45608</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Payson for a workshop</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1546,7 +1654,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1555,10 +1663,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45603</v>
+        <v>45568</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45604</v>
+        <v>45568</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1567,13 +1675,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1581,7 +1690,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1590,10 +1699,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45608</v>
+        <v>45562</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45608</v>
+        <v>45564</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1602,13 +1711,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1616,7 +1726,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1625,10 +1735,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45611</v>
+        <v>45548</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45611</v>
+        <v>45554</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1637,13 +1747,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1660,10 +1771,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45627</v>
+        <v>45589</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45748</v>
+        <v>45593</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1672,17 +1783,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>28</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1690,7 +1798,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1699,21 +1807,26 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45597</v>
+        <v>45581</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45598</v>
+        <v>45587</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SAEF</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1726,25 +1839,30 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45545</v>
+        <v>45586</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45547</v>
+        <v>45610</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>325 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FOR220 tuesday-thursday</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
         <v>37</v>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1761,21 +1879,26 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45552</v>
+        <v>45573</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45554</v>
+        <v>45575</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>325 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
         <v>38</v>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1792,21 +1915,26 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45559</v>
+        <v>45566</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45561</v>
+        <v>45568</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>325 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>39</v>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1823,21 +1951,26 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>325 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
         <v>40</v>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1854,21 +1987,26 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45573</v>
+        <v>45559</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45575</v>
+        <v>45561</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>325 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
         <v>41</v>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1885,21 +2023,26 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45580</v>
+        <v>45545</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45582</v>
+        <v>45547</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>325 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>42</v>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1912,14 +2055,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1928,148 +2071,181 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>43</v>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>44</v>
+      </c>
+      <c r="J46" t="n">
         <v>329</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Bowker</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>for keven, srp data collection</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+      <c r="J47" t="n">
         <v>329</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pete Fule </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
+      <c r="J48" t="n">
         <v>329</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Cat</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>47</v>
+      </c>
+      <c r="J49" t="n">
         <v>329</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Bowker</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -2078,7 +2254,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2087,21 +2263,30 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45595</v>
+        <v>45642</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45595</v>
+        <v>45643</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I50" t="n">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2128,19 +2313,24 @@
           <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sierra Jech</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2149,33 +2339,40 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45631</v>
+        <v>45667</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45643</v>
+        <v>45667</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>330 - Toyota Camry</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sierra Jech</t>
+          <t>Jacob Shelly</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>50</v>
       </c>
+      <c r="J52" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2184,37 +2381,34 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45572</v>
+        <v>45576</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>45576</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
+          <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2223,33 +2417,34 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45481</v>
+        <v>45581</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45490</v>
+        <v>45583</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Jasmine Anenberg</t>
-        </is>
-      </c>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2258,33 +2453,40 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45503</v>
+        <v>45667</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45503</v>
+        <v>45667</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Shay Levine</t>
+          <t>Jacob Shelly</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="J55" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2293,64 +2495,76 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45534</v>
+        <v>45595</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45553</v>
+        <v>45595</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
+          <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+      <c r="J57" t="n">
         <v>329</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>David Auty</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>45568</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>45568</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2359,37 +2573,34 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45613</v>
+        <v>45565</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45619</v>
+        <v>45567</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
+          <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hofstetter</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2398,33 +2609,40 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45605</v>
+        <v>45667</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45609</v>
+        <v>45667</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
+          <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">drive to Phoenix for a conference </t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I59" t="n">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="J59" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Sierra Jech</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2433,29 +2651,30 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45633</v>
+        <v>45643</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
+          <t>330 - Toyota Camry</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Sierra Jech</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>53</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2463,7 +2682,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Colin Whitehead</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2472,10 +2691,10 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45642</v>
+        <v>45572</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45642</v>
+        <v>45576</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2484,17 +2703,18 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
+          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>52</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2502,7 +2722,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2511,29 +2731,38 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45611</v>
+        <v>45629</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45611</v>
+        <v>45633</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I62" t="n">
-        <v>51</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2542,33 +2771,38 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45432</v>
+        <v>45481</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45434</v>
+        <v>45490</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Jasmine Anenberg</t>
+        </is>
+      </c>
       <c r="I63" t="n">
         <v>61</v>
       </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Colin Whitehead</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2577,33 +2811,38 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45439</v>
+        <v>45642</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45445</v>
+        <v>45642</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
+        </is>
+      </c>
       <c r="I64" t="n">
         <v>62</v>
       </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2612,33 +2851,34 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45453</v>
+        <v>45611</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45477</v>
+        <v>45611</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
         <v>63</v>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2647,33 +2887,38 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45478</v>
+        <v>45613</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45506</v>
+        <v>45619</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I66" t="n">
         <v>64</v>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t>Hofstetter</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2682,76 +2927,70 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45509</v>
+        <v>45605</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45514</v>
+        <v>45609</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Matthew Voorhees</t>
-        </is>
-      </c>
+          <t xml:space="preserve">drive to Phoenix for a conference </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
         <v>65</v>
       </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45517</v>
+        <v>45568</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45518</v>
+        <v>45568</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
         <v>66</v>
       </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2760,33 +2999,34 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45525</v>
+        <v>45534</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45525</v>
+        <v>45553</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
         <v>67</v>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2795,29 +3035,38 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45555</v>
+        <v>45503</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45555</v>
+        <v>45503</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I70" t="n">
         <v>68</v>
       </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2826,33 +3075,34 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45444</v>
+        <v>45432</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45536</v>
+        <v>45434</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2861,29 +3111,34 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45421</v>
+        <v>45439</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45421</v>
+        <v>45445</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2892,29 +3147,34 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45422</v>
+        <v>45453</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45427</v>
+        <v>45477</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>75</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2923,29 +3183,34 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45432</v>
+        <v>45478</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45433</v>
+        <v>45506</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2954,64 +3219,78 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45401</v>
+        <v>45509</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45402</v>
+        <v>45514</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I75" t="n">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45541</v>
+        <v>45517</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45571</v>
+        <v>45518</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Salli Dymond</t>
+        </is>
+      </c>
       <c r="I76" t="n">
-        <v>72</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3020,29 +3299,34 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45602</v>
+        <v>45525</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45608</v>
+        <v>45525</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>71</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3051,21 +3335,26 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45617</v>
+        <v>45555</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45623</v>
+        <v>45555</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>70</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3082,21 +3371,26 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45639</v>
+        <v>45602</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45647</v>
+        <v>45608</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>73</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3104,7 +3398,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3113,29 +3407,34 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45627</v>
+        <v>45541</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45636</v>
+        <v>45571</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>69</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3144,29 +3443,34 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45403</v>
+        <v>45639</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45423</v>
+        <v>45647</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>83</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3175,33 +3479,34 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45425</v>
+        <v>45627</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45474</v>
+        <v>45636</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>85</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3210,29 +3515,34 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45401</v>
+        <v>45432</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45402</v>
+        <v>45433</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3241,33 +3551,34 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45475</v>
+        <v>45421</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45565</v>
+        <v>45421</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Tonto</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
         <v>82</v>
       </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3276,33 +3587,34 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45597</v>
+        <v>45422</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45613</v>
+        <v>45427</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3311,33 +3623,34 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45581</v>
+        <v>45401</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45587</v>
+        <v>45402</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>79</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3346,33 +3659,34 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45594</v>
+        <v>45444</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45594</v>
+        <v>45536</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>81</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3381,33 +3695,34 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45568</v>
+        <v>45617</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45572</v>
+        <v>45623</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3416,29 +3731,34 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45401</v>
+        <v>45597</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45410</v>
+        <v>45613</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Day use in town for the extent of stay</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3447,29 +3767,34 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45421</v>
+        <v>45403</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>93</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3478,33 +3803,34 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45425</v>
+        <v>45594</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45534</v>
+        <v>45594</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3513,29 +3839,34 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45561</v>
+        <v>45475</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45561</v>
+        <v>45565</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Tonto</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3544,25 +3875,30 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45595</v>
+        <v>45425</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45599</v>
+        <v>45474</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Tonto/ dates not needed TBD</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>89</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3575,33 +3911,34 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45605</v>
+        <v>45401</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45605</v>
+        <v>45402</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>88</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3610,21 +3947,26 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45610</v>
+        <v>45581</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45614</v>
+        <v>45587</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>SAEF</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>87</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3632,7 +3974,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3641,10 +3983,10 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45629</v>
+        <v>45610</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45648</v>
+        <v>45614</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3653,17 +3995,14 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>86</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3671,7 +4010,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3680,29 +4019,34 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45592</v>
+        <v>45605</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45594</v>
+        <v>45605</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pick up materials from home depot </t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>90</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3711,29 +4055,34 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45440</v>
+        <v>45595</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45440</v>
+        <v>45599</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3742,29 +4091,38 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45401</v>
+        <v>45629</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45402</v>
+        <v>45648</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I99" t="n">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3773,25 +4131,30 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45408</v>
+        <v>45592</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45412</v>
+        <v>45594</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3804,33 +4167,34 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45431</v>
+        <v>45568</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45436</v>
+        <v>45572</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
+          <t>sierra ancha</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,29 +4203,34 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45441</v>
+        <v>45401</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45442</v>
+        <v>45410</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3870,33 +4239,34 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45478</v>
+        <v>45561</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45487</v>
+        <v>45561</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>107</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3905,29 +4275,30 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45488</v>
+        <v>45425</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45491</v>
+        <v>45534</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>100</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3940,21 +4311,26 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45509</v>
+        <v>45421</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45513</v>
+        <v>45421</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3971,21 +4347,30 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45516</v>
+        <v>45488</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45521</v>
+        <v>45491</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I106" t="n">
-        <v>98</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3993,7 +4378,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4002,10 +4387,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45523</v>
+        <v>45441</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45524</v>
+        <v>45442</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4014,13 +4399,14 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>97</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4028,7 +4414,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4037,10 +4423,10 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45496</v>
+        <v>45408</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45506</v>
+        <v>45412</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4049,13 +4435,14 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>96</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4063,7 +4450,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4072,10 +4459,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45527</v>
+        <v>45516</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45527</v>
+        <v>45521</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4084,13 +4471,14 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>101</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4129,6 +4517,333 @@
       </c>
       <c r="I110" t="n">
         <v>108</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>467</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>109</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>467</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Salli Dymond</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45431</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sierra Ancha, </t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>110</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>467</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pete Fule </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>111</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>467</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pete Fule </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>112</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>467</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Bowker</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>113</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>467</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>David Auty</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>114</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>467</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pete Fule </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>115</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>467</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Kimberly Walker</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>116</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>117</v>
+      </c>
+      <c r="J119" t="n">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -534,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -543,10 +540,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45579</v>
+        <v>45553</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45579</v>
+        <v>45554</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -555,12 +552,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -570,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,10 +576,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -591,12 +588,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
@@ -615,10 +612,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45574</v>
+        <v>45560</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45575</v>
+        <v>45561</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -632,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -642,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,10 +648,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45572</v>
+        <v>45539</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45572</v>
+        <v>45540</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -663,12 +660,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -678,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,10 +684,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45600</v>
+        <v>45567</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45600</v>
+        <v>45568</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -699,12 +696,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -714,7 +711,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,10 +720,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45595</v>
+        <v>45421</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45596</v>
+        <v>45421</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -735,12 +732,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -750,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -759,10 +756,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45593</v>
+        <v>45432</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45593</v>
+        <v>45538</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,12 +768,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -795,10 +792,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45588</v>
+        <v>45546</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45589</v>
+        <v>45547</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -812,7 +809,7 @@
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -822,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -831,10 +828,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -848,7 +845,7 @@
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
@@ -858,7 +855,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,10 +864,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45551</v>
+        <v>45588</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45551</v>
+        <v>45589</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -884,7 +881,7 @@
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
@@ -894,7 +891,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -903,10 +900,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -915,12 +912,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -930,7 +927,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -939,10 +936,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45432</v>
+        <v>45595</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45538</v>
+        <v>45596</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -951,12 +948,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
@@ -966,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -975,10 +972,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -987,12 +984,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J15" t="inlineStr"/>
     </row>
@@ -1002,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1011,10 +1008,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1023,12 +1020,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr"/>
     </row>
@@ -1038,7 +1035,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1047,10 +1044,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1059,12 +1056,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -1083,10 +1080,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1095,12 +1092,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr"/>
     </row>
@@ -1119,10 +1116,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1136,7 +1133,7 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
     </row>
@@ -1155,10 +1152,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45553</v>
+        <v>45581</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45554</v>
+        <v>45582</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1172,7 +1169,7 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -1182,7 +1179,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1191,10 +1188,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45605</v>
+        <v>45554</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45610</v>
+        <v>45556</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1203,12 +1200,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -1218,7 +1215,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1227,10 +1224,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45637</v>
+        <v>45581</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45642</v>
+        <v>45585</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1239,12 +1236,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J22" t="inlineStr"/>
     </row>
@@ -1254,7 +1251,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,10 +1260,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45627</v>
+        <v>45594</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45635</v>
+        <v>45595</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1275,12 +1272,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -1299,10 +1296,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1316,7 +1313,7 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
@@ -1326,7 +1323,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1335,10 +1332,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45594</v>
+        <v>45627</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45595</v>
+        <v>45635</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1347,12 +1344,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25" t="inlineStr"/>
     </row>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1371,10 +1368,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45554</v>
+        <v>45637</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45556</v>
+        <v>45642</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1388,7 +1385,7 @@
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J26" t="inlineStr"/>
     </row>
@@ -1407,10 +1404,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45588</v>
+        <v>45600</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45588</v>
+        <v>45600</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1424,7 +1421,7 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J27" t="inlineStr"/>
     </row>
@@ -1434,7 +1431,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1443,10 +1440,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45581</v>
+        <v>45605</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45585</v>
+        <v>45610</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1455,12 +1452,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
@@ -1470,7 +1467,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1479,10 +1476,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45603</v>
+        <v>45589</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45604</v>
+        <v>45593</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1491,12 +1488,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J29" t="inlineStr"/>
     </row>
@@ -1506,7 +1503,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1515,10 +1512,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45627</v>
+        <v>45548</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45748</v>
+        <v>45554</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1527,16 +1524,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
@@ -1546,7 +1539,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1555,10 +1548,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45597</v>
+        <v>45562</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45598</v>
+        <v>45564</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1572,7 +1565,7 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
@@ -1582,7 +1575,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1591,10 +1584,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45611</v>
+        <v>45568</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45611</v>
+        <v>45568</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1603,12 +1596,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
@@ -1618,7 +1611,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1627,10 +1620,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45608</v>
+        <v>45581</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45608</v>
+        <v>45587</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1639,12 +1632,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
@@ -1654,7 +1647,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1663,10 +1656,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1675,12 +1668,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1690,7 +1683,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1699,10 +1692,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45562</v>
+        <v>45597</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45564</v>
+        <v>45598</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1716,7 +1709,7 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J35" t="inlineStr"/>
     </row>
@@ -1726,7 +1719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1735,10 +1728,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45548</v>
+        <v>45627</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45554</v>
+        <v>45748</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1747,12 +1740,16 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I36" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1762,7 +1759,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1771,10 +1768,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45589</v>
+        <v>45603</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1783,12 +1780,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1798,7 +1795,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1807,10 +1804,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45581</v>
+        <v>45608</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45587</v>
+        <v>45608</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1819,12 +1816,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J38" t="inlineStr"/>
     </row>
@@ -1839,14 +1836,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1855,12 +1852,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -1879,10 +1876,10 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45573</v>
+        <v>45545</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1896,7 +1893,7 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
@@ -1915,10 +1912,10 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1932,7 +1929,7 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
@@ -1951,10 +1948,10 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45580</v>
+        <v>45559</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1968,7 +1965,7 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
@@ -1987,10 +1984,10 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45559</v>
+        <v>45573</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45561</v>
+        <v>45575</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2004,7 +2001,7 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J43" t="inlineStr"/>
     </row>
@@ -2019,14 +2016,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45545</v>
+        <v>45586</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45547</v>
+        <v>45610</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2035,12 +2032,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J44" t="inlineStr"/>
     </row>
@@ -2059,10 +2056,10 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45552</v>
+        <v>45566</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45554</v>
+        <v>45568</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2076,17 +2073,17 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2095,10 +2092,10 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45667</v>
+        <v>45581</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45667</v>
+        <v>45583</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2107,20 +2104,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>44</v>
-      </c>
-      <c r="J46" t="n">
-        <v>329</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2158,7 +2149,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J47" t="n">
         <v>329</v>
@@ -2166,11 +2157,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2179,10 +2170,10 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45667</v>
+        <v>45565</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45667</v>
+        <v>45567</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2194,17 +2185,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>46</v>
-      </c>
-      <c r="J48" t="n">
-        <v>329</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2242,7 +2227,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J49" t="n">
         <v>329</v>
@@ -2254,7 +2239,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2263,10 +2248,10 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45642</v>
+        <v>45595</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45643</v>
+        <v>45595</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2275,62 +2260,64 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>53</v>
+      </c>
+      <c r="J51" t="n">
         <v>329</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
-        <v>49</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2339,10 +2326,10 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2354,53 +2341,53 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>50</v>
-      </c>
-      <c r="J52" t="n">
-        <v>329</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>117</v>
+      </c>
+      <c r="J53" t="n">
         <v>329</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pete Fule </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
-        <v>51</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2408,7 +2395,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2417,10 +2404,10 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45581</v>
+        <v>45588</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45583</v>
+        <v>45588</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2429,22 +2416,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>for keven, srp data collection</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2453,10 +2440,10 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45667</v>
+        <v>45642</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2465,56 +2452,60 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Keven Griffen</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>53</v>
-      </c>
-      <c r="J55" t="n">
-        <v>329</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>47</v>
+      </c>
+      <c r="J56" t="n">
         <v>329</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>54</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2552,7 +2543,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J57" t="n">
         <v>329</v>
@@ -2560,39 +2551,45 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>45</v>
+      </c>
+      <c r="J58" t="n">
         <v>329</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Cat</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>56</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2630,7 +2627,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J59" t="n">
         <v>329</v>
@@ -2638,11 +2635,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sierra Jech</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2651,14 +2648,14 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45631</v>
+        <v>45667</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45643</v>
+        <v>45667</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>330 - Toyota Camry</t>
+          <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2668,21 +2665,23 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sierra Jech</t>
+          <t>Jacob Shelly</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>58</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="J60" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Sierra Jech</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2691,28 +2690,28 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45572</v>
+        <v>45631</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45576</v>
+        <v>45643</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
+          <t>330 - Toyota Camry</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Sierra Jech</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J61" t="inlineStr"/>
     </row>
@@ -3062,11 +3061,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3075,24 +3074,28 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45432</v>
+        <v>45572</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45434</v>
+        <v>45576</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I71" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J71" t="inlineStr"/>
     </row>
@@ -3111,10 +3114,10 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45439</v>
+        <v>45555</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45445</v>
+        <v>45555</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3123,12 +3126,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J72" t="inlineStr"/>
     </row>
@@ -3147,10 +3150,10 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45453</v>
+        <v>45525</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45477</v>
+        <v>45525</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3159,12 +3162,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J73" t="inlineStr"/>
     </row>
@@ -3174,19 +3177,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45478</v>
+        <v>45517</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45506</v>
+        <v>45518</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3195,12 +3198,16 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Salli Dymond</t>
+        </is>
+      </c>
       <c r="I74" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J74" t="inlineStr"/>
     </row>
@@ -3210,7 +3217,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3219,10 +3226,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45509</v>
+        <v>45439</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45514</v>
+        <v>45445</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3231,16 +3238,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Matthew Voorhees</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J75" t="inlineStr"/>
     </row>
@@ -3250,19 +3253,19 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45517</v>
+        <v>45478</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45518</v>
+        <v>45506</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3271,16 +3274,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J76" t="inlineStr"/>
     </row>
@@ -3299,10 +3298,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45525</v>
+        <v>45453</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45525</v>
+        <v>45477</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3311,12 +3310,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J77" t="inlineStr"/>
     </row>
@@ -3335,10 +3334,10 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45555</v>
+        <v>45432</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45555</v>
+        <v>45434</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3347,22 +3346,22 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3371,24 +3370,28 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45602</v>
+        <v>45509</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45608</v>
+        <v>45514</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I79" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J79" t="inlineStr"/>
     </row>
@@ -3407,10 +3410,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45541</v>
+        <v>45422</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45571</v>
+        <v>45427</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3419,12 +3422,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J80" t="inlineStr"/>
     </row>
@@ -3443,10 +3446,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45647</v>
+        <v>45623</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3460,7 +3463,7 @@
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J81" t="inlineStr"/>
     </row>
@@ -3470,7 +3473,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3479,10 +3482,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45636</v>
+        <v>45536</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3491,12 +3494,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J82" t="inlineStr"/>
     </row>
@@ -3506,7 +3509,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3515,10 +3518,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45432</v>
+        <v>45421</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45433</v>
+        <v>45421</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3532,7 +3535,7 @@
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J83" t="inlineStr"/>
     </row>
@@ -3542,7 +3545,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3551,10 +3554,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45421</v>
+        <v>45401</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45421</v>
+        <v>45402</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3568,7 +3571,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J84" t="inlineStr"/>
     </row>
@@ -3578,7 +3581,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3587,10 +3590,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45422</v>
+        <v>45627</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45427</v>
+        <v>45636</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3604,7 +3607,7 @@
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J85" t="inlineStr"/>
     </row>
@@ -3614,7 +3617,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3623,10 +3626,10 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45401</v>
+        <v>45432</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45402</v>
+        <v>45433</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3640,7 +3643,7 @@
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J86" t="inlineStr"/>
     </row>
@@ -3650,7 +3653,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3659,10 +3662,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45444</v>
+        <v>45639</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45536</v>
+        <v>45647</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3671,12 +3674,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J87" t="inlineStr"/>
     </row>
@@ -3686,7 +3689,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3695,10 +3698,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45617</v>
+        <v>45541</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45623</v>
+        <v>45571</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3707,22 +3710,22 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3731,24 +3734,24 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45597</v>
+        <v>45602</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45613</v>
+        <v>45608</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J89" t="inlineStr"/>
     </row>
@@ -3758,7 +3761,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3767,10 +3770,10 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45403</v>
+        <v>45581</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45423</v>
+        <v>45587</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3779,12 +3782,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J90" t="inlineStr"/>
     </row>
@@ -3794,7 +3797,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3803,10 +3806,10 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45594</v>
+        <v>45401</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45594</v>
+        <v>45402</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3815,12 +3818,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J91" t="inlineStr"/>
     </row>
@@ -3839,10 +3842,10 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45475</v>
+        <v>45425</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45565</v>
+        <v>45474</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3851,12 +3854,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Tonto</t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J92" t="inlineStr"/>
     </row>
@@ -3866,7 +3869,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3875,10 +3878,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45425</v>
+        <v>45403</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45474</v>
+        <v>45423</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3887,12 +3890,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J93" t="inlineStr"/>
     </row>
@@ -3902,7 +3905,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3911,10 +3914,10 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45401</v>
+        <v>45594</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45402</v>
+        <v>45594</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3923,12 +3926,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J94" t="inlineStr"/>
     </row>
@@ -3938,7 +3941,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3947,10 +3950,10 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45581</v>
+        <v>45597</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45587</v>
+        <v>45613</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3959,22 +3962,22 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Day use in town for the extent of stay</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3983,24 +3986,24 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45610</v>
+        <v>45475</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45614</v>
+        <v>45565</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tonto</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J96" t="inlineStr"/>
     </row>
@@ -4010,7 +4013,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4019,10 +4022,10 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45605</v>
+        <v>45421</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45605</v>
+        <v>45421</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4031,12 +4034,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J97" t="inlineStr"/>
     </row>
@@ -4046,7 +4049,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4055,10 +4058,10 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45595</v>
+        <v>45425</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45599</v>
+        <v>45534</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4067,12 +4070,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J98" t="inlineStr"/>
     </row>
@@ -4082,7 +4085,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4091,10 +4094,10 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45629</v>
+        <v>45561</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45648</v>
+        <v>45561</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4103,16 +4106,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J99" t="inlineStr"/>
     </row>
@@ -4122,7 +4121,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4131,10 +4130,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45592</v>
+        <v>45568</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45594</v>
+        <v>45572</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4143,12 +4142,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sierra ancha</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J100" t="inlineStr"/>
     </row>
@@ -4158,7 +4157,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4167,10 +4166,10 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45568</v>
+        <v>45401</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45572</v>
+        <v>45410</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4179,12 +4178,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J101" t="inlineStr"/>
     </row>
@@ -4194,7 +4193,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4203,10 +4202,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45401</v>
+        <v>45629</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45410</v>
+        <v>45648</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4215,12 +4214,16 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I102" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J102" t="inlineStr"/>
     </row>
@@ -4230,7 +4233,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4239,10 +4242,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45561</v>
+        <v>45595</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45561</v>
+        <v>45599</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4256,7 +4259,7 @@
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J103" t="inlineStr"/>
     </row>
@@ -4266,7 +4269,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4275,10 +4278,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45425</v>
+        <v>45605</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45534</v>
+        <v>45605</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4287,12 +4290,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J104" t="inlineStr"/>
     </row>
@@ -4302,7 +4305,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4311,10 +4314,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45421</v>
+        <v>45610</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45421</v>
+        <v>45614</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4328,17 +4331,17 @@
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4347,14 +4350,14 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45488</v>
+        <v>45592</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45491</v>
+        <v>45594</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4362,13 +4365,9 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J106" t="inlineStr"/>
     </row>
@@ -4378,7 +4377,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4387,10 +4386,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45442</v>
+        <v>45440</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4404,7 +4403,7 @@
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J107" t="inlineStr"/>
     </row>
@@ -4414,7 +4413,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4423,10 +4422,10 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45408</v>
+        <v>45523</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45412</v>
+        <v>45524</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4435,12 +4434,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J108" t="inlineStr"/>
     </row>
@@ -4450,7 +4449,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4459,10 +4458,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45516</v>
+        <v>45527</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45521</v>
+        <v>45527</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4471,12 +4470,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J109" t="inlineStr"/>
     </row>
@@ -4486,7 +4485,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4495,10 +4494,10 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45533</v>
+        <v>45401</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45534</v>
+        <v>45402</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4507,16 +4506,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Adair Patterson</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J110" t="inlineStr"/>
     </row>
@@ -4526,7 +4521,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4535,10 +4530,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45509</v>
+        <v>45496</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45513</v>
+        <v>45506</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4547,12 +4542,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J111" t="inlineStr"/>
     </row>
@@ -4562,7 +4557,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4571,10 +4566,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45431</v>
+        <v>45478</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45436</v>
+        <v>45487</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4583,12 +4578,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J112" t="inlineStr"/>
     </row>
@@ -4598,7 +4593,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4607,10 +4602,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45478</v>
+        <v>45533</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45487</v>
+        <v>45534</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4619,12 +4614,16 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
+          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Adair Patterson</t>
+        </is>
+      </c>
       <c r="I113" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J113" t="inlineStr"/>
     </row>
@@ -4634,7 +4633,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4643,10 +4642,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45496</v>
+        <v>45509</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4655,12 +4654,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J114" t="inlineStr"/>
     </row>
@@ -4670,7 +4669,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4679,10 +4678,10 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45401</v>
+        <v>45516</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45402</v>
+        <v>45521</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4696,7 +4695,7 @@
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J115" t="inlineStr"/>
     </row>
@@ -4706,7 +4705,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4715,10 +4714,10 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45527</v>
+        <v>45408</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45527</v>
+        <v>45412</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4727,12 +4726,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J116" t="inlineStr"/>
     </row>
@@ -4742,7 +4741,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4751,10 +4750,10 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45523</v>
+        <v>45441</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45524</v>
+        <v>45442</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4763,12 +4762,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J117" t="inlineStr"/>
     </row>
@@ -4778,7 +4777,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4787,10 +4786,10 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45440</v>
+        <v>45431</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45440</v>
+        <v>45436</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4799,22 +4798,22 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Sierra Ancha, </t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4822,29 +4821,31 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="D119" s="3" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E119" s="3" t="n">
-        <v>45667</v>
+      <c r="D119" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45491</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Shay Levine</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>117</v>
-      </c>
-      <c r="J119" t="n">
-        <v>329</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,10 +543,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45553</v>
+        <v>45581</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45554</v>
+        <v>45582</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -557,7 +560,7 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -576,10 +579,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -593,7 +596,7 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
@@ -612,10 +615,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -624,12 +627,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -639,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -648,10 +651,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -660,12 +663,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -675,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,10 +687,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -696,12 +699,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -711,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -720,10 +723,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -732,12 +735,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -747,7 +750,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -756,10 +759,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45432</v>
+        <v>45595</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45538</v>
+        <v>45596</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -768,12 +771,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -783,7 +786,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,10 +795,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -804,12 +807,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -819,7 +822,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -828,10 +831,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45551</v>
+        <v>45588</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45551</v>
+        <v>45589</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -845,7 +848,7 @@
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
@@ -864,10 +867,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45588</v>
+        <v>45546</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45589</v>
+        <v>45547</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -881,7 +884,7 @@
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
@@ -891,7 +894,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,10 +903,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45593</v>
+        <v>45432</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45593</v>
+        <v>45538</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -912,12 +915,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -927,7 +930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -936,10 +939,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45595</v>
+        <v>45421</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45596</v>
+        <v>45421</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -948,12 +951,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
@@ -963,7 +966,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -972,10 +975,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45600</v>
+        <v>45567</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45600</v>
+        <v>45568</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -984,12 +987,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J15" t="inlineStr"/>
     </row>
@@ -999,7 +1002,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,10 +1011,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45572</v>
+        <v>45539</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45572</v>
+        <v>45540</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1020,12 +1023,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J16" t="inlineStr"/>
     </row>
@@ -1044,10 +1047,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45574</v>
+        <v>45560</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45575</v>
+        <v>45561</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1061,7 +1064,7 @@
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1080,10 +1083,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1092,12 +1095,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J18" t="inlineStr"/>
     </row>
@@ -1107,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1116,10 +1119,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45579</v>
+        <v>45553</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45579</v>
+        <v>45554</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1128,12 +1131,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J19" t="inlineStr"/>
     </row>
@@ -1143,7 +1146,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1152,10 +1155,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1169,7 +1172,7 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1188,10 +1191,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45554</v>
+        <v>45637</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45556</v>
+        <v>45642</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1205,7 +1208,7 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -1215,7 +1218,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1224,10 +1227,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45581</v>
+        <v>45605</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45585</v>
+        <v>45610</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1236,12 +1239,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J22" t="inlineStr"/>
     </row>
@@ -1251,7 +1254,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1260,10 +1263,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45594</v>
+        <v>45627</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45595</v>
+        <v>45635</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1272,12 +1275,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -1296,10 +1299,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45588</v>
+        <v>45600</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45588</v>
+        <v>45600</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1313,7 +1316,7 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
@@ -1323,7 +1326,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1332,10 +1335,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45627</v>
+        <v>45594</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45635</v>
+        <v>45595</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1344,12 +1347,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J25" t="inlineStr"/>
     </row>
@@ -1359,7 +1362,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1368,10 +1371,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45637</v>
+        <v>45581</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45642</v>
+        <v>45585</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1380,12 +1383,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J26" t="inlineStr"/>
     </row>
@@ -1404,10 +1407,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1421,7 +1424,7 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J27" t="inlineStr"/>
     </row>
@@ -1431,7 +1434,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1440,10 +1443,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45605</v>
+        <v>45554</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45610</v>
+        <v>45556</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1452,12 +1455,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1476,10 +1479,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45589</v>
+        <v>45603</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1488,12 +1491,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J29" t="inlineStr"/>
     </row>
@@ -1503,7 +1506,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1512,10 +1515,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45548</v>
+        <v>45627</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45554</v>
+        <v>45748</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1524,12 +1527,16 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I30" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
@@ -1539,7 +1546,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1548,10 +1555,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45562</v>
+        <v>45597</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45564</v>
+        <v>45598</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1565,7 +1572,7 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
@@ -1575,7 +1582,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1584,10 +1591,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1596,12 +1603,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
@@ -1611,7 +1618,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1620,10 +1627,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45581</v>
+        <v>45608</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45587</v>
+        <v>45608</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1632,12 +1639,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
@@ -1647,7 +1654,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1656,10 +1663,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45611</v>
+        <v>45568</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45611</v>
+        <v>45568</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1668,12 +1675,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1683,7 +1690,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1692,10 +1699,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45597</v>
+        <v>45562</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45598</v>
+        <v>45564</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1709,7 +1716,7 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J35" t="inlineStr"/>
     </row>
@@ -1719,7 +1726,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1728,10 +1735,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45627</v>
+        <v>45548</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45748</v>
+        <v>45554</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1740,16 +1747,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1759,7 +1762,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1768,10 +1771,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45603</v>
+        <v>45589</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45604</v>
+        <v>45593</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1780,12 +1783,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1804,10 +1807,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45608</v>
+        <v>45581</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45608</v>
+        <v>45587</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1816,12 +1819,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J38" t="inlineStr"/>
     </row>
@@ -1840,10 +1843,10 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45552</v>
+        <v>45566</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45554</v>
+        <v>45568</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1857,7 +1860,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -1872,14 +1875,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45545</v>
+        <v>45586</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45547</v>
+        <v>45610</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1888,12 +1891,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
@@ -1912,10 +1915,10 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45580</v>
+        <v>45559</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
@@ -1948,10 +1951,10 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45559</v>
+        <v>45573</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45561</v>
+        <v>45575</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1965,7 +1968,7 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
@@ -1984,10 +1987,10 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45573</v>
+        <v>45545</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2001,7 +2004,7 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J43" t="inlineStr"/>
     </row>
@@ -2016,14 +2019,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2032,12 +2035,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J44" t="inlineStr"/>
     </row>
@@ -2056,10 +2059,10 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J45" t="inlineStr"/>
     </row>
@@ -2083,7 +2086,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2092,10 +2095,10 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45581</v>
+        <v>45588</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45583</v>
+        <v>45588</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2104,12 +2107,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>for keven, srp data collection</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J46" t="inlineStr"/>
     </row>
@@ -2149,7 +2152,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J47" t="n">
         <v>329</v>
@@ -2157,39 +2160,45 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
+      <c r="J48" t="n">
         <v>329</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Cat</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45567</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2227,7 +2236,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J49" t="n">
         <v>329</v>
@@ -2235,47 +2244,53 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
         <v>329</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
-        <v>54</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2284,10 +2299,10 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45667</v>
+        <v>45642</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2296,56 +2311,60 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Keven Griffen</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>53</v>
-      </c>
-      <c r="J51" t="n">
-        <v>329</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+      <c r="J52" t="n">
         <v>329</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pete Fule </t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
-        <v>51</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2383,7 +2402,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="J53" t="n">
         <v>329</v>
@@ -2391,39 +2410,45 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>52</v>
+      </c>
+      <c r="J54" t="n">
         <v>329</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2431,7 +2456,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2440,10 +2465,10 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45642</v>
+        <v>45595</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45643</v>
+        <v>45595</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2452,16 +2477,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J55" t="inlineStr"/>
     </row>
@@ -2501,7 +2522,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J56" t="n">
         <v>329</v>
@@ -2509,11 +2530,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2522,10 +2543,10 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45667</v>
+        <v>45565</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45667</v>
+        <v>45567</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2537,17 +2558,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>46</v>
-      </c>
-      <c r="J57" t="n">
-        <v>329</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2585,7 +2600,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="n">
         <v>329</v>
@@ -2593,11 +2608,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2606,10 +2621,10 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45667</v>
+        <v>45581</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45667</v>
+        <v>45583</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2618,28 +2633,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>329</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2648,10 +2657,10 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2663,17 +2672,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>50</v>
-      </c>
-      <c r="J60" t="n">
-        <v>329</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2711,7 +2714,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J61" t="inlineStr"/>
     </row>
@@ -2730,10 +2733,10 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45629</v>
+        <v>45572</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45633</v>
+        <v>45576</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
+          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2761,7 +2764,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2770,10 +2773,10 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45481</v>
+        <v>45503</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45490</v>
+        <v>45503</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2787,7 +2790,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Jasmine Anenberg</t>
+          <t>Shay Levine</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2801,7 +2804,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Colin Whitehead</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2810,10 +2813,10 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45642</v>
+        <v>45534</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45642</v>
+        <v>45553</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2822,14 +2825,10 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
-        </is>
-      </c>
+          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
         <v>62</v>
       </c>
@@ -2841,7 +2840,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>Hofstetter</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2850,10 +2849,10 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45611</v>
+        <v>45605</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2862,7 +2861,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">drive to Phoenix for a conference </t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2873,11 +2872,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2886,10 +2885,10 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45613</v>
+        <v>45568</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45619</v>
+        <v>45568</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2898,14 +2897,10 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
         <v>64</v>
       </c>
@@ -2917,7 +2912,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hofstetter</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2926,10 +2921,10 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45605</v>
+        <v>45611</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2938,7 +2933,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve">drive to Phoenix for a conference </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -2949,11 +2944,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Colin Whitehead</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2962,10 +2957,10 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45568</v>
+        <v>45642</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45568</v>
+        <v>45642</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2974,10 +2969,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
+        </is>
+      </c>
       <c r="I68" t="n">
         <v>66</v>
       </c>
@@ -2998,10 +2997,10 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45534</v>
+        <v>45481</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45553</v>
+        <v>45490</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3010,10 +3009,14 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Jasmine Anenberg</t>
+        </is>
+      </c>
       <c r="I69" t="n">
         <v>67</v>
       </c>
@@ -3025,7 +3028,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3034,10 +3037,10 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45503</v>
+        <v>45629</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45503</v>
+        <v>45633</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3046,12 +3049,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Shay Levine</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -3074,10 +3077,10 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45572</v>
+        <v>45613</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45576</v>
+        <v>45619</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3086,7 +3089,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
+          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3095,7 +3098,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J71" t="inlineStr"/>
     </row>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3114,10 +3117,10 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45555</v>
+        <v>45509</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45555</v>
+        <v>45514</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3126,12 +3129,16 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J72" t="inlineStr"/>
     </row>
@@ -3141,7 +3148,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3150,10 +3157,10 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45525</v>
+        <v>45432</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45525</v>
+        <v>45434</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3162,12 +3169,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J73" t="inlineStr"/>
     </row>
@@ -3182,14 +3189,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45517</v>
+        <v>45453</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45518</v>
+        <v>45477</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3198,16 +3205,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J74" t="inlineStr"/>
     </row>
@@ -3226,10 +3229,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45439</v>
+        <v>45478</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45445</v>
+        <v>45506</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3243,7 +3246,7 @@
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J75" t="inlineStr"/>
     </row>
@@ -3262,10 +3265,10 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45478</v>
+        <v>45439</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45506</v>
+        <v>45445</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3279,7 +3282,7 @@
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J76" t="inlineStr"/>
     </row>
@@ -3298,10 +3301,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45453</v>
+        <v>45525</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45477</v>
+        <v>45525</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3310,12 +3313,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J77" t="inlineStr"/>
     </row>
@@ -3334,10 +3337,10 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45432</v>
+        <v>45555</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45434</v>
+        <v>45555</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3346,12 +3349,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J78" t="inlineStr"/>
     </row>
@@ -3361,19 +3364,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3382,16 +3385,16 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Matthew Voorhees</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J79" t="inlineStr"/>
     </row>
@@ -3401,7 +3404,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3410,10 +3413,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45422</v>
+        <v>45602</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45427</v>
+        <v>45608</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3427,7 +3430,7 @@
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J80" t="inlineStr"/>
     </row>
@@ -3437,7 +3440,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3446,10 +3449,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45617</v>
+        <v>45541</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45623</v>
+        <v>45571</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3458,12 +3461,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J81" t="inlineStr"/>
     </row>
@@ -3473,7 +3476,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3482,10 +3485,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45444</v>
+        <v>45639</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45536</v>
+        <v>45647</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3494,12 +3497,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J82" t="inlineStr"/>
     </row>
@@ -3509,7 +3512,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3518,10 +3521,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45421</v>
+        <v>45627</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45421</v>
+        <v>45636</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3535,7 +3538,7 @@
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J83" t="inlineStr"/>
     </row>
@@ -3545,7 +3548,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3554,10 +3557,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45401</v>
+        <v>45432</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45402</v>
+        <v>45433</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3571,7 +3574,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J84" t="inlineStr"/>
     </row>
@@ -3581,7 +3584,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3590,10 +3593,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45627</v>
+        <v>45421</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45636</v>
+        <v>45421</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3607,7 +3610,7 @@
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J85" t="inlineStr"/>
     </row>
@@ -3617,7 +3620,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3626,10 +3629,10 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45432</v>
+        <v>45444</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45433</v>
+        <v>45536</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3638,12 +3641,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J86" t="inlineStr"/>
     </row>
@@ -3662,10 +3665,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45647</v>
+        <v>45623</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3679,7 +3682,7 @@
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J87" t="inlineStr"/>
     </row>
@@ -3698,10 +3701,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45541</v>
+        <v>45422</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45571</v>
+        <v>45427</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3710,12 +3713,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J88" t="inlineStr"/>
     </row>
@@ -3725,7 +3728,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3734,10 +3737,10 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45602</v>
+        <v>45401</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45608</v>
+        <v>45402</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3751,7 +3754,7 @@
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J89" t="inlineStr"/>
     </row>
@@ -3787,7 +3790,7 @@
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J90" t="inlineStr"/>
     </row>
@@ -3823,7 +3826,7 @@
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J91" t="inlineStr"/>
     </row>
@@ -3859,7 +3862,7 @@
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J92" t="inlineStr"/>
     </row>
@@ -3895,7 +3898,7 @@
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J93" t="inlineStr"/>
     </row>
@@ -3931,7 +3934,7 @@
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J94" t="inlineStr"/>
     </row>
@@ -3967,7 +3970,7 @@
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J95" t="inlineStr"/>
     </row>
@@ -4003,7 +4006,7 @@
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J96" t="inlineStr"/>
     </row>
@@ -4013,7 +4016,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4022,10 +4025,10 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45421</v>
+        <v>45592</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45421</v>
+        <v>45594</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4039,7 +4042,7 @@
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J97" t="inlineStr"/>
     </row>
@@ -4049,7 +4052,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4058,10 +4061,10 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45425</v>
+        <v>45610</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45534</v>
+        <v>45614</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4070,12 +4073,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J98" t="inlineStr"/>
     </row>
@@ -4085,7 +4088,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4094,10 +4097,10 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45561</v>
+        <v>45605</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45561</v>
+        <v>45605</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4106,12 +4109,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J99" t="inlineStr"/>
     </row>
@@ -4121,7 +4124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4130,10 +4133,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45568</v>
+        <v>45595</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45572</v>
+        <v>45599</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4142,12 +4145,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J100" t="inlineStr"/>
     </row>
@@ -4157,7 +4160,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4166,10 +4169,10 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45401</v>
+        <v>45629</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45410</v>
+        <v>45648</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4178,12 +4181,16 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I101" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J101" t="inlineStr"/>
     </row>
@@ -4193,7 +4200,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4202,10 +4209,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45629</v>
+        <v>45568</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45648</v>
+        <v>45572</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4214,16 +4221,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>sierra ancha</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J102" t="inlineStr"/>
     </row>
@@ -4233,7 +4236,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4242,10 +4245,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45595</v>
+        <v>45561</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45599</v>
+        <v>45561</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4259,7 +4262,7 @@
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J103" t="inlineStr"/>
     </row>
@@ -4269,7 +4272,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4278,10 +4281,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45605</v>
+        <v>45425</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45605</v>
+        <v>45534</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4290,12 +4293,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J104" t="inlineStr"/>
     </row>
@@ -4305,7 +4308,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4314,10 +4317,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45610</v>
+        <v>45421</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45614</v>
+        <v>45421</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4331,7 +4334,7 @@
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J105" t="inlineStr"/>
     </row>
@@ -4341,7 +4344,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4350,10 +4353,10 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45592</v>
+        <v>45401</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45594</v>
+        <v>45410</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4367,7 +4370,7 @@
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J106" t="inlineStr"/>
     </row>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4386,10 +4389,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4403,7 +4406,7 @@
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J107" t="inlineStr"/>
     </row>
@@ -4413,7 +4416,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4422,10 +4425,10 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45523</v>
+        <v>45408</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45524</v>
+        <v>45412</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4434,12 +4437,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J108" t="inlineStr"/>
     </row>
@@ -4449,7 +4452,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4458,10 +4461,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45527</v>
+        <v>45516</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45527</v>
+        <v>45521</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4470,12 +4473,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J109" t="inlineStr"/>
     </row>
@@ -4485,7 +4488,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4494,10 +4497,10 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45401</v>
+        <v>45509</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45402</v>
+        <v>45513</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4511,7 +4514,7 @@
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J110" t="inlineStr"/>
     </row>
@@ -4521,7 +4524,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4530,10 +4533,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45496</v>
+        <v>45533</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45506</v>
+        <v>45534</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4542,12 +4545,16 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
+          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Adair Patterson</t>
+        </is>
+      </c>
       <c r="I111" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J111" t="inlineStr"/>
     </row>
@@ -4557,7 +4564,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4566,10 +4573,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45478</v>
+        <v>45401</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45487</v>
+        <v>45402</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4578,12 +4585,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J112" t="inlineStr"/>
     </row>
@@ -4593,7 +4600,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4602,10 +4609,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45533</v>
+        <v>45496</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45534</v>
+        <v>45506</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4614,16 +4621,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Adair Patterson</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J113" t="inlineStr"/>
     </row>
@@ -4633,7 +4636,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4642,10 +4645,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45509</v>
+        <v>45527</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45513</v>
+        <v>45527</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4654,12 +4657,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J114" t="inlineStr"/>
     </row>
@@ -4669,7 +4672,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4678,10 +4681,10 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4690,12 +4693,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J115" t="inlineStr"/>
     </row>
@@ -4705,7 +4708,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4714,10 +4717,10 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45408</v>
+        <v>45440</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45412</v>
+        <v>45440</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4731,7 +4734,7 @@
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J116" t="inlineStr"/>
     </row>
@@ -4741,7 +4744,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4750,10 +4753,10 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45441</v>
+        <v>45431</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45442</v>
+        <v>45436</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4762,12 +4765,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Sierra Ancha, </t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J117" t="inlineStr"/>
     </row>
@@ -4777,7 +4780,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4786,10 +4789,10 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45431</v>
+        <v>45478</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45436</v>
+        <v>45487</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4798,12 +4801,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J118" t="inlineStr"/>
     </row>
@@ -4843,9 +4846,47 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>45787</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>118</v>
+      </c>
+      <c r="J120" t="n">
+        <v>338</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -534,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -543,10 +540,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -560,7 +557,7 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -570,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,10 +576,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45579</v>
+        <v>45553</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45579</v>
+        <v>45554</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -591,12 +588,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
@@ -606,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,10 +612,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -627,12 +624,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -642,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,10 +648,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45574</v>
+        <v>45539</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45575</v>
+        <v>45540</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -663,12 +660,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -678,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,10 +684,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45572</v>
+        <v>45567</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45572</v>
+        <v>45568</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -699,12 +696,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -714,7 +711,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,10 +720,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45600</v>
+        <v>45421</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45600</v>
+        <v>45421</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -735,12 +732,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -750,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -759,10 +756,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45595</v>
+        <v>45432</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45596</v>
+        <v>45538</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,12 +768,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -786,7 +783,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -795,10 +792,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45593</v>
+        <v>45546</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45593</v>
+        <v>45547</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -807,12 +804,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -831,10 +828,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45588</v>
+        <v>45560</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45589</v>
+        <v>45561</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -848,7 +845,7 @@
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
@@ -858,7 +855,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,10 +864,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -879,12 +876,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
@@ -894,7 +891,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -903,10 +900,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45432</v>
+        <v>45595</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45538</v>
+        <v>45596</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -915,12 +912,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -930,7 +927,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -939,10 +936,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -951,12 +948,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
@@ -966,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -975,10 +972,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -987,12 +984,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J15" t="inlineStr"/>
     </row>
@@ -1002,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1011,10 +1008,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1023,12 +1020,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr"/>
     </row>
@@ -1047,10 +1044,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1059,12 +1056,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -1083,10 +1080,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1100,7 +1097,7 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr"/>
     </row>
@@ -1119,10 +1116,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45553</v>
+        <v>45581</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45554</v>
+        <v>45582</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1136,7 +1133,7 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
     </row>
@@ -1146,7 +1143,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1155,10 +1152,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45551</v>
+        <v>45588</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45551</v>
+        <v>45589</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1172,7 +1169,7 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -1182,7 +1179,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1191,10 +1188,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45637</v>
+        <v>45554</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45642</v>
+        <v>45556</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1208,7 +1205,7 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -1218,7 +1215,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1227,10 +1224,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45605</v>
+        <v>45588</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45610</v>
+        <v>45588</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1239,12 +1236,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J22" t="inlineStr"/>
     </row>
@@ -1254,7 +1251,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,10 +1260,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45627</v>
+        <v>45581</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45635</v>
+        <v>45585</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1275,12 +1272,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -1299,10 +1296,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45600</v>
+        <v>45594</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45600</v>
+        <v>45595</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1316,7 +1313,7 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
@@ -1326,7 +1323,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1335,10 +1332,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45594</v>
+        <v>45605</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45595</v>
+        <v>45610</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1347,12 +1344,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J25" t="inlineStr"/>
     </row>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1371,10 +1368,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45581</v>
+        <v>45627</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45585</v>
+        <v>45635</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1383,12 +1380,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J26" t="inlineStr"/>
     </row>
@@ -1398,7 +1395,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1407,10 +1404,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45588</v>
+        <v>45637</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45588</v>
+        <v>45642</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1419,12 +1416,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J27" t="inlineStr"/>
     </row>
@@ -1434,7 +1431,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1443,10 +1440,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45554</v>
+        <v>45600</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45556</v>
+        <v>45600</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1455,12 +1452,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
@@ -1470,7 +1467,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1479,10 +1476,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45603</v>
+        <v>45562</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45604</v>
+        <v>45564</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1491,12 +1488,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J29" t="inlineStr"/>
     </row>
@@ -1506,7 +1503,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1515,10 +1512,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45627</v>
+        <v>45581</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45748</v>
+        <v>45587</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1527,16 +1524,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>SAEF</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
@@ -1546,7 +1539,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1555,10 +1548,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45597</v>
+        <v>45589</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45598</v>
+        <v>45593</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1572,7 +1565,7 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
@@ -1582,7 +1575,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1591,10 +1584,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45611</v>
+        <v>45548</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45611</v>
+        <v>45554</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1603,12 +1596,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
@@ -1618,7 +1611,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1627,10 +1620,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45608</v>
+        <v>45568</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45608</v>
+        <v>45568</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1639,12 +1632,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
@@ -1654,7 +1647,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1663,10 +1656,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45568</v>
+        <v>45597</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45568</v>
+        <v>45598</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1680,7 +1673,7 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1690,7 +1683,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1699,10 +1692,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45562</v>
+        <v>45611</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45564</v>
+        <v>45611</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1711,12 +1704,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J35" t="inlineStr"/>
     </row>
@@ -1726,7 +1719,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1735,10 +1728,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45548</v>
+        <v>45608</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45554</v>
+        <v>45608</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1747,12 +1740,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1771,10 +1764,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45589</v>
+        <v>45627</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45593</v>
+        <v>45748</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1783,12 +1776,16 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I37" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1798,7 +1795,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1807,10 +1804,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45581</v>
+        <v>45603</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45587</v>
+        <v>45604</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1819,12 +1816,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J38" t="inlineStr"/>
     </row>
@@ -1843,10 +1840,10 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1860,7 +1857,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -1875,14 +1872,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1891,12 +1888,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
@@ -1915,10 +1912,10 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45559</v>
+        <v>45573</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45561</v>
+        <v>45575</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1932,7 +1929,7 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
@@ -1951,10 +1948,10 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45573</v>
+        <v>45545</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1968,7 +1965,7 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
@@ -1983,14 +1980,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45545</v>
+        <v>45586</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45547</v>
+        <v>45610</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1999,12 +1996,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J43" t="inlineStr"/>
     </row>
@@ -2023,10 +2020,10 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45552</v>
+        <v>45566</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45554</v>
+        <v>45568</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2040,7 +2037,7 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J44" t="inlineStr"/>
     </row>
@@ -2059,10 +2056,10 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45580</v>
+        <v>45559</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2076,53 +2073,59 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>52</v>
+      </c>
+      <c r="J46" t="n">
         <v>329</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
-        <v>44</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2131,10 +2134,10 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45667</v>
+        <v>45565</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45667</v>
+        <v>45567</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2146,17 +2149,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>45</v>
-      </c>
-      <c r="J47" t="n">
-        <v>329</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2194,7 +2191,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J48" t="n">
         <v>329</v>
@@ -2236,7 +2233,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J49" t="n">
         <v>329</v>
@@ -2244,11 +2241,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2257,10 +2254,10 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45667</v>
+        <v>45595</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45667</v>
+        <v>45595</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2272,57 +2269,53 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>48</v>
-      </c>
-      <c r="J50" t="n">
-        <v>329</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>51</v>
+      </c>
+      <c r="J51" t="n">
         <v>329</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Bowker</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>49</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2360,7 +2353,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J52" t="n">
         <v>329</v>
@@ -2368,11 +2361,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2381,10 +2374,10 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45667</v>
+        <v>45642</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2393,20 +2386,18 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Keven Griffen</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>51</v>
-      </c>
-      <c r="J53" t="n">
-        <v>329</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2444,7 +2435,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J54" t="n">
         <v>329</v>
@@ -2452,39 +2443,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>47</v>
+      </c>
+      <c r="J55" t="n">
         <v>329</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>53</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2522,7 +2519,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J56" t="n">
         <v>329</v>
@@ -2534,7 +2531,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2543,10 +2540,10 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45565</v>
+        <v>45588</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45567</v>
+        <v>45588</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2560,17 +2557,17 @@
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2579,10 +2576,10 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45667</v>
+        <v>45581</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45667</v>
+        <v>45583</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2591,56 +2588,56 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>56</v>
-      </c>
-      <c r="J58" t="n">
-        <v>329</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>50</v>
+      </c>
+      <c r="J59" t="n">
         <v>329</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Bowker</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>for keven, srp data collection</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3108,19 +3105,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3129,16 +3126,16 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Matthew Voorhees</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J72" t="inlineStr"/>
     </row>
@@ -3157,10 +3154,10 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45432</v>
+        <v>45555</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45434</v>
+        <v>45555</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3169,12 +3166,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J73" t="inlineStr"/>
     </row>
@@ -3184,7 +3181,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3193,10 +3190,10 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45453</v>
+        <v>45439</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45477</v>
+        <v>45445</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3205,12 +3202,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J74" t="inlineStr"/>
     </row>
@@ -3220,7 +3217,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3229,10 +3226,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45478</v>
+        <v>45525</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45506</v>
+        <v>45525</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3241,12 +3238,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J75" t="inlineStr"/>
     </row>
@@ -3256,7 +3253,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3265,10 +3262,10 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45445</v>
+        <v>45477</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3277,12 +3274,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J76" t="inlineStr"/>
     </row>
@@ -3292,7 +3289,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3301,10 +3298,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45525</v>
+        <v>45432</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45525</v>
+        <v>45434</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3313,12 +3310,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J77" t="inlineStr"/>
     </row>
@@ -3328,7 +3325,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3337,10 +3334,10 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45555</v>
+        <v>45509</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45555</v>
+        <v>45514</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3349,12 +3346,16 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J78" t="inlineStr"/>
     </row>
@@ -3364,19 +3365,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45517</v>
+        <v>45478</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45518</v>
+        <v>45506</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3385,16 +3386,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J79" t="inlineStr"/>
     </row>
@@ -3404,7 +3401,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3413,10 +3410,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45602</v>
+        <v>45401</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45608</v>
+        <v>45402</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3430,7 +3427,7 @@
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J80" t="inlineStr"/>
     </row>
@@ -3449,10 +3446,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45541</v>
+        <v>45422</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45571</v>
+        <v>45427</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3461,12 +3458,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J81" t="inlineStr"/>
     </row>
@@ -3485,10 +3482,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45647</v>
+        <v>45623</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3502,7 +3499,7 @@
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J82" t="inlineStr"/>
     </row>
@@ -3512,7 +3509,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3521,10 +3518,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45636</v>
+        <v>45536</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3533,12 +3530,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J83" t="inlineStr"/>
     </row>
@@ -3548,7 +3545,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3557,10 +3554,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45432</v>
+        <v>45421</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45433</v>
+        <v>45421</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3574,7 +3571,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J84" t="inlineStr"/>
     </row>
@@ -3584,7 +3581,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3593,10 +3590,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45421</v>
+        <v>45432</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45421</v>
+        <v>45433</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3610,7 +3607,7 @@
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J85" t="inlineStr"/>
     </row>
@@ -3620,7 +3617,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3629,10 +3626,10 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45444</v>
+        <v>45639</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45536</v>
+        <v>45647</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3641,12 +3638,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J86" t="inlineStr"/>
     </row>
@@ -3656,7 +3653,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3665,10 +3662,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45617</v>
+        <v>45541</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45623</v>
+        <v>45571</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3677,12 +3674,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J87" t="inlineStr"/>
     </row>
@@ -3692,7 +3689,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3701,10 +3698,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45422</v>
+        <v>45602</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45427</v>
+        <v>45608</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3718,7 +3715,7 @@
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J88" t="inlineStr"/>
     </row>
@@ -3728,7 +3725,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3737,10 +3734,10 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45401</v>
+        <v>45627</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45402</v>
+        <v>45636</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3754,7 +3751,7 @@
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J89" t="inlineStr"/>
     </row>
@@ -3764,7 +3761,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3773,10 +3770,10 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45581</v>
+        <v>45597</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45587</v>
+        <v>45613</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3785,12 +3782,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Day use in town for the extent of stay</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J90" t="inlineStr"/>
     </row>
@@ -3800,7 +3797,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3809,10 +3806,10 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45401</v>
+        <v>45475</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45402</v>
+        <v>45565</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3821,12 +3818,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tonto</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J91" t="inlineStr"/>
     </row>
@@ -3836,7 +3833,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3845,10 +3842,10 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45425</v>
+        <v>45594</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45474</v>
+        <v>45594</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3857,12 +3854,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J92" t="inlineStr"/>
     </row>
@@ -3872,7 +3869,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3881,10 +3878,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45403</v>
+        <v>45401</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45423</v>
+        <v>45402</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3898,7 +3895,7 @@
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J93" t="inlineStr"/>
     </row>
@@ -3908,7 +3905,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3917,10 +3914,10 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45594</v>
+        <v>45425</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45594</v>
+        <v>45474</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3929,12 +3926,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J94" t="inlineStr"/>
     </row>
@@ -3953,10 +3950,10 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45597</v>
+        <v>45403</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45613</v>
+        <v>45423</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3965,58 +3962,64 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>118</v>
+      </c>
+      <c r="J96" t="n">
         <v>338</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Margaret Moore</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>45475</v>
-      </c>
-      <c r="E96" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Tonto</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
-        <v>94</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4025,24 +4028,24 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45592</v>
+        <v>45581</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45594</v>
+        <v>45587</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J97" t="inlineStr"/>
     </row>
@@ -4052,7 +4055,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4061,10 +4064,10 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45610</v>
+        <v>45592</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45614</v>
+        <v>45594</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4078,7 +4081,7 @@
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J98" t="inlineStr"/>
     </row>
@@ -4088,7 +4091,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4097,10 +4100,10 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45605</v>
+        <v>45610</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45605</v>
+        <v>45614</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4109,12 +4112,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J99" t="inlineStr"/>
     </row>
@@ -4124,7 +4127,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4133,10 +4136,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45595</v>
+        <v>45605</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45599</v>
+        <v>45605</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4145,12 +4148,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J100" t="inlineStr"/>
     </row>
@@ -4160,7 +4163,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4169,10 +4172,10 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45629</v>
+        <v>45595</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45648</v>
+        <v>45599</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4181,16 +4184,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J101" t="inlineStr"/>
     </row>
@@ -4200,7 +4199,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4209,10 +4208,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45568</v>
+        <v>45629</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45572</v>
+        <v>45648</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4221,12 +4220,16 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I102" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J102" t="inlineStr"/>
     </row>
@@ -4236,7 +4239,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4245,10 +4248,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45561</v>
+        <v>45568</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45561</v>
+        <v>45572</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4257,12 +4260,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sierra ancha</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J103" t="inlineStr"/>
     </row>
@@ -4272,7 +4275,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4281,10 +4284,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45425</v>
+        <v>45561</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45534</v>
+        <v>45561</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4293,12 +4296,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J104" t="inlineStr"/>
     </row>
@@ -4308,7 +4311,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4317,10 +4320,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45421</v>
+        <v>45534</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4329,12 +4332,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J105" t="inlineStr"/>
     </row>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4353,10 +4356,10 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45401</v>
+        <v>45421</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45410</v>
+        <v>45421</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4370,17 +4373,17 @@
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4389,14 +4392,14 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45441</v>
+        <v>45401</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45442</v>
+        <v>45410</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4406,7 +4409,7 @@
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J107" t="inlineStr"/>
     </row>
@@ -4416,7 +4419,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4425,10 +4428,10 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45408</v>
+        <v>45478</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45412</v>
+        <v>45487</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4437,12 +4440,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J108" t="inlineStr"/>
     </row>
@@ -4452,7 +4455,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4461,10 +4464,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45516</v>
+        <v>45431</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45521</v>
+        <v>45436</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4473,12 +4476,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Sierra Ancha, </t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J109" t="inlineStr"/>
     </row>
@@ -4488,7 +4491,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4497,10 +4500,10 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45509</v>
+        <v>45440</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45513</v>
+        <v>45440</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4514,7 +4517,7 @@
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J110" t="inlineStr"/>
     </row>
@@ -4524,7 +4527,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4533,10 +4536,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45533</v>
+        <v>45523</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45534</v>
+        <v>45524</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4545,16 +4548,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Adair Patterson</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J111" t="inlineStr"/>
     </row>
@@ -4564,7 +4563,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4573,10 +4572,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45401</v>
+        <v>45527</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45402</v>
+        <v>45527</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4585,12 +4584,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J112" t="inlineStr"/>
     </row>
@@ -4600,7 +4599,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4609,10 +4608,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45496</v>
+        <v>45408</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45506</v>
+        <v>45412</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4621,12 +4620,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J113" t="inlineStr"/>
     </row>
@@ -4636,7 +4635,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4645,10 +4644,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45527</v>
+        <v>45401</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45527</v>
+        <v>45402</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4657,12 +4656,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J114" t="inlineStr"/>
     </row>
@@ -4672,7 +4671,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4681,10 +4680,10 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45523</v>
+        <v>45533</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45524</v>
+        <v>45534</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4693,12 +4692,16 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
+          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Adair Patterson</t>
+        </is>
+      </c>
       <c r="I115" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J115" t="inlineStr"/>
     </row>
@@ -4708,7 +4711,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4717,10 +4720,10 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45440</v>
+        <v>45509</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45440</v>
+        <v>45513</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4734,7 +4737,7 @@
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J116" t="inlineStr"/>
     </row>
@@ -4744,7 +4747,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4753,10 +4756,10 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45431</v>
+        <v>45516</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45436</v>
+        <v>45521</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4765,12 +4768,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J117" t="inlineStr"/>
     </row>
@@ -4780,7 +4783,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4789,10 +4792,10 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45478</v>
+        <v>45488</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45487</v>
+        <v>45491</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4801,12 +4804,16 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I118" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J118" t="inlineStr"/>
     </row>
@@ -4816,7 +4823,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4825,10 +4832,10 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45488</v>
+        <v>45496</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45491</v>
+        <v>45506</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4837,26 +4844,22 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Peter Fule</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4864,29 +4867,27 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="D120" s="3" t="n">
-        <v>45667</v>
-      </c>
-      <c r="E120" s="3" t="n">
-        <v>45787</v>
+      <c r="D120" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45442</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Peter Fule</t>
-        </is>
-      </c>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>118</v>
-      </c>
-      <c r="J120" t="n">
-        <v>338</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,10 +543,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45551</v>
+        <v>45588</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45551</v>
+        <v>45589</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -557,7 +560,7 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -576,10 +579,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45553</v>
+        <v>45581</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45554</v>
+        <v>45582</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -593,7 +596,7 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
@@ -612,10 +615,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -629,7 +632,7 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -639,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -648,10 +651,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -660,12 +663,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -675,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,10 +687,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -696,12 +699,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -711,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -720,10 +723,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -732,12 +735,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -747,7 +750,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -756,10 +759,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45432</v>
+        <v>45595</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45538</v>
+        <v>45596</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -768,12 +771,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -783,7 +786,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,10 +795,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -804,12 +807,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -828,10 +831,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -840,12 +843,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
@@ -855,7 +858,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -864,10 +867,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45593</v>
+        <v>45546</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45593</v>
+        <v>45547</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,12 +879,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
@@ -891,7 +894,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,10 +903,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45595</v>
+        <v>45432</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45596</v>
+        <v>45538</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -912,12 +915,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -927,7 +930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -936,10 +939,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45600</v>
+        <v>45421</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45600</v>
+        <v>45421</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -948,12 +951,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
@@ -963,7 +966,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -972,10 +975,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45572</v>
+        <v>45567</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45572</v>
+        <v>45568</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -984,12 +987,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J15" t="inlineStr"/>
     </row>
@@ -999,7 +1002,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,10 +1011,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45574</v>
+        <v>45539</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45575</v>
+        <v>45540</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1020,12 +1023,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J16" t="inlineStr"/>
     </row>
@@ -1035,7 +1038,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1044,10 +1047,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1056,12 +1059,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1080,10 +1083,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45579</v>
+        <v>45553</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45579</v>
+        <v>45554</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1092,12 +1095,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J18" t="inlineStr"/>
     </row>
@@ -1107,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1116,10 +1119,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1133,7 +1136,7 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J19" t="inlineStr"/>
     </row>
@@ -1152,10 +1155,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45588</v>
+        <v>45560</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45589</v>
+        <v>45561</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1169,7 +1172,7 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1188,10 +1191,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45554</v>
+        <v>45600</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45556</v>
+        <v>45600</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1200,12 +1203,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -1215,7 +1218,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1224,10 +1227,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45588</v>
+        <v>45637</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45588</v>
+        <v>45642</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1236,12 +1239,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J22" t="inlineStr"/>
     </row>
@@ -1251,7 +1254,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1260,10 +1263,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45581</v>
+        <v>45627</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45585</v>
+        <v>45635</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1272,12 +1275,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -1287,7 +1290,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1296,10 +1299,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45594</v>
+        <v>45605</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45595</v>
+        <v>45610</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1308,12 +1311,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
@@ -1323,7 +1326,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1332,10 +1335,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45605</v>
+        <v>45588</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45610</v>
+        <v>45588</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1344,12 +1347,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J25" t="inlineStr"/>
     </row>
@@ -1359,7 +1362,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1368,10 +1371,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45627</v>
+        <v>45581</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45635</v>
+        <v>45585</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1380,12 +1383,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J26" t="inlineStr"/>
     </row>
@@ -1395,7 +1398,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1404,10 +1407,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45637</v>
+        <v>45554</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45642</v>
+        <v>45556</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1421,7 +1424,7 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J27" t="inlineStr"/>
     </row>
@@ -1440,10 +1443,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45600</v>
+        <v>45594</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45600</v>
+        <v>45595</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1457,7 +1460,7 @@
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1476,10 +1479,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45562</v>
+        <v>45611</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45564</v>
+        <v>45611</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1488,12 +1491,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J29" t="inlineStr"/>
     </row>
@@ -1503,7 +1506,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1512,10 +1515,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45581</v>
+        <v>45603</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45587</v>
+        <v>45604</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1524,12 +1527,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
@@ -1548,10 +1551,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45589</v>
+        <v>45627</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45593</v>
+        <v>45748</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1560,12 +1563,16 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I31" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
@@ -1575,7 +1582,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1584,10 +1591,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45548</v>
+        <v>45608</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45554</v>
+        <v>45608</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1596,12 +1603,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
@@ -1611,7 +1618,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1620,10 +1627,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45568</v>
+        <v>45597</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45568</v>
+        <v>45598</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1637,7 +1644,7 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
@@ -1647,7 +1654,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1656,10 +1663,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45597</v>
+        <v>45589</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45598</v>
+        <v>45593</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1673,7 +1680,7 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1683,7 +1690,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1692,10 +1699,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45611</v>
+        <v>45548</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45611</v>
+        <v>45554</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1704,12 +1711,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J35" t="inlineStr"/>
     </row>
@@ -1719,7 +1726,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1728,10 +1735,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45608</v>
+        <v>45568</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45608</v>
+        <v>45568</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1740,12 +1747,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1755,7 +1762,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1764,10 +1771,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45627</v>
+        <v>45581</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45748</v>
+        <v>45587</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1776,16 +1783,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>SAEF</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1804,10 +1807,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45603</v>
+        <v>45562</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45604</v>
+        <v>45564</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1816,12 +1819,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J38" t="inlineStr"/>
     </row>
@@ -1840,10 +1843,10 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45580</v>
+        <v>45559</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1857,7 +1860,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -1876,10 +1879,10 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45552</v>
+        <v>45566</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45554</v>
+        <v>45568</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1893,7 +1896,7 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
@@ -1912,10 +1915,10 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45573</v>
+        <v>45545</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
@@ -1944,14 +1947,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45545</v>
+        <v>45586</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45547</v>
+        <v>45610</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1960,12 +1963,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
@@ -1980,14 +1983,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1996,12 +1999,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J43" t="inlineStr"/>
     </row>
@@ -2020,10 +2023,10 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J44" t="inlineStr"/>
     </row>
@@ -2056,10 +2059,10 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45559</v>
+        <v>45573</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45561</v>
+        <v>45575</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J45" t="inlineStr"/>
     </row>
@@ -2113,7 +2116,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J46" t="n">
         <v>329</v>
@@ -2125,7 +2128,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2134,10 +2137,10 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45565</v>
+        <v>45588</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45567</v>
+        <v>45588</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2151,17 +2154,17 @@
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2170,10 +2173,10 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45667</v>
+        <v>45581</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45667</v>
+        <v>45583</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2182,20 +2185,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>329</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2233,7 +2230,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J49" t="n">
         <v>329</v>
@@ -2241,47 +2238,53 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
         <v>329</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
-        <v>53</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2290,10 +2293,10 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45667</v>
+        <v>45642</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2302,28 +2305,26 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Keven Griffen</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>51</v>
-      </c>
-      <c r="J51" t="n">
-        <v>329</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2332,10 +2333,10 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45667</v>
+        <v>45565</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45667</v>
+        <v>45567</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2347,65 +2348,61 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>45</v>
-      </c>
-      <c r="J52" t="n">
-        <v>329</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
         <v>329</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Bowker</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>49</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2414,10 +2411,10 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45667</v>
+        <v>45595</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45667</v>
+        <v>45595</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2429,17 +2426,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>48</v>
-      </c>
-      <c r="J54" t="n">
-        <v>329</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2477,7 +2468,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J55" t="n">
         <v>329</v>
@@ -2519,7 +2510,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J56" t="n">
         <v>329</v>
@@ -2527,75 +2518,87 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+      <c r="J57" t="n">
         <v>329</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>44</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>56</v>
+      </c>
+      <c r="J58" t="n">
         <v>329</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Bowker</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>for keven, srp data collection</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>57</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2633,7 +2636,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J59" t="n">
         <v>329</v>
@@ -3105,19 +3108,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45517</v>
+        <v>45478</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45518</v>
+        <v>45506</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3126,16 +3129,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J72" t="inlineStr"/>
     </row>
@@ -3145,7 +3144,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3154,10 +3153,10 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45555</v>
+        <v>45509</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45555</v>
+        <v>45514</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3166,12 +3165,16 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I73" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J73" t="inlineStr"/>
     </row>
@@ -3181,7 +3184,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3190,10 +3193,10 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45445</v>
+        <v>45477</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3202,12 +3205,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J74" t="inlineStr"/>
     </row>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3226,10 +3229,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45525</v>
+        <v>45432</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45525</v>
+        <v>45434</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3238,12 +3241,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J75" t="inlineStr"/>
     </row>
@@ -3253,7 +3256,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3262,10 +3265,10 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45453</v>
+        <v>45439</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45477</v>
+        <v>45445</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3274,12 +3277,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J76" t="inlineStr"/>
     </row>
@@ -3298,10 +3301,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45432</v>
+        <v>45555</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45434</v>
+        <v>45555</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3310,12 +3313,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J77" t="inlineStr"/>
     </row>
@@ -3325,19 +3328,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3346,16 +3349,16 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Matthew Voorhees</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J78" t="inlineStr"/>
     </row>
@@ -3365,7 +3368,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3374,10 +3377,10 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45478</v>
+        <v>45525</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45506</v>
+        <v>45525</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3386,12 +3389,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J79" t="inlineStr"/>
     </row>
@@ -3401,7 +3404,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3410,10 +3413,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45401</v>
+        <v>45627</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45402</v>
+        <v>45636</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3427,7 +3430,7 @@
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J80" t="inlineStr"/>
     </row>
@@ -3437,7 +3440,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3446,10 +3449,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45422</v>
+        <v>45602</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45427</v>
+        <v>45608</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3463,7 +3466,7 @@
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J81" t="inlineStr"/>
     </row>
@@ -3473,7 +3476,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3482,10 +3485,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45617</v>
+        <v>45541</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45623</v>
+        <v>45571</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3494,12 +3497,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J82" t="inlineStr"/>
     </row>
@@ -3509,7 +3512,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3518,10 +3521,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45444</v>
+        <v>45639</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45536</v>
+        <v>45647</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3530,12 +3533,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J83" t="inlineStr"/>
     </row>
@@ -3545,7 +3548,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3554,10 +3557,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45421</v>
+        <v>45432</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45421</v>
+        <v>45433</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3571,7 +3574,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J84" t="inlineStr"/>
     </row>
@@ -3581,7 +3584,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3590,10 +3593,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45432</v>
+        <v>45421</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45433</v>
+        <v>45421</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3607,7 +3610,7 @@
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J85" t="inlineStr"/>
     </row>
@@ -3626,10 +3629,10 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45647</v>
+        <v>45623</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3643,7 +3646,7 @@
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J86" t="inlineStr"/>
     </row>
@@ -3662,10 +3665,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45541</v>
+        <v>45422</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45571</v>
+        <v>45427</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3674,12 +3677,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J87" t="inlineStr"/>
     </row>
@@ -3689,7 +3692,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3698,10 +3701,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45602</v>
+        <v>45401</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45608</v>
+        <v>45402</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3715,7 +3718,7 @@
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J88" t="inlineStr"/>
     </row>
@@ -3725,7 +3728,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3734,10 +3737,10 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45636</v>
+        <v>45536</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3746,12 +3749,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J89" t="inlineStr"/>
     </row>
@@ -3770,10 +3773,10 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45597</v>
+        <v>45403</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45613</v>
+        <v>45423</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3782,12 +3785,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J90" t="inlineStr"/>
     </row>
@@ -3806,10 +3809,10 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45475</v>
+        <v>45581</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45565</v>
+        <v>45587</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3818,50 +3821,56 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Tonto</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>90</v>
+      </c>
+      <c r="J92" t="n">
         <v>338</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Cat</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>45594</v>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>45594</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="n">
-        <v>92</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3869,7 +3878,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3878,10 +3887,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45401</v>
+        <v>45425</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45402</v>
+        <v>45474</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3890,12 +3899,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J93" t="inlineStr"/>
     </row>
@@ -3914,10 +3923,10 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45425</v>
+        <v>45475</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45474</v>
+        <v>45565</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3926,12 +3935,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t>Tonto</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J94" t="inlineStr"/>
     </row>
@@ -3941,7 +3950,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3950,10 +3959,10 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45403</v>
+        <v>45594</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45423</v>
+        <v>45594</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3962,22 +3971,22 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Peter Fule</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3986,10 +3995,10 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45667</v>
+        <v>45401</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45787</v>
+        <v>45402</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4001,17 +4010,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Peter Fule</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>118</v>
-      </c>
-      <c r="J96" t="n">
-        <v>338</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4019,7 +4022,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4028,10 +4031,10 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45581</v>
+        <v>45597</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45587</v>
+        <v>45613</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4040,12 +4043,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Day use in town for the extent of stay</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J97" t="inlineStr"/>
     </row>
@@ -4055,7 +4058,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4064,10 +4067,10 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45592</v>
+        <v>45421</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45594</v>
+        <v>45421</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4081,7 +4084,7 @@
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J98" t="inlineStr"/>
     </row>
@@ -4091,7 +4094,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4100,10 +4103,10 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45610</v>
+        <v>45425</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45614</v>
+        <v>45534</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4112,12 +4115,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J99" t="inlineStr"/>
     </row>
@@ -4127,7 +4130,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4136,10 +4139,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45605</v>
+        <v>45561</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45605</v>
+        <v>45561</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4148,12 +4151,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J100" t="inlineStr"/>
     </row>
@@ -4163,7 +4166,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4172,10 +4175,10 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45595</v>
+        <v>45568</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45599</v>
+        <v>45572</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4184,12 +4187,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sierra ancha</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J101" t="inlineStr"/>
     </row>
@@ -4199,7 +4202,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4208,10 +4211,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45629</v>
+        <v>45401</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45648</v>
+        <v>45410</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4220,16 +4223,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J102" t="inlineStr"/>
     </row>
@@ -4239,7 +4238,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4248,10 +4247,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45568</v>
+        <v>45595</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45572</v>
+        <v>45599</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4260,12 +4259,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J103" t="inlineStr"/>
     </row>
@@ -4275,7 +4274,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4284,10 +4283,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45561</v>
+        <v>45605</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45561</v>
+        <v>45605</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4296,12 +4295,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J104" t="inlineStr"/>
     </row>
@@ -4311,7 +4310,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4320,10 +4319,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45425</v>
+        <v>45610</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45534</v>
+        <v>45614</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4332,12 +4331,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J105" t="inlineStr"/>
     </row>
@@ -4347,7 +4346,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4356,10 +4355,10 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45421</v>
+        <v>45592</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45421</v>
+        <v>45594</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4373,7 +4372,7 @@
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J106" t="inlineStr"/>
     </row>
@@ -4383,7 +4382,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4392,10 +4391,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45401</v>
+        <v>45629</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45410</v>
+        <v>45648</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4404,12 +4403,16 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I107" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J107" t="inlineStr"/>
     </row>
@@ -4419,7 +4422,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4428,10 +4431,10 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45478</v>
+        <v>45488</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45487</v>
+        <v>45491</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4440,12 +4443,16 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I108" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J108" t="inlineStr"/>
     </row>
@@ -4455,7 +4462,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4464,10 +4471,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45431</v>
+        <v>45516</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45436</v>
+        <v>45521</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4476,12 +4483,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J109" t="inlineStr"/>
     </row>
@@ -4491,7 +4498,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4500,10 +4507,10 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45440</v>
+        <v>45509</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45440</v>
+        <v>45513</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4517,7 +4524,7 @@
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J110" t="inlineStr"/>
     </row>
@@ -4527,7 +4534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4536,10 +4543,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45523</v>
+        <v>45533</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45524</v>
+        <v>45534</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4548,12 +4555,16 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
+          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Adair Patterson</t>
+        </is>
+      </c>
       <c r="I111" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J111" t="inlineStr"/>
     </row>
@@ -4563,7 +4574,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4572,10 +4583,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45527</v>
+        <v>45401</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45527</v>
+        <v>45402</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4584,12 +4595,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J112" t="inlineStr"/>
     </row>
@@ -4599,7 +4610,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4608,10 +4619,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45408</v>
+        <v>45523</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45412</v>
+        <v>45524</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4620,12 +4631,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J113" t="inlineStr"/>
     </row>
@@ -4635,7 +4646,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4644,10 +4655,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45401</v>
+        <v>45527</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45402</v>
+        <v>45527</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4656,12 +4667,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J114" t="inlineStr"/>
     </row>
@@ -4671,7 +4682,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4680,10 +4691,10 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45533</v>
+        <v>45440</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45534</v>
+        <v>45440</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4692,16 +4703,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Adair Patterson</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J115" t="inlineStr"/>
     </row>
@@ -4711,7 +4718,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4720,10 +4727,10 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45509</v>
+        <v>45431</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45513</v>
+        <v>45436</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4732,12 +4739,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Sierra Ancha, </t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J116" t="inlineStr"/>
     </row>
@@ -4747,7 +4754,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4756,10 +4763,10 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45516</v>
+        <v>45478</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45521</v>
+        <v>45487</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4768,12 +4775,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J117" t="inlineStr"/>
     </row>
@@ -4783,7 +4790,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4792,10 +4799,10 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45488</v>
+        <v>45496</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45491</v>
+        <v>45506</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4804,16 +4811,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J118" t="inlineStr"/>
     </row>
@@ -4823,7 +4826,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4832,10 +4835,10 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45496</v>
+        <v>45408</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45506</v>
+        <v>45412</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4844,12 +4847,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J119" t="inlineStr"/>
     </row>
@@ -4885,9 +4888,47 @@
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Anita Joy Antoninka</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>45688</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>119</v>
+      </c>
+      <c r="J121" t="n">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45588</v>
+        <v>45560</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45589</v>
+        <v>45561</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45579</v>
+        <v>45553</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45579</v>
+        <v>45554</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45574</v>
+        <v>45539</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45575</v>
+        <v>45540</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -678,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45572</v>
+        <v>45567</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45572</v>
+        <v>45568</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -714,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45600</v>
+        <v>45421</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45600</v>
+        <v>45421</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45595</v>
+        <v>45432</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45596</v>
+        <v>45538</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45593</v>
+        <v>45546</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45593</v>
+        <v>45547</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -822,7 +822,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45432</v>
+        <v>45595</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45538</v>
+        <v>45596</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45553</v>
+        <v>45581</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45554</v>
+        <v>45582</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45551</v>
+        <v>45588</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45551</v>
+        <v>45589</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45600</v>
+        <v>45594</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45600</v>
+        <v>45595</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45637</v>
+        <v>45554</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45642</v>
+        <v>45556</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45627</v>
+        <v>45581</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45635</v>
+        <v>45585</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45605</v>
+        <v>45588</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45610</v>
+        <v>45588</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45588</v>
+        <v>45637</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45588</v>
+        <v>45642</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45581</v>
+        <v>45627</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45585</v>
+        <v>45635</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45554</v>
+        <v>45600</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45556</v>
+        <v>45600</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45594</v>
+        <v>45605</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45595</v>
+        <v>45610</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45611</v>
+        <v>45548</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45611</v>
+        <v>45554</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45603</v>
+        <v>45562</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45604</v>
+        <v>45564</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45627</v>
+        <v>45581</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45748</v>
+        <v>45587</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1563,14 +1563,10 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>SAEF</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>29</v>
       </c>
@@ -1582,7 +1578,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1591,10 +1587,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45608</v>
+        <v>45568</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45608</v>
+        <v>45568</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1603,7 +1599,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1618,7 +1614,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1627,10 +1623,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45597</v>
+        <v>45589</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45598</v>
+        <v>45593</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1663,10 +1659,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45589</v>
+        <v>45627</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45593</v>
+        <v>45748</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1675,10 +1671,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I34" t="n">
         <v>32</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45548</v>
+        <v>45608</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45554</v>
+        <v>45608</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45568</v>
+        <v>45597</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45568</v>
+        <v>45598</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1771,10 +1771,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45581</v>
+        <v>45603</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45587</v>
+        <v>45604</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45562</v>
+        <v>45611</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45564</v>
+        <v>45611</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45559</v>
+        <v>45573</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45561</v>
+        <v>45575</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1911,14 +1911,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45545</v>
+        <v>45586</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45547</v>
+        <v>45610</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1947,14 +1947,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45552</v>
+        <v>45566</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45554</v>
+        <v>45568</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45580</v>
+        <v>45559</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45573</v>
+        <v>45545</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2082,11 +2082,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45667</v>
+        <v>45595</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45667</v>
+        <v>45595</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2110,25 +2110,19 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
         <v>44</v>
       </c>
-      <c r="J46" t="n">
-        <v>329</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2137,10 +2131,10 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45588</v>
+        <v>45667</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45588</v>
+        <v>45667</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2152,19 +2146,25 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I47" t="n">
         <v>45</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45581</v>
+        <v>45667</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45583</v>
+        <v>45667</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2185,14 +2185,20 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>for keven, srp data collection</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I48" t="n">
         <v>46</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2280,11 +2286,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2293,10 +2299,10 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45642</v>
+        <v>45667</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45643</v>
+        <v>45667</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2305,18 +2311,20 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Keven Griffen</t>
+          <t>Jacob Shelly</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>49</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2324,7 +2332,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2333,10 +2341,10 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45565</v>
+        <v>45588</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45567</v>
+        <v>45588</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2356,11 +2364,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2369,10 +2377,10 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45667</v>
+        <v>45642</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2381,28 +2389,26 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Keven Griffen</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>51</v>
       </c>
-      <c r="J53" t="n">
-        <v>329</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2411,10 +2417,10 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45595</v>
+        <v>45667</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45595</v>
+        <v>45667</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2426,11 +2432,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I54" t="n">
         <v>52</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2476,11 +2488,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2489,10 +2501,10 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45667</v>
+        <v>45581</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45667</v>
+        <v>45583</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2501,20 +2513,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>54</v>
       </c>
-      <c r="J56" t="n">
-        <v>329</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2602,11 +2608,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2615,10 +2621,10 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45667</v>
+        <v>45565</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45667</v>
+        <v>45567</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2630,17 +2636,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
         <v>57</v>
       </c>
-      <c r="J59" t="n">
-        <v>329</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45478</v>
+        <v>45525</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45506</v>
+        <v>45525</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3144,19 +3144,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45509</v>
+        <v>45517</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3165,12 +3165,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Matthew Voorhees</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45453</v>
+        <v>45555</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45477</v>
+        <v>45555</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3229,10 +3229,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45432</v>
+        <v>45439</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45434</v>
+        <v>45445</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45439</v>
+        <v>45509</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45445</v>
+        <v>45514</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3277,10 +3277,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I76" t="n">
         <v>74</v>
       </c>
@@ -3292,7 +3296,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3301,10 +3305,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45555</v>
+        <v>45453</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45555</v>
+        <v>45477</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3313,7 +3317,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3328,19 +3332,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45517</v>
+        <v>45478</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45518</v>
+        <v>45506</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3349,14 +3353,10 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
         <v>76</v>
       </c>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3377,10 +3377,10 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45525</v>
+        <v>45432</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45525</v>
+        <v>45434</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45627</v>
+        <v>45617</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45636</v>
+        <v>45623</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45602</v>
+        <v>45444</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45608</v>
+        <v>45536</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3485,10 +3485,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45541</v>
+        <v>45401</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45571</v>
+        <v>45402</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45639</v>
+        <v>45422</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45647</v>
+        <v>45427</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3557,10 +3557,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45432</v>
+        <v>45421</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45433</v>
+        <v>45421</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3580,11 +3580,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45421</v>
+        <v>45627</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45421</v>
+        <v>45688</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3608,11 +3608,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I85" t="n">
         <v>83</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3629,10 +3635,10 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45617</v>
+        <v>45639</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45623</v>
+        <v>45647</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3665,10 +3671,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45422</v>
+        <v>45541</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45427</v>
+        <v>45571</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3677,7 +3683,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3692,7 +3698,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3701,10 +3707,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45401</v>
+        <v>45602</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45402</v>
+        <v>45608</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3728,7 +3734,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3737,10 +3743,10 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45444</v>
+        <v>45627</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45536</v>
+        <v>45636</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3749,7 +3755,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3760,11 +3766,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3773,14 +3779,14 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45403</v>
+        <v>45432</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45423</v>
+        <v>45433</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3800,7 +3806,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3809,10 +3815,10 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45581</v>
+        <v>45597</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45587</v>
+        <v>45613</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3821,7 +3827,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Day use in town for the extent of stay</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3832,11 +3838,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Peter Fule</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3845,10 +3851,10 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45667</v>
+        <v>45401</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45787</v>
+        <v>45402</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3860,17 +3866,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Peter Fule</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
         <v>90</v>
       </c>
-      <c r="J92" t="n">
-        <v>338</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45425</v>
+        <v>45594</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45474</v>
+        <v>45594</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -3923,10 +3923,10 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45475</v>
+        <v>45581</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45565</v>
+        <v>45587</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Tonto</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45594</v>
+        <v>45425</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45594</v>
+        <v>45474</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3982,11 +3982,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Peter Fule</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45401</v>
+        <v>45667</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45402</v>
+        <v>45787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4010,11 +4010,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
       <c r="I96" t="n">
         <v>94</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4022,7 +4028,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4031,10 +4037,10 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45597</v>
+        <v>45475</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45613</v>
+        <v>45565</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4043,7 +4049,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
+          <t>Tonto</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4054,11 +4060,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4067,14 +4073,14 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45421</v>
+        <v>45403</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4094,7 +4100,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4103,10 +4109,10 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45425</v>
+        <v>45629</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45534</v>
+        <v>45648</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4115,10 +4121,14 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I99" t="n">
         <v>97</v>
       </c>
@@ -4130,7 +4140,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4139,10 +4149,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45561</v>
+        <v>45592</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45561</v>
+        <v>45594</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4166,7 +4176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4175,10 +4185,10 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45568</v>
+        <v>45610</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45572</v>
+        <v>45614</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4187,7 +4197,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -4202,7 +4212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4211,10 +4221,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45401</v>
+        <v>45605</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45410</v>
+        <v>45605</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4223,7 +4233,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4274,7 +4284,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4283,10 +4293,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45605</v>
+        <v>45568</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45605</v>
+        <v>45572</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4295,7 +4305,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>sierra ancha</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4310,7 +4320,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4319,10 +4329,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45610</v>
+        <v>45561</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45614</v>
+        <v>45561</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4346,7 +4356,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4355,10 +4365,10 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45592</v>
+        <v>45425</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45594</v>
+        <v>45534</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4367,7 +4377,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4382,7 +4392,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4391,10 +4401,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45629</v>
+        <v>45421</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45648</v>
+        <v>45421</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4403,14 +4413,10 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
         <v>105</v>
       </c>
@@ -4418,11 +4424,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4431,14 +4437,14 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45488</v>
+        <v>45401</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45491</v>
+        <v>45410</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4446,11 +4452,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
         <v>106</v>
       </c>
@@ -4462,7 +4464,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4471,10 +4473,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45516</v>
+        <v>45408</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45521</v>
+        <v>45412</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4498,7 +4500,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4507,10 +4509,10 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45509</v>
+        <v>45496</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45513</v>
+        <v>45506</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4519,7 +4521,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4534,7 +4536,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4543,10 +4545,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45533</v>
+        <v>45478</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45534</v>
+        <v>45487</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4555,14 +4557,10 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Adair Patterson</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
         <v>109</v>
       </c>
@@ -4574,7 +4572,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4583,10 +4581,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45401</v>
+        <v>45431</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45402</v>
+        <v>45436</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4595,7 +4593,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Sierra Ancha, </t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -4610,7 +4608,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4619,10 +4617,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45523</v>
+        <v>45440</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45524</v>
+        <v>45440</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4631,7 +4629,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4646,7 +4644,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4655,10 +4653,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45527</v>
+        <v>45401</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45527</v>
+        <v>45402</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4667,7 +4665,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4682,7 +4680,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4691,10 +4689,10 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45440</v>
+        <v>45523</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45440</v>
+        <v>45524</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4703,7 +4701,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -4718,7 +4716,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4727,10 +4725,10 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45431</v>
+        <v>45533</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4739,10 +4737,14 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
+          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Adair Patterson</t>
+        </is>
+      </c>
       <c r="I116" t="n">
         <v>114</v>
       </c>
@@ -4754,7 +4756,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4763,10 +4765,10 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45478</v>
+        <v>45509</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45487</v>
+        <v>45513</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4775,7 +4777,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -4790,7 +4792,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4799,10 +4801,10 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45496</v>
+        <v>45516</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45506</v>
+        <v>45521</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4811,7 +4813,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -4826,7 +4828,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4835,10 +4837,10 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45408</v>
+        <v>45441</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45412</v>
+        <v>45442</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4862,7 +4864,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4871,10 +4873,10 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45441</v>
+        <v>45527</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45442</v>
+        <v>45527</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4883,7 +4885,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -4894,11 +4896,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4906,28 +4908,68 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="D121" s="3" t="n">
-        <v>45627</v>
-      </c>
-      <c r="E121" s="3" t="n">
-        <v>45688</v>
+      <c r="D121" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45491</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Keven Griffen</t>
+          <t>Shay Levine</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>119</v>
       </c>
-      <c r="J121" t="n">
-        <v>333</v>
+      <c r="J121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Matthew Bowker</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>45629</v>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>45647</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>120</v>
+      </c>
+      <c r="J122" t="n">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45551</v>
+        <v>45588</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45551</v>
+        <v>45589</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45553</v>
+        <v>45581</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45554</v>
+        <v>45582</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -678,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -714,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45432</v>
+        <v>45595</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45538</v>
+        <v>45596</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45593</v>
+        <v>45546</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45593</v>
+        <v>45547</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -894,7 +894,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45595</v>
+        <v>45432</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45596</v>
+        <v>45538</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45600</v>
+        <v>45421</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45600</v>
+        <v>45421</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45572</v>
+        <v>45567</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45572</v>
+        <v>45568</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45574</v>
+        <v>45539</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45575</v>
+        <v>45540</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45579</v>
+        <v>45553</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45579</v>
+        <v>45554</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45588</v>
+        <v>45560</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45589</v>
+        <v>45561</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45594</v>
+        <v>45605</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45595</v>
+        <v>45610</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45554</v>
+        <v>45600</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45556</v>
+        <v>45600</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45581</v>
+        <v>45627</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45585</v>
+        <v>45635</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45588</v>
+        <v>45637</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45588</v>
+        <v>45642</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45637</v>
+        <v>45554</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45642</v>
+        <v>45556</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45627</v>
+        <v>45581</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45635</v>
+        <v>45585</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45600</v>
+        <v>45594</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45600</v>
+        <v>45595</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45605</v>
+        <v>45588</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45610</v>
+        <v>45588</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45548</v>
+        <v>45597</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45554</v>
+        <v>45598</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45562</v>
+        <v>45611</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45564</v>
+        <v>45611</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45581</v>
+        <v>45603</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45587</v>
+        <v>45604</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45568</v>
+        <v>45608</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45568</v>
+        <v>45608</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45589</v>
+        <v>45627</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45593</v>
+        <v>45748</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1635,10 +1635,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I33" t="n">
         <v>31</v>
       </c>
@@ -1650,7 +1654,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1659,10 +1663,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45627</v>
+        <v>45568</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45748</v>
+        <v>45568</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1671,14 +1675,10 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>32</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45608</v>
+        <v>45581</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45608</v>
+        <v>45587</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45597</v>
+        <v>45562</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45598</v>
+        <v>45564</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1771,10 +1771,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45603</v>
+        <v>45548</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45604</v>
+        <v>45554</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45611</v>
+        <v>45589</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45611</v>
+        <v>45593</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45573</v>
+        <v>45566</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45575</v>
+        <v>45568</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45580</v>
+        <v>45573</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45582</v>
+        <v>45575</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1911,14 +1911,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45586</v>
+        <v>45580</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45610</v>
+        <v>45582</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1947,14 +1947,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45552</v>
+        <v>45586</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45554</v>
+        <v>45610</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45568</v>
+        <v>45554</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45595</v>
+        <v>45581</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45595</v>
+        <v>45583</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>for keven, srp data collection</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2202,11 +2202,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45667</v>
+        <v>45565</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45667</v>
+        <v>45567</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2230,25 +2230,19 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
         <v>47</v>
       </c>
-      <c r="J49" t="n">
-        <v>329</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2257,10 +2251,10 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2272,17 +2266,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
         <v>48</v>
       </c>
-      <c r="J50" t="n">
-        <v>329</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2328,11 +2316,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2341,10 +2329,10 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45588</v>
+        <v>45667</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45588</v>
+        <v>45667</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2356,19 +2344,25 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I52" t="n">
         <v>50</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2377,10 +2371,10 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45642</v>
+        <v>45667</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45643</v>
+        <v>45667</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2389,18 +2383,20 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Keven Griffen</t>
+          <t>Jacob Shelly</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>51</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2446,11 +2442,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2459,10 +2455,10 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45667</v>
+        <v>45588</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45667</v>
+        <v>45588</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2474,25 +2470,19 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
         <v>53</v>
       </c>
-      <c r="J55" t="n">
-        <v>329</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2501,10 +2491,10 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45581</v>
+        <v>45667</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45583</v>
+        <v>45667</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2513,14 +2503,20 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>for keven, srp data collection</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I56" t="n">
         <v>54</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2612,7 +2608,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2621,10 +2617,10 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45565</v>
+        <v>45595</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45567</v>
+        <v>45595</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2648,7 +2644,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2657,10 +2653,10 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45576</v>
+        <v>45642</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45576</v>
+        <v>45643</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2669,10 +2665,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I60" t="n">
         <v>58</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45572</v>
+        <v>45481</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45576</v>
+        <v>45490</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2745,12 +2745,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Jasmine Anenberg</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Colin Whitehead</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2773,10 +2773,10 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45503</v>
+        <v>45642</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45503</v>
+        <v>45642</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2785,12 +2785,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Shay Levine</t>
+          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45534</v>
+        <v>45613</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45553</v>
+        <v>45619</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2825,10 +2825,14 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I64" t="n">
         <v>62</v>
       </c>
@@ -2840,7 +2844,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hofstetter</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2849,10 +2853,10 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45605</v>
+        <v>45629</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45609</v>
+        <v>45633</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2861,10 +2865,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">drive to Phoenix for a conference </t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I65" t="n">
         <v>63</v>
       </c>
@@ -2872,11 +2880,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2885,10 +2893,10 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45568</v>
+        <v>45611</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2912,7 +2920,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2921,10 +2929,10 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45611</v>
+        <v>45572</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45611</v>
+        <v>45576</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2933,10 +2941,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I67" t="n">
         <v>65</v>
       </c>
@@ -2948,7 +2960,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Colin Whitehead</t>
+          <t>Hofstetter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2957,10 +2969,10 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45642</v>
+        <v>45605</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45642</v>
+        <v>45609</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2969,14 +2981,10 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
-        </is>
-      </c>
+          <t xml:space="preserve">drive to Phoenix for a conference </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
         <v>66</v>
       </c>
@@ -2988,7 +2996,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2997,10 +3005,10 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45481</v>
+        <v>45503</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45490</v>
+        <v>45503</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3014,7 +3022,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Jasmine Anenberg</t>
+          <t>Shay Levine</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -3024,11 +3032,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3037,10 +3045,10 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45629</v>
+        <v>45568</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45633</v>
+        <v>45568</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3049,14 +3057,10 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
         <v>68</v>
       </c>
@@ -3068,7 +3072,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3077,10 +3081,10 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45613</v>
+        <v>45534</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45619</v>
+        <v>45553</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3089,14 +3093,10 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
         <v>69</v>
       </c>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45617</v>
+        <v>45401</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45623</v>
+        <v>45402</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45444</v>
+        <v>45432</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45536</v>
+        <v>45433</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3485,10 +3485,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45401</v>
+        <v>45627</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45402</v>
+        <v>45636</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45422</v>
+        <v>45602</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45427</v>
+        <v>45608</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3557,10 +3557,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45421</v>
+        <v>45541</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45421</v>
+        <v>45571</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -3580,11 +3580,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45627</v>
+        <v>45639</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45688</v>
+        <v>45647</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3608,17 +3608,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
         <v>83</v>
       </c>
-      <c r="J85" t="n">
-        <v>333</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3635,10 +3629,10 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45639</v>
+        <v>45617</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45647</v>
+        <v>45623</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3662,7 +3656,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3671,10 +3665,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45541</v>
+        <v>45421</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45571</v>
+        <v>45421</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3683,7 +3677,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3698,7 +3692,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3707,10 +3701,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45602</v>
+        <v>45422</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45608</v>
+        <v>45427</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3734,7 +3728,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3743,10 +3737,10 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45636</v>
+        <v>45536</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3755,7 +3749,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3766,11 +3760,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3779,10 +3773,10 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45432</v>
+        <v>45627</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45433</v>
+        <v>45688</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3794,19 +3788,25 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I90" t="n">
         <v>88</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Peter Fule</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45597</v>
+        <v>45667</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45613</v>
+        <v>45787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3827,14 +3827,20 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
       <c r="I91" t="n">
         <v>89</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3842,7 +3848,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3851,10 +3857,10 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45401</v>
+        <v>45475</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45402</v>
+        <v>45565</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3863,7 +3869,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tonto</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3878,7 +3884,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3887,10 +3893,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45594</v>
+        <v>45403</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45594</v>
+        <v>45423</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3899,7 +3905,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -3923,10 +3929,10 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45581</v>
+        <v>45425</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45587</v>
+        <v>45474</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3935,7 +3941,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3950,7 +3956,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3959,10 +3965,10 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45425</v>
+        <v>45594</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45474</v>
+        <v>45594</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3971,7 +3977,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3982,11 +3988,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Peter Fule</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3995,10 +4001,10 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45667</v>
+        <v>45401</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45787</v>
+        <v>45402</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4010,17 +4016,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Peter Fule</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
         <v>94</v>
       </c>
-      <c r="J96" t="n">
-        <v>338</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4037,10 +4037,10 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45475</v>
+        <v>45597</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45565</v>
+        <v>45613</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Tonto</t>
+          <t>Day use in town for the extent of stay</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45403</v>
+        <v>45581</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45423</v>
+        <v>45587</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4109,10 +4109,10 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45629</v>
+        <v>45421</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45648</v>
+        <v>45421</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4121,14 +4121,10 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
         <v>97</v>
       </c>
@@ -4140,7 +4136,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4149,10 +4145,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45592</v>
+        <v>45425</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45594</v>
+        <v>45534</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4161,7 +4157,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -4176,7 +4172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4185,10 +4181,10 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45610</v>
+        <v>45561</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45614</v>
+        <v>45561</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4212,7 +4208,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4221,10 +4217,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45605</v>
+        <v>45568</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45605</v>
+        <v>45572</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4233,7 +4229,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>sierra ancha</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
@@ -4257,10 +4253,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45595</v>
+        <v>45401</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45599</v>
+        <v>45410</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4284,7 +4280,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4293,10 +4289,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45568</v>
+        <v>45605</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45572</v>
+        <v>45605</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4305,7 +4301,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4320,7 +4316,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4329,10 +4325,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45561</v>
+        <v>45595</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45561</v>
+        <v>45599</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4356,7 +4352,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4365,10 +4361,10 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45425</v>
+        <v>45629</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45534</v>
+        <v>45648</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4377,10 +4373,14 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I106" t="n">
         <v>104</v>
       </c>
@@ -4388,11 +4388,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Matthew Bowker</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4401,10 +4401,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45421</v>
+        <v>45629</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45421</v>
+        <v>45647</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4416,11 +4416,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I107" t="n">
         <v>105</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>466</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4428,7 +4434,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4437,10 +4443,10 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45401</v>
+        <v>45610</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45410</v>
+        <v>45614</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4460,11 +4466,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4473,14 +4479,14 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45408</v>
+        <v>45592</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45412</v>
+        <v>45594</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4500,7 +4506,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4509,10 +4515,10 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45496</v>
+        <v>45488</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45506</v>
+        <v>45491</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4521,10 +4527,14 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I110" t="n">
         <v>108</v>
       </c>
@@ -4536,7 +4546,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4545,10 +4555,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45478</v>
+        <v>45408</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45487</v>
+        <v>45412</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4557,7 +4567,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -4572,7 +4582,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4581,10 +4591,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45431</v>
+        <v>45496</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45436</v>
+        <v>45506</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4593,7 +4603,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -4608,7 +4618,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4617,10 +4627,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45440</v>
+        <v>45478</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45440</v>
+        <v>45487</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4629,7 +4639,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4644,7 +4654,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4653,10 +4663,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45401</v>
+        <v>45431</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45402</v>
+        <v>45436</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4665,7 +4675,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Sierra Ancha, </t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4680,7 +4690,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4689,10 +4699,10 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45523</v>
+        <v>45401</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45524</v>
+        <v>45402</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4701,7 +4711,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -4716,7 +4726,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4725,10 +4735,10 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45533</v>
+        <v>45523</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45534</v>
+        <v>45524</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4737,14 +4747,10 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Adair Patterson</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
         <v>114</v>
       </c>
@@ -4756,7 +4762,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4765,10 +4771,10 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45513</v>
+        <v>45534</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4777,10 +4783,14 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Adair Patterson</t>
+        </is>
+      </c>
       <c r="I117" t="n">
         <v>115</v>
       </c>
@@ -4801,10 +4811,10 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45521</v>
+        <v>45513</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4828,7 +4838,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4837,10 +4847,10 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45441</v>
+        <v>45516</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45442</v>
+        <v>45521</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4864,7 +4874,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4873,10 +4883,10 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45527</v>
+        <v>45441</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45527</v>
+        <v>45442</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4885,7 +4895,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -4900,7 +4910,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4909,10 +4919,10 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45488</v>
+        <v>45527</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4921,14 +4931,10 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
         <v>119</v>
       </c>
@@ -4936,11 +4942,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Matthew Bowker</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4948,28 +4954,60 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="D122" s="3" t="n">
-        <v>45629</v>
-      </c>
-      <c r="E122" s="3" t="n">
-        <v>45647</v>
+      <c r="D122" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45440</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
         <v>120</v>
       </c>
-      <c r="J122" t="n">
-        <v>466</v>
+      <c r="J122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Anita Joy Antoninka</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>45670</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>310 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>121</v>
+      </c>
+      <c r="J123" t="n">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -534,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -543,10 +540,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -555,12 +552,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -579,10 +576,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45588</v>
+        <v>45560</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45589</v>
+        <v>45561</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -596,7 +593,7 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
@@ -606,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,10 +612,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -632,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -651,10 +648,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45574</v>
+        <v>45553</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45575</v>
+        <v>45554</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -668,7 +665,7 @@
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -678,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,10 +684,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45572</v>
+        <v>45539</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45572</v>
+        <v>45540</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -699,12 +696,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -714,7 +711,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,10 +720,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45600</v>
+        <v>45567</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45600</v>
+        <v>45568</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -735,12 +732,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -750,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -759,10 +756,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45595</v>
+        <v>45421</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45596</v>
+        <v>45421</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,12 +768,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -786,7 +783,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -795,10 +792,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45593</v>
+        <v>45546</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45593</v>
+        <v>45547</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -807,12 +804,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -822,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -831,10 +828,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45579</v>
+        <v>45432</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45579</v>
+        <v>45538</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -843,12 +840,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
@@ -858,7 +855,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,10 +864,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -879,12 +876,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
@@ -894,7 +891,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -903,10 +900,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45432</v>
+        <v>45595</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45538</v>
+        <v>45596</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -915,12 +912,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -930,7 +927,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -939,10 +936,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45421</v>
+        <v>45600</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -951,12 +948,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
@@ -966,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -975,10 +972,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -987,12 +984,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J15" t="inlineStr"/>
     </row>
@@ -1002,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1011,10 +1008,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1023,12 +1020,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr"/>
     </row>
@@ -1047,10 +1044,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45553</v>
+        <v>45581</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45554</v>
+        <v>45582</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1064,7 +1061,7 @@
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -1074,7 +1071,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1083,10 +1080,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45551</v>
+        <v>45588</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45551</v>
+        <v>45589</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1100,7 +1097,7 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr"/>
     </row>
@@ -1119,10 +1116,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1131,12 +1128,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
     </row>
@@ -1155,10 +1152,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1172,7 +1169,7 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -1182,7 +1179,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1191,10 +1188,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45605</v>
+        <v>45581</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45610</v>
+        <v>45585</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1203,12 +1200,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -1227,10 +1224,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1244,7 +1241,7 @@
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J22" t="inlineStr"/>
     </row>
@@ -1254,7 +1251,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,10 +1260,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45627</v>
+        <v>45594</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45635</v>
+        <v>45595</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1275,12 +1272,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -1290,7 +1287,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1299,10 +1296,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45637</v>
+        <v>45554</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45642</v>
+        <v>45556</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1316,17 +1313,17 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1335,10 +1332,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45554</v>
+        <v>45660</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45556</v>
+        <v>45670</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1352,9 +1349,11 @@
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>23</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>121</v>
+      </c>
+      <c r="J25" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1362,7 +1361,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1371,10 +1370,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45581</v>
+        <v>45627</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45585</v>
+        <v>45635</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1383,12 +1382,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J26" t="inlineStr"/>
     </row>
@@ -1407,10 +1406,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45594</v>
+        <v>45600</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1424,7 +1423,7 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J27" t="inlineStr"/>
     </row>
@@ -1434,7 +1433,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1443,10 +1442,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45588</v>
+        <v>45605</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45588</v>
+        <v>45610</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1455,22 +1454,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1479,14 +1478,14 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45597</v>
+        <v>45637</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45598</v>
+        <v>45642</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>321 - Chevy Trail Boss, White</t>
+          <t>310 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1496,7 +1495,7 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J29" t="inlineStr"/>
     </row>
@@ -1506,7 +1505,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1515,10 +1514,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45611</v>
+        <v>45589</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45611</v>
+        <v>45593</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1527,12 +1526,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
@@ -1542,7 +1541,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1551,10 +1550,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45603</v>
+        <v>45548</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45604</v>
+        <v>45554</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1563,12 +1562,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
@@ -1578,7 +1577,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1587,10 +1586,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45608</v>
+        <v>45562</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45608</v>
+        <v>45564</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1599,12 +1598,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
@@ -1614,7 +1613,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1623,10 +1622,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45627</v>
+        <v>45581</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45748</v>
+        <v>45587</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1635,16 +1634,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>SAEF</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
@@ -1690,7 +1685,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1699,10 +1694,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45581</v>
+        <v>45627</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45587</v>
+        <v>45748</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1711,12 +1706,16 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>SAEF</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I35" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J35" t="inlineStr"/>
     </row>
@@ -1726,7 +1725,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1735,10 +1734,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45562</v>
+        <v>45608</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45564</v>
+        <v>45608</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1747,12 +1746,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1762,7 +1761,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1771,10 +1770,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45548</v>
+        <v>45603</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45554</v>
+        <v>45604</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1783,12 +1782,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1798,7 +1797,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1807,10 +1806,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45589</v>
+        <v>45611</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45593</v>
+        <v>45611</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1819,22 +1818,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1843,14 +1842,14 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45568</v>
+        <v>45598</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>325 - Chevy Trail Boss, White</t>
+          <t>321 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1860,7 +1859,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -1879,10 +1878,10 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45573</v>
+        <v>45545</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1896,7 +1895,7 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
@@ -1915,10 +1914,10 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45580</v>
+        <v>45559</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1932,7 +1931,7 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
@@ -1947,14 +1946,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1963,12 +1962,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
@@ -1987,10 +1986,10 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45552</v>
+        <v>45566</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45554</v>
+        <v>45568</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2004,7 +2003,7 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J43" t="inlineStr"/>
     </row>
@@ -2023,10 +2022,10 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45559</v>
+        <v>45580</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45561</v>
+        <v>45582</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2040,7 +2039,7 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J44" t="inlineStr"/>
     </row>
@@ -2059,10 +2058,10 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45545</v>
+        <v>45573</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45547</v>
+        <v>45575</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2076,53 +2075,53 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45581</v>
+        <v>45586</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45583</v>
+        <v>45610</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>329 - Chevy Trail Boss, White</t>
+          <t>325 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>for keven, srp data collection</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2131,10 +2130,10 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45667</v>
+        <v>45588</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45667</v>
+        <v>45588</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2146,25 +2145,19 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>45</v>
-      </c>
-      <c r="J47" t="n">
-        <v>329</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2173,10 +2166,10 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45667</v>
+        <v>45642</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2185,20 +2178,18 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Keven Griffen</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>46</v>
-      </c>
-      <c r="J48" t="n">
-        <v>329</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2206,7 +2197,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2215,10 +2206,10 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45565</v>
+        <v>45595</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45567</v>
+        <v>45595</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2232,45 +2223,51 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>56</v>
+      </c>
+      <c r="J50" t="n">
         <v>329</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pete Fule </t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
-        <v>48</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2308,7 +2305,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J51" t="n">
         <v>329</v>
@@ -2350,7 +2347,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J52" t="n">
         <v>329</v>
@@ -2392,7 +2389,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J53" t="n">
         <v>329</v>
@@ -2400,11 +2397,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2413,10 +2410,10 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45667</v>
+        <v>45581</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45667</v>
+        <v>45583</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2425,56 +2422,56 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>52</v>
-      </c>
-      <c r="J54" t="n">
-        <v>329</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>50</v>
+      </c>
+      <c r="J55" t="n">
         <v>329</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>53</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2512,7 +2509,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J56" t="n">
         <v>329</v>
@@ -2520,11 +2517,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2533,10 +2530,10 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2548,25 +2545,19 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>329</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2575,10 +2566,10 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45667</v>
+        <v>45565</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45667</v>
+        <v>45567</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2590,101 +2581,103 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>56</v>
-      </c>
-      <c r="J58" t="n">
-        <v>329</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>46</v>
+      </c>
+      <c r="J59" t="n">
         <v>329</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>45</v>
+      </c>
+      <c r="J60" t="n">
         <v>329</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Bowker</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>58</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sierra Jech</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2693,14 +2686,14 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45631</v>
+        <v>45667</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45643</v>
+        <v>45667</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>330 - Toyota Camry</t>
+          <t>329 - Chevy Trail Boss, White</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2710,21 +2703,23 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sierra Jech</t>
+          <t>Jacob Shelly</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>59</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="J61" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Sierra Jech</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2733,14 +2728,14 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45481</v>
+        <v>45631</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45490</v>
+        <v>45643</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
+          <t>330 - Toyota Camry</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2750,11 +2745,11 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Jasmine Anenberg</t>
+          <t>Sierra Jech</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J62" t="inlineStr"/>
     </row>
@@ -2764,7 +2759,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Colin Whitehead</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2773,10 +2768,10 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45642</v>
+        <v>45503</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45642</v>
+        <v>45503</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2785,16 +2780,16 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
+          <t>Shay Levine</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J63" t="inlineStr"/>
     </row>
@@ -2804,7 +2799,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2813,10 +2808,10 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45613</v>
+        <v>45534</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45619</v>
+        <v>45553</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2825,26 +2820,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2853,10 +2844,10 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45629</v>
+        <v>45568</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45633</v>
+        <v>45568</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2865,16 +2856,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Wade Axup</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J65" t="inlineStr"/>
     </row>
@@ -2884,7 +2871,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t>Hofstetter</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2893,10 +2880,10 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45611</v>
+        <v>45605</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2905,12 +2892,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">drive to Phoenix for a conference </t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J66" t="inlineStr"/>
     </row>
@@ -2920,7 +2907,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2929,10 +2916,10 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45572</v>
+        <v>45481</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45576</v>
+        <v>45490</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2941,16 +2928,16 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Wade Axup</t>
+          <t>Jasmine Anenberg</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J67" t="inlineStr"/>
     </row>
@@ -2960,7 +2947,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hofstetter</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2969,10 +2956,10 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45605</v>
+        <v>45611</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2981,12 +2968,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">drive to Phoenix for a conference </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J68" t="inlineStr"/>
     </row>
@@ -2996,7 +2983,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3005,10 +2992,10 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45503</v>
+        <v>45629</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45503</v>
+        <v>45633</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3017,26 +3004,26 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">	This minivan is being requested to support staff/faculty travel to the AZ Wildland Urban Interface Summit, which is being planned and hosted by the AZWI &amp; SWFSC.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Shay Levine</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3045,10 +3032,10 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45568</v>
+        <v>45613</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45568</v>
+        <v>45619</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3057,12 +3044,16 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
+          <t>This minivan is being requested to support staff/faculty travel to the Southwest Fire Ecology Conference, which is hosted and planned by the AZWI and SWFSC.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I70" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J70" t="inlineStr"/>
     </row>
@@ -3072,7 +3063,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Colin Whitehead</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3081,10 +3072,10 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45534</v>
+        <v>45642</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45553</v>
+        <v>45642</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3093,22 +3084,26 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve">transporting Dirt lab grad students and technicians to Jerome, AZ for a lab training event. </t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t xml:space="preserve">Heading down to Prescott AZ for a third grade school visit; presenting fire ecology. </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{Colin Whitehead}{Max yusen}{Cole Brant}</t>
+        </is>
+      </c>
       <c r="I71" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Wade Axup</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3117,24 +3112,28 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45525</v>
+        <v>45572</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45525</v>
+        <v>45576</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
+          <t>331- 2024  Toyota Sienna Hybrid, White (8 seats)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>This minivan is being requested to support staff/faculty travel to the AZ Tribal Fire &amp; Climate Resilience Summit, which is hosted by the AZWI and SWFSC.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Wade Axup</t>
+        </is>
+      </c>
       <c r="I72" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J72" t="inlineStr"/>
     </row>
@@ -3144,19 +3143,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45517</v>
+        <v>45432</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45518</v>
+        <v>45434</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3165,16 +3164,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J73" t="inlineStr"/>
     </row>
@@ -3193,10 +3188,10 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45555</v>
+        <v>45478</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45555</v>
+        <v>45506</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3205,12 +3200,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J74" t="inlineStr"/>
     </row>
@@ -3220,7 +3215,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3229,10 +3224,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45445</v>
+        <v>45477</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3241,12 +3236,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J75" t="inlineStr"/>
     </row>
@@ -3256,7 +3251,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3265,10 +3260,10 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45509</v>
+        <v>45555</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45514</v>
+        <v>45555</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3277,16 +3272,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Matthew Voorhees</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J76" t="inlineStr"/>
     </row>
@@ -3296,7 +3287,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3305,10 +3296,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45453</v>
+        <v>45439</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45477</v>
+        <v>45445</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3317,12 +3308,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J77" t="inlineStr"/>
     </row>
@@ -3332,19 +3323,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45478</v>
+        <v>45517</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45506</v>
+        <v>45518</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3353,12 +3344,16 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Salli Dymond</t>
+        </is>
+      </c>
       <c r="I78" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J78" t="inlineStr"/>
     </row>
@@ -3368,7 +3363,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3377,10 +3372,10 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45432</v>
+        <v>45525</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45434</v>
+        <v>45525</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3389,22 +3384,22 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3413,24 +3408,28 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45401</v>
+        <v>45509</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45402</v>
+        <v>45514</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
+          <t>332 - 2009 Dodge Dakota, White (5 Seats)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I80" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J80" t="inlineStr"/>
     </row>
@@ -3440,7 +3439,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3449,10 +3448,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45432</v>
+        <v>45401</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45433</v>
+        <v>45402</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3466,7 +3465,7 @@
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J81" t="inlineStr"/>
     </row>
@@ -3476,7 +3475,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3485,10 +3484,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45627</v>
+        <v>45432</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45636</v>
+        <v>45433</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3502,7 +3501,7 @@
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J82" t="inlineStr"/>
     </row>
@@ -3521,10 +3520,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45602</v>
+        <v>45627</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45608</v>
+        <v>45636</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3538,7 +3537,7 @@
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J83" t="inlineStr"/>
     </row>
@@ -3548,7 +3547,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3557,10 +3556,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45541</v>
+        <v>45602</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45571</v>
+        <v>45608</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3569,12 +3568,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J84" t="inlineStr"/>
     </row>
@@ -3584,7 +3583,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3593,10 +3592,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45639</v>
+        <v>45541</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45647</v>
+        <v>45571</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3605,12 +3604,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J85" t="inlineStr"/>
     </row>
@@ -3802,11 +3801,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Peter Fule</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3815,14 +3814,14 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45667</v>
+        <v>45639</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45787</v>
+        <v>45647</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3830,17 +3829,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Peter Fule</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>89</v>
-      </c>
-      <c r="J91" t="n">
-        <v>338</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3848,7 +3841,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3857,10 +3850,10 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45475</v>
+        <v>45401</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45565</v>
+        <v>45402</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3869,12 +3862,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Tonto</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J92" t="inlineStr"/>
     </row>
@@ -3884,7 +3877,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3893,10 +3886,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45403</v>
+        <v>45581</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45423</v>
+        <v>45587</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3905,12 +3898,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J93" t="inlineStr"/>
     </row>
@@ -3920,7 +3913,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3929,10 +3922,10 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45425</v>
+        <v>45597</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45474</v>
+        <v>45613</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3941,12 +3934,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t>Day use in town for the extent of stay</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J94" t="inlineStr"/>
     </row>
@@ -3992,7 +3985,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4001,10 +3994,10 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45402</v>
+        <v>45423</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4018,7 +4011,7 @@
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J96" t="inlineStr"/>
     </row>
@@ -4028,7 +4021,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4037,10 +4030,10 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45597</v>
+        <v>45475</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45613</v>
+        <v>45565</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4049,58 +4042,64 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
+          <t>Tonto</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>89</v>
+      </c>
+      <c r="J98" t="n">
         <v>338</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Margaret Moore</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>SAEF</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="n">
-        <v>96</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4109,24 +4108,24 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45421</v>
+        <v>45474</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J99" t="inlineStr"/>
     </row>
@@ -4136,7 +4135,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4145,10 +4144,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45425</v>
+        <v>45610</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45534</v>
+        <v>45614</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4157,50 +4156,56 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Matthew Bowker</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45647</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>105</v>
+      </c>
+      <c r="J101" t="n">
         <v>466</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Derek Uhey</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>45561</v>
-      </c>
-      <c r="E101" s="2" t="n">
-        <v>45561</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
-        <v>99</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4208,7 +4213,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4217,10 +4222,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45568</v>
+        <v>45629</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45572</v>
+        <v>45648</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4229,12 +4234,16 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I102" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J102" t="inlineStr"/>
     </row>
@@ -4253,10 +4262,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45401</v>
+        <v>45595</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45410</v>
+        <v>45599</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4270,7 +4279,7 @@
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J103" t="inlineStr"/>
     </row>
@@ -4280,7 +4289,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4289,10 +4298,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45605</v>
+        <v>45592</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45605</v>
+        <v>45594</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4301,12 +4310,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J104" t="inlineStr"/>
     </row>
@@ -4325,10 +4334,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45595</v>
+        <v>45401</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45599</v>
+        <v>45410</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4342,7 +4351,7 @@
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J105" t="inlineStr"/>
     </row>
@@ -4352,7 +4361,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4361,10 +4370,10 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45629</v>
+        <v>45605</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45648</v>
+        <v>45605</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4373,26 +4382,22 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Pick up materials from home depot </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Matthew Bowker</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4401,10 +4406,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45629</v>
+        <v>45421</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45647</v>
+        <v>45421</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4416,17 +4421,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>105</v>
-      </c>
-      <c r="J107" t="n">
-        <v>466</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4434,7 +4433,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4443,10 +4442,10 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45610</v>
+        <v>45425</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45614</v>
+        <v>45534</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4455,12 +4454,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J108" t="inlineStr"/>
     </row>
@@ -4470,7 +4469,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4479,10 +4478,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45592</v>
+        <v>45561</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45594</v>
+        <v>45561</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4496,17 +4495,17 @@
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4515,28 +4514,24 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45488</v>
+        <v>45568</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45491</v>
+        <v>45572</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+          <t>sierra ancha</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J110" t="inlineStr"/>
     </row>
@@ -4546,7 +4541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4555,10 +4550,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45408</v>
+        <v>45488</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45412</v>
+        <v>45491</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4570,9 +4565,13 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I111" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J111" t="inlineStr"/>
     </row>
@@ -4582,7 +4581,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4591,10 +4590,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45496</v>
+        <v>45408</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45506</v>
+        <v>45412</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4603,12 +4602,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J112" t="inlineStr"/>
     </row>
@@ -4627,10 +4626,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45478</v>
+        <v>45496</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45487</v>
+        <v>45506</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4644,7 +4643,7 @@
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J113" t="inlineStr"/>
     </row>
@@ -4654,7 +4653,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4663,10 +4662,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45431</v>
+        <v>45478</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45436</v>
+        <v>45487</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4675,12 +4674,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sierra Ancha, </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J114" t="inlineStr"/>
     </row>
@@ -4978,11 +4977,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4990,25 +4989,27 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="D123" s="3" t="n">
-        <v>45660</v>
-      </c>
-      <c r="E123" s="3" t="n">
-        <v>45670</v>
+      <c r="D123" s="2" t="n">
+        <v>45431</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45436</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>310 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
+          <t>467 - 2011 Chevy Silverado, Pearl (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sierra Ancha, </t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>121</v>
-      </c>
-      <c r="J123" t="n">
-        <v>310</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45551</v>
+        <v>45581</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45551</v>
+        <v>45582</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45553</v>
+        <v>45574</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45554</v>
+        <v>45575</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45539</v>
+        <v>45572</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45540</v>
+        <v>45572</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -696,12 +696,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45567</v>
+        <v>45600</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45568</v>
+        <v>45600</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -732,12 +732,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45421</v>
+        <v>45595</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45421</v>
+        <v>45596</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -768,12 +768,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -819,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45432</v>
+        <v>45588</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45538</v>
+        <v>45589</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -840,12 +840,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45593</v>
+        <v>45546</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45593</v>
+        <v>45547</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45595</v>
+        <v>45421</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45596</v>
+        <v>45421</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45600</v>
+        <v>45567</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45600</v>
+        <v>45568</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45572</v>
+        <v>45539</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45572</v>
+        <v>45540</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45574</v>
+        <v>45553</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45575</v>
+        <v>45554</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45588</v>
+        <v>45560</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45589</v>
+        <v>45561</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1152,10 +1152,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45579</v>
+        <v>45432</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45579</v>
+        <v>45538</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45581</v>
+        <v>45637</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45585</v>
+        <v>45642</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1200,12 +1200,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45588</v>
+        <v>45605</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45588</v>
+        <v>45610</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45594</v>
+        <v>45600</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45554</v>
+        <v>45627</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45556</v>
+        <v>45635</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1308,22 +1308,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45660</v>
+        <v>45594</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45670</v>
+        <v>45595</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1344,16 +1344,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>121</v>
-      </c>
-      <c r="J25" t="n">
-        <v>310</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1361,7 +1359,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1370,10 +1368,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45627</v>
+        <v>45554</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45635</v>
+        <v>45556</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1382,12 +1380,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="inlineStr"/>
     </row>
@@ -1406,10 +1404,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1433,7 +1431,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1442,10 +1440,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45605</v>
+        <v>45581</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45610</v>
+        <v>45585</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1454,7 +1452,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1465,11 +1463,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1478,10 +1476,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45637</v>
+        <v>45660</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1495,9 +1493,11 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>22</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J29" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45589</v>
+        <v>45608</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45593</v>
+        <v>45608</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45548</v>
+        <v>45597</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45554</v>
+        <v>45598</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45562</v>
+        <v>45611</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45564</v>
+        <v>45611</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1598,12 +1598,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45581</v>
+        <v>45603</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45587</v>
+        <v>45604</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1634,12 +1634,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1658,10 +1658,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45568</v>
+        <v>45627</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45568</v>
+        <v>45748</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1670,12 +1670,16 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1685,7 +1689,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1694,10 +1698,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45627</v>
+        <v>45548</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45748</v>
+        <v>45554</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1706,16 +1710,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J35" t="inlineStr"/>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45608</v>
+        <v>45581</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45608</v>
+        <v>45587</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45603</v>
+        <v>45562</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45604</v>
+        <v>45564</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1782,12 +1782,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45611</v>
+        <v>45568</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45611</v>
+        <v>45568</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J38" t="inlineStr"/>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45597</v>
+        <v>45589</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45598</v>
+        <v>45593</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -1874,14 +1874,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45545</v>
+        <v>45586</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45547</v>
+        <v>45610</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1890,12 +1890,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45559</v>
+        <v>45573</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45561</v>
+        <v>45575</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
@@ -1950,10 +1950,10 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45552</v>
+        <v>45566</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45554</v>
+        <v>45568</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J43" t="inlineStr"/>
     </row>
@@ -2022,10 +2022,10 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45580</v>
+        <v>45559</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2058,10 +2058,10 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45573</v>
+        <v>45545</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2090,14 +2090,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2117,11 +2117,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45588</v>
+        <v>45667</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45588</v>
+        <v>45667</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2145,11 +2145,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I47" t="n">
         <v>53</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2157,7 +2163,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2166,10 +2172,10 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45642</v>
+        <v>45565</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45643</v>
+        <v>45567</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2178,26 +2184,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2206,10 +2208,10 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45595</v>
+        <v>45667</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45595</v>
+        <v>45667</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2221,19 +2223,25 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I49" t="n">
         <v>57</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2242,10 +2250,10 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2257,17 +2265,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>56</v>
-      </c>
-      <c r="J50" t="n">
-        <v>329</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2305,7 +2307,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J51" t="n">
         <v>329</v>
@@ -2313,11 +2315,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2326,10 +2328,10 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45667</v>
+        <v>45581</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45667</v>
+        <v>45583</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2338,28 +2340,22 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>54</v>
-      </c>
-      <c r="J52" t="n">
-        <v>329</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2368,10 +2364,10 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45667</v>
+        <v>45642</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2380,56 +2376,60 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Keven Griffen</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>52</v>
-      </c>
-      <c r="J53" t="n">
-        <v>329</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Jill Beckmann</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>329 - Chevy Trail Boss, White</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>50</v>
+      </c>
+      <c r="J54" t="n">
         <v>329</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Bowker</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>329 - Chevy Trail Boss, White</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>for keven, srp data collection</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55" t="n">
         <v>329</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J56" t="n">
         <v>329</v>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45576</v>
+        <v>45595</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45576</v>
+        <v>45595</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J57" t="inlineStr"/>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2566,10 +2566,10 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45565</v>
+        <v>45588</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45567</v>
+        <v>45588</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J58" t="inlineStr"/>
     </row>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J59" t="n">
         <v>329</v>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J60" t="n">
         <v>329</v>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J61" t="n">
         <v>329</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J62" t="inlineStr"/>
     </row>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J63" t="inlineStr"/>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J64" t="inlineStr"/>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J65" t="inlineStr"/>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J66" t="inlineStr"/>
     </row>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J67" t="inlineStr"/>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J68" t="inlineStr"/>
     </row>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J69" t="inlineStr"/>
     </row>
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J70" t="inlineStr"/>
     </row>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J71" t="inlineStr"/>
     </row>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J72" t="inlineStr"/>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3152,10 +3152,10 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45432</v>
+        <v>45509</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45434</v>
+        <v>45514</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3164,12 +3164,16 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I73" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J73" t="inlineStr"/>
     </row>
@@ -3179,19 +3183,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45478</v>
+        <v>45517</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45506</v>
+        <v>45518</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3200,10 +3204,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Salli Dymond</t>
+        </is>
+      </c>
       <c r="I74" t="n">
         <v>76</v>
       </c>
@@ -3215,7 +3223,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3224,10 +3232,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45453</v>
+        <v>45439</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45477</v>
+        <v>45445</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3236,7 +3244,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3251,7 +3259,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3260,10 +3268,10 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45555</v>
+        <v>45525</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45555</v>
+        <v>45525</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3272,12 +3280,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J76" t="inlineStr"/>
     </row>
@@ -3287,7 +3295,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3296,10 +3304,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45445</v>
+        <v>45477</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3323,19 +3331,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45517</v>
+        <v>45478</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45518</v>
+        <v>45506</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3344,16 +3352,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J78" t="inlineStr"/>
     </row>
@@ -3363,7 +3367,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3372,10 +3376,10 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45525</v>
+        <v>45432</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45525</v>
+        <v>45434</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3384,12 +3388,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J79" t="inlineStr"/>
     </row>
@@ -3399,7 +3403,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3408,10 +3412,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45509</v>
+        <v>45555</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45514</v>
+        <v>45555</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3420,14 +3424,10 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Matthew Voorhees</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>74</v>
       </c>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45401</v>
+        <v>45639</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45402</v>
+        <v>45647</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3465,45 +3465,51 @@
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Anita Joy Antoninka</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>88</v>
+      </c>
+      <c r="J82" t="n">
         <v>333</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>45433</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>333 - 2017 Toyota Tacoma, Charcoal (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="n">
-        <v>79</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3511,7 +3517,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3520,10 +3526,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45636</v>
+        <v>45536</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3532,12 +3538,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J83" t="inlineStr"/>
     </row>
@@ -3547,7 +3553,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3556,10 +3562,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45602</v>
+        <v>45422</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45608</v>
+        <v>45427</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3573,7 +3579,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J84" t="inlineStr"/>
     </row>
@@ -3583,7 +3589,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3592,10 +3598,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45541</v>
+        <v>45421</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45571</v>
+        <v>45421</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3604,12 +3610,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J85" t="inlineStr"/>
     </row>
@@ -3655,7 +3661,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3664,10 +3670,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45421</v>
+        <v>45602</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45421</v>
+        <v>45608</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3681,7 +3687,7 @@
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J87" t="inlineStr"/>
     </row>
@@ -3691,7 +3697,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3700,10 +3706,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45422</v>
+        <v>45627</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45427</v>
+        <v>45636</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3717,7 +3723,7 @@
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J88" t="inlineStr"/>
     </row>
@@ -3727,7 +3733,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3736,10 +3742,10 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45444</v>
+        <v>45432</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45536</v>
+        <v>45433</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3748,22 +3754,22 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3772,10 +3778,10 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45627</v>
+        <v>45401</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45688</v>
+        <v>45402</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3787,17 +3793,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>88</v>
-      </c>
-      <c r="J90" t="n">
-        <v>333</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3814,10 +3814,10 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45639</v>
+        <v>45541</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45647</v>
+        <v>45571</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3850,10 +3850,10 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45401</v>
+        <v>45475</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45402</v>
+        <v>45565</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3862,12 +3862,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tonto</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J92" t="inlineStr"/>
     </row>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45581</v>
+        <v>45425</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45587</v>
+        <v>45474</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3898,50 +3898,56 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>96</v>
+      </c>
+      <c r="J94" t="n">
         <v>338</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Seafha Ramos</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>45613</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>338 - 2012 Nissan Titan, White (5 Seats)</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Day use in town for the extent of stay</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
-        <v>95</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3949,7 +3955,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3958,10 +3964,10 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45594</v>
+        <v>45403</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45594</v>
+        <v>45423</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3970,12 +3976,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J95" t="inlineStr"/>
     </row>
@@ -3985,7 +3991,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3994,10 +4000,10 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45403</v>
+        <v>45581</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45423</v>
+        <v>45587</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4006,7 +4012,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -4021,7 +4027,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4030,10 +4036,10 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45475</v>
+        <v>45597</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45565</v>
+        <v>45613</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4042,22 +4048,22 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Tonto</t>
+          <t>Day use in town for the extent of stay</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Peter Fule</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4066,10 +4072,10 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45667</v>
+        <v>45594</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45787</v>
+        <v>45594</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4078,20 +4084,14 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Peter Fule</t>
-        </is>
-      </c>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>338</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4108,10 +4108,10 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45425</v>
+        <v>45401</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45474</v>
+        <v>45402</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4120,12 +4120,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J99" t="inlineStr"/>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45610</v>
+        <v>45561</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45614</v>
+        <v>45561</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4161,17 +4161,17 @@
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Matthew Bowker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4180,10 +4180,10 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45629</v>
+        <v>45425</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45647</v>
+        <v>45534</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4192,20 +4192,14 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>105</v>
-      </c>
-      <c r="J101" t="n">
-        <v>466</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4213,7 +4207,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4222,10 +4216,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45629</v>
+        <v>45421</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45648</v>
+        <v>45421</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4234,16 +4228,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J102" t="inlineStr"/>
     </row>
@@ -4253,7 +4243,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4262,10 +4252,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45595</v>
+        <v>45605</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45599</v>
+        <v>45605</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4274,12 +4264,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J103" t="inlineStr"/>
     </row>
@@ -4289,7 +4279,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4298,10 +4288,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45592</v>
+        <v>45401</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45594</v>
+        <v>45410</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4315,7 +4305,7 @@
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J104" t="inlineStr"/>
     </row>
@@ -4325,7 +4315,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4334,10 +4324,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45401</v>
+        <v>45568</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45410</v>
+        <v>45572</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4346,12 +4336,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sierra ancha</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J105" t="inlineStr"/>
     </row>
@@ -4361,7 +4351,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4370,10 +4360,10 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45605</v>
+        <v>45595</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45605</v>
+        <v>45599</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4382,12 +4372,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J106" t="inlineStr"/>
     </row>
@@ -4397,7 +4387,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4406,10 +4396,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45421</v>
+        <v>45629</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45421</v>
+        <v>45648</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4418,50 +4408,60 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I107" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Matthew Bowker</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45647</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>99</v>
+      </c>
+      <c r="J108" t="n">
         <v>466</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Waring</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="E108" s="2" t="n">
-        <v>45534</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>466 - 2007 Ford Expedition, Silver (7 Seats)</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="n">
-        <v>98</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4478,10 +4478,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45561</v>
+        <v>45610</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45561</v>
+        <v>45614</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J109" t="inlineStr"/>
     </row>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45568</v>
+        <v>45592</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45572</v>
+        <v>45594</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J110" t="inlineStr"/>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4550,10 +4550,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45488</v>
+        <v>45527</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4562,16 +4562,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J111" t="inlineStr"/>
     </row>
@@ -4581,7 +4577,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4590,10 +4586,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45408</v>
+        <v>45441</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45412</v>
+        <v>45442</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4607,7 +4603,7 @@
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J112" t="inlineStr"/>
     </row>
@@ -4617,7 +4613,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4626,10 +4622,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45496</v>
+        <v>45516</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45506</v>
+        <v>45521</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4638,12 +4634,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J113" t="inlineStr"/>
     </row>
@@ -4653,7 +4649,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4662,10 +4658,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45478</v>
+        <v>45509</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45487</v>
+        <v>45513</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4674,12 +4670,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J114" t="inlineStr"/>
     </row>
@@ -4689,7 +4685,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4698,10 +4694,10 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45401</v>
+        <v>45533</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45402</v>
+        <v>45534</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4710,12 +4706,16 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
+          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Adair Patterson</t>
+        </is>
+      </c>
       <c r="I115" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J115" t="inlineStr"/>
     </row>
@@ -4734,10 +4734,10 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45523</v>
+        <v>45478</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45524</v>
+        <v>45487</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J116" t="inlineStr"/>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4770,10 +4770,10 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45533</v>
+        <v>45401</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45534</v>
+        <v>45402</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4782,16 +4782,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Adair Patterson</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J117" t="inlineStr"/>
     </row>
@@ -4801,7 +4797,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4810,10 +4806,10 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45509</v>
+        <v>45496</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45513</v>
+        <v>45506</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4822,12 +4818,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J118" t="inlineStr"/>
     </row>
@@ -4837,7 +4833,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4846,10 +4842,10 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45516</v>
+        <v>45408</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45521</v>
+        <v>45412</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4863,7 +4859,7 @@
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J119" t="inlineStr"/>
     </row>
@@ -4873,7 +4869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4882,10 +4878,10 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45441</v>
+        <v>45488</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45442</v>
+        <v>45491</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4897,9 +4893,13 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I120" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J120" t="inlineStr"/>
     </row>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4918,10 +4918,10 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45527</v>
+        <v>45440</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>45527</v>
+        <v>45440</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4930,12 +4930,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J121" t="inlineStr"/>
     </row>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45440</v>
+        <v>45523</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>45440</v>
+        <v>45524</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4966,12 +4966,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J122" t="inlineStr"/>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J123" t="inlineStr"/>
     </row>

--- a/Vehicle_Checkout_List.xlsx
+++ b/Vehicle_Checkout_List.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -531,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,10 +543,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45579</v>
+        <v>45432</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45579</v>
+        <v>45538</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -552,7 +555,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>California all summer</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -567,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,10 +579,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45576</v>
+        <v>45558</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -588,7 +591,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>field work near flagstaff</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -603,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,10 +615,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45581</v>
+        <v>45551</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45582</v>
+        <v>45551</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -648,10 +651,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45574</v>
+        <v>45553</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45575</v>
+        <v>45554</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -675,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,10 +687,10 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45572</v>
+        <v>45539</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45572</v>
+        <v>45540</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -696,7 +699,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -711,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -720,10 +723,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45600</v>
+        <v>45567</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45600</v>
+        <v>45568</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -732,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -747,7 +750,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -756,10 +759,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45595</v>
+        <v>45421</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45596</v>
+        <v>45421</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -768,7 +771,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -783,7 +786,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,10 +795,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45593</v>
+        <v>45546</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45593</v>
+        <v>45547</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -804,7 +807,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -828,10 +831,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45588</v>
+        <v>45560</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45589</v>
+        <v>45561</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -855,7 +858,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -864,10 +867,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45546</v>
+        <v>45593</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45547</v>
+        <v>45593</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,7 +879,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -891,7 +894,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,10 +903,10 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45421</v>
+        <v>45595</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45421</v>
+        <v>45596</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -912,7 +915,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -927,7 +930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -936,10 +939,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45567</v>
+        <v>45600</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45568</v>
+        <v>45600</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -948,7 +951,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -963,7 +966,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Bre Powers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -972,10 +975,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45539</v>
+        <v>45572</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45540</v>
+        <v>45572</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -984,7 +987,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1008,10 +1011,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45553</v>
+        <v>45574</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45554</v>
+        <v>45575</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1035,7 +1038,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bre Powers</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1044,10 +1047,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45551</v>
+        <v>45581</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45551</v>
+        <v>45582</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1080,10 +1083,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45561</v>
+        <v>45576</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1092,7 +1095,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>field work near flagstaff</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1116,10 +1119,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1143,7 +1146,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1152,10 +1155,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45432</v>
+        <v>45588</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45538</v>
+        <v>45589</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1164,7 +1167,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>California all summer</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1175,11 +1178,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1188,10 +1191,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45637</v>
+        <v>45660</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1207,7 +1210,9 @@
       <c r="I21" t="n">
         <v>27</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1215,7 +1220,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Andrew Henning</t>
+          <t>Darren Olney</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1224,10 +1229,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45605</v>
+        <v>45581</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45610</v>
+        <v>45585</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1236,7 +1241,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Down to the valley for a conference </t>
+          <t>POC: deo73@nau.edu</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1260,10 +1265,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45600</v>
+        <v>45588</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1287,7 +1292,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1296,10 +1301,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45627</v>
+        <v>45554</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45635</v>
+        <v>45556</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1308,7 +1313,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1332,10 +1337,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45594</v>
+        <v>45600</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1359,7 +1364,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1368,10 +1373,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45554</v>
+        <v>45627</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45556</v>
+        <v>45635</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1380,7 +1385,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">We will be traveling to Organ Pipe, Casa Grande, and Tonto National monuments to conduct fieldwork for my PhD project. The vehicle will be used to transport people and materials for that work. We will have no more than 4 people in the vehicle. </t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1395,7 +1400,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>Andrew Henning</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1404,10 +1409,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45588</v>
+        <v>45605</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45588</v>
+        <v>45610</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1416,7 +1421,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AZWI</t>
+          <t xml:space="preserve">Down to the valley for a conference </t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1431,7 +1436,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Darren Olney</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1440,10 +1445,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45581</v>
+        <v>45637</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45585</v>
+        <v>45642</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1452,7 +1457,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>POC: deo73@nau.edu</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1463,11 +1468,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1476,10 +1481,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45660</v>
+        <v>45594</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45670</v>
+        <v>45595</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1488,16 +1493,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AZWI</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>23</v>
       </c>
-      <c r="J29" t="n">
-        <v>310</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1505,7 +1508,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1514,10 +1517,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45608</v>
+        <v>45581</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45608</v>
+        <v>45587</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1526,7 +1529,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Payson for a workshop</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1541,7 +1544,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Megan Rangel-Lynch</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1550,10 +1553,10 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45597</v>
+        <v>45589</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45598</v>
+        <v>45593</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1577,7 +1580,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Max Yusen</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1586,10 +1589,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45611</v>
+        <v>45568</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45611</v>
+        <v>45568</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1598,7 +1601,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>school to teach about fire for a day</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1613,7 +1616,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jaime</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1622,10 +1625,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45603</v>
+        <v>45562</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45604</v>
+        <v>45564</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1634,7 +1637,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SRP field work</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1649,7 +1652,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1658,10 +1661,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45627</v>
+        <v>45548</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45748</v>
+        <v>45554</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1670,14 +1673,10 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Emory Ellis</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>33</v>
       </c>
@@ -1689,7 +1688,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Megan Rangel-Lynch</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1698,10 +1697,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45548</v>
+        <v>45597</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45554</v>
+        <v>45598</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1725,7 +1724,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>jaime</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1734,10 +1733,10 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45581</v>
+        <v>45603</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45587</v>
+        <v>45604</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1746,7 +1745,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>SRP field work</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1761,7 +1760,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Max Yusen</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1770,10 +1769,10 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45562</v>
+        <v>45611</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45564</v>
+        <v>45611</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1782,7 +1781,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>school to teach about fire for a day</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1797,7 +1796,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1806,10 +1805,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45568</v>
+        <v>45627</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45568</v>
+        <v>45748</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1818,10 +1817,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t xml:space="preserve">This vehicle will be used to travel to the Sierra Ancha Experimental Forest throughout the winter months to collect snow, snow melt, and stream samples for water stable isotopes and chemistry. </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Emory Ellis</t>
+        </is>
+      </c>
       <c r="I38" t="n">
         <v>32</v>
       </c>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1842,10 +1845,10 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45589</v>
+        <v>45608</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45593</v>
+        <v>45608</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1854,7 +1857,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Payson for a workshop</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1874,14 +1877,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45586</v>
+        <v>45552</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45610</v>
+        <v>45554</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1890,7 +1893,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FOR220 tuesday-thursday</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1914,10 +1917,10 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45573</v>
+        <v>45545</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45575</v>
+        <v>45547</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1950,10 +1953,10 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1986,10 +1989,10 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45580</v>
+        <v>45559</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2022,10 +2025,10 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45559</v>
+        <v>45573</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45561</v>
+        <v>45575</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2054,14 +2057,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45545</v>
+        <v>45586</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45547</v>
+        <v>45610</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>FOR220 tuesday-thursday</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2094,10 +2097,10 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45552</v>
+        <v>45566</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45554</v>
+        <v>45568</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2163,7 +2166,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2172,10 +2175,10 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45565</v>
+        <v>45588</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45567</v>
+        <v>45588</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2241,7 +2244,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2250,10 +2253,10 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45576</v>
+        <v>45595</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45576</v>
+        <v>45595</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2315,11 +2318,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2328,10 +2331,10 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45581</v>
+        <v>45667</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45583</v>
+        <v>45667</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2340,14 +2343,20 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>for keven, srp data collection</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I52" t="n">
         <v>52</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2355,7 +2364,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2364,10 +2373,10 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45642</v>
+        <v>45565</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45643</v>
+        <v>45567</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2376,14 +2385,10 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>46</v>
       </c>
@@ -2391,11 +2396,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2404,10 +2409,10 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45667</v>
+        <v>45581</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45667</v>
+        <v>45583</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2416,20 +2421,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+          <t>for keven, srp data collection</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>50</v>
       </c>
-      <c r="J54" t="n">
-        <v>329</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2475,11 +2474,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2488,10 +2487,10 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45667</v>
+        <v>45576</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2503,25 +2502,19 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Jacob Shelly</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>48</v>
       </c>
-      <c r="J56" t="n">
-        <v>329</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2530,10 +2523,10 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45595</v>
+        <v>45667</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45595</v>
+        <v>45667</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2545,19 +2538,25 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I57" t="n">
         <v>47</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Jill Beckmann</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2566,10 +2565,10 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45588</v>
+        <v>45667</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45588</v>
+        <v>45667</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2581,11 +2580,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jacob Shelly</t>
+        </is>
+      </c>
       <c r="I58" t="n">
         <v>45</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2631,11 +2636,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jill Beckmann</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2644,10 +2649,10 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45667</v>
+        <v>45642</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45667</v>
+        <v>45643</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2656,20 +2661,18 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Andrei will be joining us in the field (as long as he is feeling better) in Superior, AZ. The fieldwork is being conducted as part of my PhD research.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Jacob Shelly</t>
+          <t>Keven Griffen</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>51</v>
       </c>
-      <c r="J60" t="n">
-        <v>329</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3143,7 +3146,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Carol Chambers</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3152,10 +3155,10 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45509</v>
+        <v>45555</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45514</v>
+        <v>45555</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3164,14 +3167,10 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Matthew Voorhees</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>78</v>
       </c>
@@ -3183,19 +3182,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45517</v>
+        <v>45478</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45518</v>
+        <v>45506</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3204,14 +3203,10 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Salli Dymond</t>
-        </is>
-      </c>
+          <t>southern AZ/NM</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
         <v>76</v>
       </c>
@@ -3223,7 +3218,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3232,10 +3227,10 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45445</v>
+        <v>45477</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3244,7 +3239,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3259,7 +3254,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3268,10 +3263,10 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45525</v>
+        <v>45432</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45525</v>
+        <v>45434</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3280,7 +3275,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3295,7 +3290,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3304,10 +3299,10 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45453</v>
+        <v>45439</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45477</v>
+        <v>45445</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3316,7 +3311,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Sierra Ancha and Verde Valley, dates not needed are TBD</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -3331,19 +3326,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45478</v>
+        <v>45517</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45506</v>
+        <v>45518</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3352,10 +3347,14 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>We need a 4WD vehicle with room for 4 passengers, AC, and room for large equipment to drive to a remote field site for installing sensors. The field site is the SRP-funded Dude Fire project, which is located on the Tonto NF near Payson. Salli will drive and take 2-3 students. This is an overnight trip - we'll depart around 8am on 8/13 and return around 5pm on 8/14.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Salli Dymond</t>
+        </is>
+      </c>
       <c r="I78" t="n">
         <v>72</v>
       </c>
@@ -3367,7 +3366,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Carol Chambers</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3376,10 +3375,10 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45432</v>
+        <v>45509</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45434</v>
+        <v>45514</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3388,10 +3387,14 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
+          <t xml:space="preserve">Jumping mouse stuff. To and From the White Mountains. </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Matthew Voorhees</t>
+        </is>
+      </c>
       <c r="I79" t="n">
         <v>71</v>
       </c>
@@ -3403,7 +3406,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3412,10 +3415,10 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45555</v>
+        <v>45525</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45555</v>
+        <v>45525</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3424,7 +3427,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">The purpose of this trip is to download evapotranspiration data from some installed sensors, as part of our research project. Our destination trip is Tonto NF near Payson, AZ. Two occupants will be in the vehicle (Jaime Ortega and Logan Ozment). </t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3439,7 +3442,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3448,10 +3451,10 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45639</v>
+        <v>45541</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45647</v>
+        <v>45571</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3460,7 +3463,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3471,11 +3474,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3484,10 +3487,10 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45627</v>
+        <v>45401</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45688</v>
+        <v>45402</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3499,17 +3502,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
         <v>88</v>
       </c>
-      <c r="J82" t="n">
-        <v>333</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3517,7 +3514,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Anita Joy Antoninka</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3526,10 +3523,10 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45444</v>
+        <v>45432</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45536</v>
+        <v>45433</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3538,7 +3535,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>New Mexico, dates not needed are TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -3553,7 +3550,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3562,10 +3559,10 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45422</v>
+        <v>45627</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45427</v>
+        <v>45636</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3589,7 +3586,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3598,10 +3595,10 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45421</v>
+        <v>45602</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45421</v>
+        <v>45608</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3661,7 +3658,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3670,10 +3667,10 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45602</v>
+        <v>45422</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45608</v>
+        <v>45427</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3697,7 +3694,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3706,10 +3703,10 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45636</v>
+        <v>45536</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3718,7 +3715,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>New Mexico, dates not needed are TBD</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3729,11 +3726,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Anita Joy Antoninka</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3742,10 +3739,10 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45432</v>
+        <v>45627</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45433</v>
+        <v>45688</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3757,11 +3754,17 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I89" t="n">
         <v>80</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3769,7 +3772,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Olsen</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3778,10 +3781,10 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45401</v>
+        <v>45639</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45402</v>
+        <v>45647</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3805,7 +3808,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3814,10 +3817,10 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45541</v>
+        <v>45421</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45571</v>
+        <v>45421</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3826,7 +3829,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truck will be used to drive 4 students and gear to Valles Caldera Preserve in New Mexico. It will transport the techs around the preserve on some bad roads to the 12 field sites we have in the area. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -3841,7 +3844,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3850,10 +3853,10 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45475</v>
+        <v>45597</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45565</v>
+        <v>45613</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3862,7 +3865,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Tonto</t>
+          <t>Day use in town for the extent of stay</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3877,7 +3880,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Margaret Moore</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3886,10 +3889,10 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45425</v>
+        <v>45401</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45474</v>
+        <v>45402</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3898,7 +3901,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Tonto/ dates not needed TBD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -3909,11 +3912,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Peter Fule</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3922,10 +3925,10 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45667</v>
+        <v>45594</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45787</v>
+        <v>45594</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3934,20 +3937,14 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Peter Fule</t>
-        </is>
-      </c>
+          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
         <v>96</v>
       </c>
-      <c r="J94" t="n">
-        <v>338</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3955,7 +3952,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3964,10 +3961,10 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45403</v>
+        <v>45581</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45423</v>
+        <v>45587</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3976,7 +3973,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>SAEF</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -4000,10 +3997,10 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45581</v>
+        <v>45425</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45587</v>
+        <v>45474</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4012,7 +4009,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>SAEF</t>
+          <t>Tonto/ dates not needed TBD</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -4023,23 +4020,23 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Seafha Ramos</t>
+          <t>Peter Fule</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="E97" s="2" t="n">
-        <v>45613</v>
+          <t>Reserved</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>45787</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4048,14 +4045,20 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Day use in town for the extent of stay</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Peter Fule</t>
+        </is>
+      </c>
       <c r="I97" t="n">
         <v>92</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4063,7 +4066,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Seafha Ramos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4072,10 +4075,10 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45594</v>
+        <v>45403</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45594</v>
+        <v>45423</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4084,7 +4087,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve">FOR445 related field trip destination wilderness either in Sedona, Sycamore canyon, or around Flagstaff </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -4099,7 +4102,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Margaret Moore</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4108,10 +4111,10 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45401</v>
+        <v>45475</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45402</v>
+        <v>45565</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4120,7 +4123,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tonto</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -4135,7 +4138,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Derek Uhey</t>
+          <t>Emory Ellis</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4144,10 +4147,10 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45561</v>
+        <v>45610</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45561</v>
+        <v>45614</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4167,11 +4170,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>Matthew Bowker</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4180,10 +4183,10 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45425</v>
+        <v>45629</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45534</v>
+        <v>45647</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4192,14 +4195,20 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I101" t="n">
         <v>106</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>466</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4207,7 +4216,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>keven</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4216,10 +4225,10 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45421</v>
+        <v>45629</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45421</v>
+        <v>45648</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4228,10 +4237,14 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
+          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Keven Griffen</t>
+        </is>
+      </c>
       <c r="I102" t="n">
         <v>105</v>
       </c>
@@ -4243,7 +4256,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4252,10 +4265,10 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45605</v>
+        <v>45595</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45605</v>
+        <v>45599</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4264,7 +4277,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pick up materials from home depot </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -4279,7 +4292,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Salli Dymond</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4288,10 +4301,10 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45401</v>
+        <v>45568</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45410</v>
+        <v>45572</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4300,7 +4313,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>sierra ancha</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4315,7 +4328,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Salli Dymond</t>
+          <t>Lauren Orme</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4324,10 +4337,10 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45568</v>
+        <v>45592</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45572</v>
+        <v>45594</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4336,7 +4349,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>sierra ancha</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4351,7 +4364,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Anita</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4360,10 +4373,10 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45595</v>
+        <v>45605</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45599</v>
+        <v>45605</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4372,7 +4385,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">Pick up materials from home depot </t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4387,7 +4400,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>keven</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4396,10 +4409,10 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45629</v>
+        <v>45421</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45648</v>
+        <v>45421</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4408,14 +4421,10 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be traveling down to Casa Grande National Monument to join another NAU field crew and finish fieldwork on my research trip. This vehicle will transport one to two people at a time. The first destination is Casa Grande, followed by Tonto National Monument. </t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
         <v>100</v>
       </c>
@@ -4423,11 +4432,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Matthew Bowker</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4436,10 +4445,10 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45629</v>
+        <v>45425</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45647</v>
+        <v>45534</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4448,20 +4457,14 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Keven Griffen</t>
-        </is>
-      </c>
+          <t>northern AZ, southern Utah, Lincoln, available most weekends/TBD</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
         <v>99</v>
       </c>
-      <c r="J108" t="n">
-        <v>466</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4469,7 +4472,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Emory Ellis</t>
+          <t>Derek Uhey</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4478,10 +4481,10 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45610</v>
+        <v>45561</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45614</v>
+        <v>45561</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4505,7 +4508,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lauren Orme</t>
+          <t>Anita</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4514,10 +4517,10 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45592</v>
+        <v>45401</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45594</v>
+        <v>45410</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4541,7 +4544,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>David Auty</t>
+          <t>Kimberly Walker</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4550,10 +4553,10 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45527</v>
+        <v>45440</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45527</v>
+        <v>45440</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4562,7 +4565,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -4577,7 +4580,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Waring</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4586,10 +4589,10 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45441</v>
+        <v>45488</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45442</v>
+        <v>45491</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4601,7 +4604,11 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Shay Levine</t>
+        </is>
+      </c>
       <c r="I112" t="n">
         <v>118</v>
       </c>
@@ -4613,7 +4620,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>Michael Sloan</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4622,10 +4629,10 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45516</v>
+        <v>45408</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45521</v>
+        <v>45412</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4649,7 +4656,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4658,10 +4665,10 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45509</v>
+        <v>45496</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45513</v>
+        <v>45506</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4670,7 +4677,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -4685,7 +4692,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Adair Patterson</t>
+          <t>Bowker</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4694,10 +4701,10 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45533</v>
+        <v>45401</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45534</v>
+        <v>45402</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4706,14 +4713,10 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Adair Patterson</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
         <v>115</v>
       </c>
@@ -4725,7 +4728,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4734,10 +4737,10 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45478</v>
+        <v>45509</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45487</v>
+        <v>45513</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4746,7 +4749,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -4761,7 +4764,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Bowker</t>
+          <t>Adair Patterson</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4770,10 +4773,10 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45401</v>
+        <v>45533</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45402</v>
+        <v>45534</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4782,10 +4785,14 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>I have a site visit coming up August 29th-30th and I was wondering if I could use a truck for this? It is to a location near Tsegi, AZ on Navajo Nation and it would be ideal to have a truck as there is a short section of dirt road needed to be crossed. This is for a restoration project in conjunction with Navajo Nation culturally important riparian areas work, an ongoing project to restore plants in traditionally significant areas. It would be a one night camp out trip.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Adair Patterson</t>
+        </is>
+      </c>
       <c r="I117" t="n">
         <v>113</v>
       </c>
@@ -4797,7 +4804,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pete Fule </t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4806,10 +4813,10 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45496</v>
+        <v>45516</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45506</v>
+        <v>45521</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4818,7 +4825,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>southern AZ/NM</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -4833,7 +4840,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Michael Sloan</t>
+          <t>Waring</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4842,10 +4849,10 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45408</v>
+        <v>45441</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45412</v>
+        <v>45442</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4869,7 +4876,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>David Auty</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4878,10 +4885,10 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45488</v>
+        <v>45527</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4890,14 +4897,10 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Shay Levine</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 	Field visit to Pump House Wash for Ironwood Forestry field demo. </t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
         <v>109</v>
       </c>
@@ -4909,7 +4912,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Kimberly Walker</t>
+          <t xml:space="preserve">Pete Fule </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4918,10 +4921,10 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45440</v>
+        <v>45523</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>45440</v>
+        <v>45524</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4930,7 +4933,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -4954,10 +4957,10 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45523</v>
+        <v>45478</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>45524</v>
+        <v>45487</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4966,7 +4969,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 	Research day trip for data collection on Tonto NF. </t>
+          <t>southern AZ/NM</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
